--- a/performance bf0.xlsx
+++ b/performance bf0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filippo\Desktop\tesi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CF8E20-3AA0-49A2-BC41-463BE148BB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48B78B9-6B8E-4322-BE23-D813F0BD29AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,16 +322,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G9" workbookViewId="0">
-      <selection activeCell="AI43" sqref="AI43"/>
+    <sheetView tabSelected="1" topLeftCell="G54" workbookViewId="0">
+      <selection activeCell="AI83" sqref="AI83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +815,7 @@
       </c>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -859,7 +859,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U5" s="15"/>
-      <c r="V5" s="19" t="s">
+      <c r="V5" s="22" t="s">
         <v>10</v>
       </c>
       <c r="W5" s="4" t="s">
@@ -904,7 +904,7 @@
       </c>
     </row>
     <row r="6" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -926,7 +926,7 @@
       <c r="K6" s="10">
         <v>0.93400000000000005</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="19">
         <v>0.93</v>
       </c>
       <c r="M6" s="11">
@@ -946,7 +946,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U6" s="15"/>
-      <c r="V6" s="19"/>
+      <c r="V6" s="22"/>
       <c r="W6" s="4" t="s">
         <v>2</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="AF6" s="10">
         <v>6299</v>
       </c>
-      <c r="AG6" s="22">
+      <c r="AG6" s="19">
         <v>6323</v>
       </c>
       <c r="AH6" s="11">
@@ -989,7 +989,7 @@
       </c>
     </row>
     <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1011,7 +1011,7 @@
       <c r="K7" s="10">
         <v>2.944</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="19">
         <v>2.9550000000000001</v>
       </c>
       <c r="M7" s="11">
@@ -1031,7 +1031,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U7" s="15"/>
-      <c r="V7" s="19"/>
+      <c r="V7" s="22"/>
       <c r="W7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="AF7" s="10">
         <v>7088</v>
       </c>
-      <c r="AG7" s="22">
+      <c r="AG7" s="19">
         <v>7061</v>
       </c>
       <c r="AH7" s="11">
@@ -1074,7 +1074,7 @@
       </c>
     </row>
     <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1090,13 +1090,13 @@
       <c r="I8" s="9">
         <v>8.9440000000000008</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="19">
         <v>8.9</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="19">
         <v>8.8979999999999997</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="19">
         <v>8.9090000000000007</v>
       </c>
       <c r="M8" s="11">
@@ -1116,7 +1116,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U8" s="15"/>
-      <c r="V8" s="19"/>
+      <c r="V8" s="22"/>
       <c r="W8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1132,13 +1132,13 @@
       <c r="AD8" s="9">
         <v>9258</v>
       </c>
-      <c r="AE8" s="22">
+      <c r="AE8" s="19">
         <v>9303</v>
       </c>
-      <c r="AF8" s="22">
+      <c r="AF8" s="19">
         <v>9306</v>
       </c>
-      <c r="AG8" s="22">
+      <c r="AG8" s="19">
         <v>9294</v>
       </c>
       <c r="AH8" s="11">
@@ -1159,7 +1159,7 @@
       </c>
     </row>
     <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1175,13 +1175,13 @@
       <c r="I9" s="9">
         <v>15.941000000000001</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="19">
         <v>15.919</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="19">
         <v>15.907999999999999</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="19">
         <v>15.882</v>
       </c>
       <c r="M9" s="11">
@@ -1201,7 +1201,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U9" s="15"/>
-      <c r="V9" s="19"/>
+      <c r="V9" s="22"/>
       <c r="W9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1217,13 +1217,13 @@
       <c r="AD9" s="9">
         <v>10130</v>
       </c>
-      <c r="AE9" s="22">
+      <c r="AE9" s="19">
         <v>10140</v>
       </c>
-      <c r="AF9" s="22">
+      <c r="AF9" s="19">
         <v>10150</v>
       </c>
-      <c r="AG9" s="22">
+      <c r="AG9" s="19">
         <v>10160</v>
       </c>
       <c r="AH9" s="11">
@@ -1244,7 +1244,7 @@
       </c>
     </row>
     <row r="10" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1260,13 +1260,13 @@
       <c r="I10" s="9">
         <v>0.27300000000000002</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="19">
         <v>0.26900000000000002</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="19">
         <v>0.27500000000000002</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="19">
         <v>0.28000000000000003</v>
       </c>
       <c r="M10" s="11">
@@ -1286,7 +1286,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U10" s="15"/>
-      <c r="V10" s="19"/>
+      <c r="V10" s="22"/>
       <c r="W10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1302,13 +1302,13 @@
       <c r="AD10" s="9">
         <v>915.3</v>
       </c>
-      <c r="AE10" s="22">
+      <c r="AE10" s="19">
         <v>928.5</v>
       </c>
-      <c r="AF10" s="22">
+      <c r="AF10" s="19">
         <v>908.1</v>
       </c>
-      <c r="AG10" s="22">
+      <c r="AG10" s="19">
         <v>893.2</v>
       </c>
       <c r="AH10" s="11">
@@ -1329,7 +1329,7 @@
       </c>
     </row>
     <row r="11" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1345,13 +1345,13 @@
       <c r="I11" s="9">
         <v>0.31900000000000001</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="19">
         <v>0.29599999999999999</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="19">
         <v>0.28199999999999997</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="19">
         <v>0.28100000000000003</v>
       </c>
       <c r="M11" s="11">
@@ -1371,7 +1371,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U11" s="15"/>
-      <c r="V11" s="19"/>
+      <c r="V11" s="22"/>
       <c r="W11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1387,13 +1387,13 @@
       <c r="AD11" s="9">
         <v>1567</v>
       </c>
-      <c r="AE11" s="22">
+      <c r="AE11" s="19">
         <v>1689</v>
       </c>
-      <c r="AF11" s="22">
+      <c r="AF11" s="19">
         <v>1774</v>
       </c>
-      <c r="AG11" s="22">
+      <c r="AG11" s="19">
         <v>1777</v>
       </c>
       <c r="AH11" s="11">
@@ -1414,7 +1414,7 @@
       </c>
     </row>
     <row r="12" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1430,13 +1430,13 @@
       <c r="I12" s="9">
         <v>0.318</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="19">
         <v>0.29899999999999999</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="19">
         <v>0.309</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="19">
         <v>0.29499999999999998</v>
       </c>
       <c r="M12" s="11">
@@ -1456,7 +1456,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U12" s="15"/>
-      <c r="V12" s="19"/>
+      <c r="V12" s="22"/>
       <c r="W12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1472,13 +1472,13 @@
       <c r="AD12" s="9">
         <v>2357</v>
       </c>
-      <c r="AE12" s="22">
+      <c r="AE12" s="19">
         <v>2504</v>
       </c>
-      <c r="AF12" s="22">
+      <c r="AF12" s="19">
         <v>2427</v>
       </c>
-      <c r="AG12" s="22">
+      <c r="AG12" s="19">
         <v>2544</v>
       </c>
       <c r="AH12" s="11">
@@ -1499,7 +1499,7 @@
       </c>
     </row>
     <row r="13" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U13" s="15"/>
-      <c r="V13" s="19"/>
+      <c r="V13" s="22"/>
       <c r="W13" s="4" t="s">
         <v>9</v>
       </c>
@@ -1627,7 +1627,7 @@
       <c r="AO14" s="15"/>
     </row>
     <row r="15" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1671,7 +1671,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U15" s="15"/>
-      <c r="V15" s="19" t="s">
+      <c r="V15" s="22" t="s">
         <v>20</v>
       </c>
       <c r="W15" s="4" t="s">
@@ -1716,7 +1716,7 @@
       </c>
     </row>
     <row r="16" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
@@ -1732,13 +1732,13 @@
       <c r="I16" s="9">
         <v>1.056</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="19">
         <v>0.94199999999999995</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="19">
         <v>0.98199999999999998</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="19">
         <v>0.99399999999999999</v>
       </c>
       <c r="M16" s="11">
@@ -1758,7 +1758,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U16" s="15"/>
-      <c r="V16" s="19"/>
+      <c r="V16" s="22"/>
       <c r="W16" s="4" t="s">
         <v>2</v>
       </c>
@@ -1774,13 +1774,13 @@
       <c r="AD16" s="9">
         <v>5566</v>
       </c>
-      <c r="AE16" s="22">
+      <c r="AE16" s="19">
         <v>6240</v>
       </c>
-      <c r="AF16" s="22">
+      <c r="AF16" s="19">
         <v>5990</v>
       </c>
-      <c r="AG16" s="22">
+      <c r="AG16" s="19">
         <v>5914</v>
       </c>
       <c r="AH16" s="11">
@@ -1801,7 +1801,7 @@
       </c>
     </row>
     <row r="17" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
@@ -1817,13 +1817,13 @@
       <c r="I17" s="9">
         <v>2.879</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="19">
         <v>2.843</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="19">
         <v>2.7959999999999998</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="19">
         <v>2.8029999999999999</v>
       </c>
       <c r="M17" s="11">
@@ -1843,7 +1843,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U17" s="15"/>
-      <c r="V17" s="19"/>
+      <c r="V17" s="22"/>
       <c r="W17" s="4" t="s">
         <v>3</v>
       </c>
@@ -1859,13 +1859,13 @@
       <c r="AD17" s="9">
         <v>7247</v>
       </c>
-      <c r="AE17" s="22">
+      <c r="AE17" s="19">
         <v>7340</v>
       </c>
-      <c r="AF17" s="22">
+      <c r="AF17" s="19">
         <v>7463</v>
       </c>
-      <c r="AG17" s="22">
+      <c r="AG17" s="19">
         <v>7445</v>
       </c>
       <c r="AH17" s="11">
@@ -1886,7 +1886,7 @@
       </c>
     </row>
     <row r="18" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
@@ -1902,13 +1902,13 @@
       <c r="I18" s="9">
         <v>8.6059999999999999</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="19">
         <v>8.3800000000000008</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="19">
         <v>8.5649999999999995</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="19">
         <v>8.4870000000000001</v>
       </c>
       <c r="M18" s="11">
@@ -1928,7 +1928,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U18" s="15"/>
-      <c r="V18" s="19"/>
+      <c r="V18" s="22"/>
       <c r="W18" s="4" t="s">
         <v>4</v>
       </c>
@@ -1944,13 +1944,13 @@
       <c r="AD18" s="9">
         <v>9622</v>
       </c>
-      <c r="AE18" s="22">
+      <c r="AE18" s="19">
         <v>9881</v>
       </c>
-      <c r="AF18" s="22">
+      <c r="AF18" s="19">
         <v>9667</v>
       </c>
-      <c r="AG18" s="22">
+      <c r="AG18" s="19">
         <v>9757</v>
       </c>
       <c r="AH18" s="11">
@@ -1971,7 +1971,7 @@
       </c>
     </row>
     <row r="19" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
@@ -1987,13 +1987,13 @@
       <c r="I19" s="9">
         <v>15.096</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="19">
         <v>14.930999999999999</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="19">
         <v>14.848000000000001</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="19">
         <v>15.087</v>
       </c>
       <c r="M19" s="11">
@@ -2013,7 +2013,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U19" s="15"/>
-      <c r="V19" s="19"/>
+      <c r="V19" s="22"/>
       <c r="W19" s="4" t="s">
         <v>5</v>
       </c>
@@ -2029,13 +2029,13 @@
       <c r="AD19" s="9">
         <v>10690</v>
       </c>
-      <c r="AE19" s="22">
+      <c r="AE19" s="19">
         <v>10810</v>
       </c>
-      <c r="AF19" s="22">
+      <c r="AF19" s="19">
         <v>10870</v>
       </c>
-      <c r="AG19" s="22">
+      <c r="AG19" s="19">
         <v>10700</v>
       </c>
       <c r="AH19" s="11">
@@ -2056,7 +2056,7 @@
       </c>
     </row>
     <row r="20" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
@@ -2072,13 +2072,13 @@
       <c r="I20" s="9">
         <v>0.29199999999999998</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="19">
         <v>0.28100000000000003</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="19">
         <v>0.26</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="19">
         <v>0.28100000000000003</v>
       </c>
       <c r="M20" s="11">
@@ -2098,7 +2098,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U20" s="15"/>
-      <c r="V20" s="19"/>
+      <c r="V20" s="22"/>
       <c r="W20" s="4" t="s">
         <v>6</v>
       </c>
@@ -2114,13 +2114,13 @@
       <c r="AD20" s="9">
         <v>854.7</v>
       </c>
-      <c r="AE20" s="22">
+      <c r="AE20" s="19">
         <v>889.2</v>
       </c>
-      <c r="AF20" s="22">
+      <c r="AF20" s="19">
         <v>961.3</v>
       </c>
-      <c r="AG20" s="22">
+      <c r="AG20" s="19">
         <v>889.7</v>
       </c>
       <c r="AH20" s="11">
@@ -2141,7 +2141,7 @@
       </c>
     </row>
     <row r="21" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
@@ -2157,13 +2157,13 @@
       <c r="I21" s="9">
         <v>0.309</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="19">
         <v>0.30299999999999999</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="19">
         <v>0.26800000000000002</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="19">
         <v>0.27600000000000002</v>
       </c>
       <c r="M21" s="11">
@@ -2183,7 +2183,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U21" s="15"/>
-      <c r="V21" s="19"/>
+      <c r="V21" s="22"/>
       <c r="W21" s="4" t="s">
         <v>7</v>
       </c>
@@ -2199,13 +2199,13 @@
       <c r="AD21" s="9">
         <v>1614</v>
       </c>
-      <c r="AE21" s="22">
+      <c r="AE21" s="19">
         <v>1651</v>
       </c>
-      <c r="AF21" s="22">
+      <c r="AF21" s="19">
         <v>1861</v>
       </c>
-      <c r="AG21" s="22">
+      <c r="AG21" s="19">
         <v>1809</v>
       </c>
       <c r="AH21" s="11">
@@ -2226,7 +2226,7 @@
       </c>
     </row>
     <row r="22" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
@@ -2242,13 +2242,13 @@
       <c r="I22" s="9">
         <v>0.33300000000000002</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="19">
         <v>0.307</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="19">
         <v>0.27200000000000002</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="19">
         <v>0.30099999999999999</v>
       </c>
       <c r="M22" s="11">
@@ -2268,7 +2268,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="19"/>
+      <c r="V22" s="22"/>
       <c r="W22" s="4" t="s">
         <v>8</v>
       </c>
@@ -2284,13 +2284,13 @@
       <c r="AD22" s="9">
         <v>2250</v>
       </c>
-      <c r="AE22" s="22">
+      <c r="AE22" s="19">
         <v>2441</v>
       </c>
-      <c r="AF22" s="22">
+      <c r="AF22" s="19">
         <v>2756</v>
       </c>
-      <c r="AG22" s="22">
+      <c r="AG22" s="19">
         <v>2488</v>
       </c>
       <c r="AH22" s="11">
@@ -2311,7 +2311,7 @@
       </c>
     </row>
     <row r="23" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U23" s="15"/>
-      <c r="V23" s="19"/>
+      <c r="V23" s="22"/>
       <c r="W23" s="4" t="s">
         <v>9</v>
       </c>
@@ -2439,7 +2439,7 @@
       <c r="AO24" s="15"/>
     </row>
     <row r="25" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2483,7 +2483,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U25" s="15"/>
-      <c r="V25" s="19" t="s">
+      <c r="V25" s="22" t="s">
         <v>21</v>
       </c>
       <c r="W25" s="4" t="s">
@@ -2528,7 +2528,7 @@
       </c>
     </row>
     <row r="26" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
@@ -2544,13 +2544,13 @@
       <c r="I26" s="9">
         <v>0.96799999999999997</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="19">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="19">
         <v>0.89700000000000002</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="19">
         <v>0.88600000000000001</v>
       </c>
       <c r="M26" s="11">
@@ -2570,7 +2570,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U26" s="15"/>
-      <c r="V26" s="19"/>
+      <c r="V26" s="22"/>
       <c r="W26" s="4" t="s">
         <v>2</v>
       </c>
@@ -2586,13 +2586,13 @@
       <c r="AD26" s="9">
         <v>6077</v>
       </c>
-      <c r="AE26" s="22">
+      <c r="AE26" s="19">
         <v>6508</v>
       </c>
-      <c r="AF26" s="22">
+      <c r="AF26" s="19">
         <v>6559</v>
       </c>
-      <c r="AG26" s="22">
+      <c r="AG26" s="19">
         <v>6636</v>
       </c>
       <c r="AH26" s="11">
@@ -2613,7 +2613,7 @@
       </c>
     </row>
     <row r="27" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
@@ -2629,13 +2629,13 @@
       <c r="I27" s="9">
         <v>2.7250000000000001</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="19">
         <v>2.7269999999999999</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="19">
         <v>2.722</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="19">
         <v>2.6749999999999998</v>
       </c>
       <c r="M27" s="11">
@@ -2655,7 +2655,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U27" s="15"/>
-      <c r="V27" s="19"/>
+      <c r="V27" s="22"/>
       <c r="W27" s="4" t="s">
         <v>3</v>
       </c>
@@ -2671,13 +2671,13 @@
       <c r="AD27" s="9">
         <v>7658</v>
       </c>
-      <c r="AE27" s="22">
+      <c r="AE27" s="19">
         <v>7652</v>
       </c>
-      <c r="AF27" s="22">
+      <c r="AF27" s="19">
         <v>7665</v>
       </c>
-      <c r="AG27" s="22">
+      <c r="AG27" s="19">
         <v>7800</v>
       </c>
       <c r="AH27" s="11">
@@ -2698,7 +2698,7 @@
       </c>
     </row>
     <row r="28" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
@@ -2714,13 +2714,13 @@
       <c r="I28" s="9">
         <v>7.99</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="19">
         <v>8.0440000000000005</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="19">
         <v>8.0039999999999996</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="19">
         <v>7.976</v>
       </c>
       <c r="M28" s="11">
@@ -2740,7 +2740,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U28" s="15"/>
-      <c r="V28" s="19"/>
+      <c r="V28" s="22"/>
       <c r="W28" s="4" t="s">
         <v>4</v>
       </c>
@@ -2756,13 +2756,13 @@
       <c r="AD28" s="9">
         <v>10360</v>
       </c>
-      <c r="AE28" s="22">
+      <c r="AE28" s="19">
         <v>10290</v>
       </c>
-      <c r="AF28" s="22">
+      <c r="AF28" s="19">
         <v>10340</v>
       </c>
-      <c r="AG28" s="22">
+      <c r="AG28" s="19">
         <v>10380</v>
       </c>
       <c r="AH28" s="11">
@@ -2783,7 +2783,7 @@
       </c>
     </row>
     <row r="29" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
@@ -2799,13 +2799,13 @@
       <c r="I29" s="9">
         <v>13.497999999999999</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="19">
         <v>13.603</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="19">
         <v>13.573</v>
       </c>
-      <c r="L29" s="22">
+      <c r="L29" s="19">
         <v>13.672000000000001</v>
       </c>
       <c r="M29" s="11">
@@ -2825,7 +2825,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U29" s="15"/>
-      <c r="V29" s="19"/>
+      <c r="V29" s="22"/>
       <c r="W29" s="4" t="s">
         <v>5</v>
       </c>
@@ -2841,13 +2841,13 @@
       <c r="AD29" s="9">
         <v>11960</v>
       </c>
-      <c r="AE29" s="22">
+      <c r="AE29" s="19">
         <v>11870</v>
       </c>
-      <c r="AF29" s="22">
+      <c r="AF29" s="19">
         <v>11890</v>
       </c>
-      <c r="AG29" s="22">
+      <c r="AG29" s="19">
         <v>11810</v>
       </c>
       <c r="AH29" s="11">
@@ -2868,7 +2868,7 @@
       </c>
     </row>
     <row r="30" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="4" t="s">
         <v>6</v>
       </c>
@@ -2884,13 +2884,13 @@
       <c r="I30" s="9">
         <v>0.29899999999999999</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="19">
         <v>0.26200000000000001</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="19">
         <v>0.27700000000000002</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L30" s="19">
         <v>0.27</v>
       </c>
       <c r="M30" s="11">
@@ -2910,7 +2910,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U30" s="15"/>
-      <c r="V30" s="19"/>
+      <c r="V30" s="22"/>
       <c r="W30" s="4" t="s">
         <v>6</v>
       </c>
@@ -2926,13 +2926,13 @@
       <c r="AD30" s="9">
         <v>834.7</v>
       </c>
-      <c r="AE30" s="22">
+      <c r="AE30" s="19">
         <v>953.7</v>
       </c>
-      <c r="AF30" s="22">
+      <c r="AF30" s="19">
         <v>901.1</v>
       </c>
-      <c r="AG30" s="22">
+      <c r="AG30" s="19">
         <v>925.3</v>
       </c>
       <c r="AH30" s="11">
@@ -2953,7 +2953,7 @@
       </c>
     </row>
     <row r="31" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
@@ -2969,13 +2969,13 @@
       <c r="I31" s="9">
         <v>0.312</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="19">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="19">
         <v>0.29599999999999999</v>
       </c>
-      <c r="L31" s="22">
+      <c r="L31" s="19">
         <v>0.29199999999999998</v>
       </c>
       <c r="M31" s="11">
@@ -2995,7 +2995,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U31" s="15"/>
-      <c r="V31" s="19"/>
+      <c r="V31" s="22"/>
       <c r="W31" s="4" t="s">
         <v>7</v>
       </c>
@@ -3011,13 +3011,13 @@
       <c r="AD31" s="9">
         <v>1603</v>
       </c>
-      <c r="AE31" s="22">
+      <c r="AE31" s="19">
         <v>1725</v>
       </c>
-      <c r="AF31" s="22">
+      <c r="AF31" s="19">
         <v>1687</v>
       </c>
-      <c r="AG31" s="22">
+      <c r="AG31" s="19">
         <v>1708</v>
       </c>
       <c r="AH31" s="11">
@@ -3038,7 +3038,7 @@
       </c>
     </row>
     <row r="32" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
@@ -3054,13 +3054,13 @@
       <c r="I32" s="9">
         <v>0.32900000000000001</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="19">
         <v>0.30499999999999999</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="19">
         <v>0.307</v>
       </c>
-      <c r="L32" s="22">
+      <c r="L32" s="19">
         <v>0.307</v>
       </c>
       <c r="M32" s="11">
@@ -3080,7 +3080,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U32" s="15"/>
-      <c r="V32" s="19"/>
+      <c r="V32" s="22"/>
       <c r="W32" s="4" t="s">
         <v>8</v>
       </c>
@@ -3096,13 +3096,13 @@
       <c r="AD32" s="9">
         <v>2274</v>
       </c>
-      <c r="AE32" s="22">
+      <c r="AE32" s="19">
         <v>2457</v>
       </c>
-      <c r="AF32" s="22">
+      <c r="AF32" s="19">
         <v>2437</v>
       </c>
-      <c r="AG32" s="22">
+      <c r="AG32" s="19">
         <v>2442</v>
       </c>
       <c r="AH32" s="11">
@@ -3123,7 +3123,7 @@
       </c>
     </row>
     <row r="33" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="4" t="s">
         <v>9</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U33" s="15"/>
-      <c r="V33" s="19"/>
+      <c r="V33" s="22"/>
       <c r="W33" s="4" t="s">
         <v>9</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="AO34" s="15"/>
     </row>
     <row r="35" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -3295,7 +3295,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U35" s="15"/>
-      <c r="V35" s="19" t="s">
+      <c r="V35" s="22" t="s">
         <v>22</v>
       </c>
       <c r="W35" s="4" t="s">
@@ -3340,7 +3340,7 @@
       </c>
     </row>
     <row r="36" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="4" t="s">
         <v>2</v>
       </c>
@@ -3356,13 +3356,13 @@
       <c r="I36" s="9">
         <v>0.99299999999999999</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J36" s="19">
         <v>0.93200000000000005</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="19">
         <v>0.91300000000000003</v>
       </c>
-      <c r="L36" s="22">
+      <c r="L36" s="19">
         <v>0.91400000000000003</v>
       </c>
       <c r="M36" s="11">
@@ -3382,7 +3382,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U36" s="15"/>
-      <c r="V36" s="19"/>
+      <c r="V36" s="22"/>
       <c r="W36" s="4" t="s">
         <v>2</v>
       </c>
@@ -3398,13 +3398,13 @@
       <c r="AD36" s="9">
         <v>5922</v>
       </c>
-      <c r="AE36" s="22">
+      <c r="AE36" s="19">
         <v>6307</v>
       </c>
-      <c r="AF36" s="22">
+      <c r="AF36" s="19">
         <v>6444</v>
       </c>
-      <c r="AG36" s="22">
+      <c r="AG36" s="19">
         <v>6437</v>
       </c>
       <c r="AH36" s="11">
@@ -3425,7 +3425,7 @@
       </c>
     </row>
     <row r="37" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="4" t="s">
         <v>3</v>
       </c>
@@ -3441,13 +3441,13 @@
       <c r="I37" s="9">
         <v>2.827</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="19">
         <v>2.7909999999999999</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="19">
         <v>2.8109999999999999</v>
       </c>
-      <c r="L37" s="22">
+      <c r="L37" s="19">
         <v>2.786</v>
       </c>
       <c r="M37" s="11">
@@ -3467,7 +3467,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U37" s="15"/>
-      <c r="V37" s="19"/>
+      <c r="V37" s="22"/>
       <c r="W37" s="4" t="s">
         <v>3</v>
       </c>
@@ -3483,13 +3483,13 @@
       <c r="AD37" s="9">
         <v>7380</v>
       </c>
-      <c r="AE37" s="22">
+      <c r="AE37" s="19">
         <v>7478</v>
       </c>
-      <c r="AF37" s="22">
+      <c r="AF37" s="19">
         <v>7423</v>
       </c>
-      <c r="AG37" s="22">
+      <c r="AG37" s="19">
         <v>7489</v>
       </c>
       <c r="AH37" s="11">
@@ -3510,7 +3510,7 @@
       </c>
     </row>
     <row r="38" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="4" t="s">
         <v>4</v>
       </c>
@@ -3526,13 +3526,13 @@
       <c r="I38" s="9">
         <v>8.407</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J38" s="19">
         <v>8.3979999999999997</v>
       </c>
-      <c r="K38" s="22">
+      <c r="K38" s="19">
         <v>8.2279999999999998</v>
       </c>
-      <c r="L38" s="22">
+      <c r="L38" s="19">
         <v>8.2129999999999992</v>
       </c>
       <c r="M38" s="11">
@@ -3552,7 +3552,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U38" s="15"/>
-      <c r="V38" s="19"/>
+      <c r="V38" s="22"/>
       <c r="W38" s="4" t="s">
         <v>4</v>
       </c>
@@ -3568,13 +3568,13 @@
       <c r="AD38" s="9">
         <v>9849</v>
       </c>
-      <c r="AE38" s="22">
+      <c r="AE38" s="19">
         <v>9860</v>
       </c>
-      <c r="AF38" s="22">
+      <c r="AF38" s="19">
         <v>10060</v>
       </c>
-      <c r="AG38" s="22">
+      <c r="AG38" s="19">
         <v>10080</v>
       </c>
       <c r="AH38" s="11">
@@ -3595,7 +3595,7 @@
       </c>
     </row>
     <row r="39" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="4" t="s">
         <v>5</v>
       </c>
@@ -3611,13 +3611,13 @@
       <c r="I39" s="9">
         <v>14.922000000000001</v>
       </c>
-      <c r="J39" s="22">
+      <c r="J39" s="19">
         <v>14.868</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K39" s="19">
         <v>14.528</v>
       </c>
-      <c r="L39" s="22">
+      <c r="L39" s="19">
         <v>14.657999999999999</v>
       </c>
       <c r="M39" s="11">
@@ -3637,7 +3637,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U39" s="15"/>
-      <c r="V39" s="19"/>
+      <c r="V39" s="22"/>
       <c r="W39" s="4" t="s">
         <v>5</v>
       </c>
@@ -3653,13 +3653,13 @@
       <c r="AD39" s="9">
         <v>10820</v>
       </c>
-      <c r="AE39" s="22">
+      <c r="AE39" s="19">
         <v>10860</v>
       </c>
-      <c r="AF39" s="22">
+      <c r="AF39" s="19">
         <v>11110</v>
       </c>
-      <c r="AG39" s="22">
+      <c r="AG39" s="19">
         <v>11010</v>
       </c>
       <c r="AH39" s="11">
@@ -3680,7 +3680,7 @@
       </c>
     </row>
     <row r="40" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="4" t="s">
         <v>6</v>
       </c>
@@ -3696,13 +3696,13 @@
       <c r="I40" s="9">
         <v>0.30399999999999999</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="19">
         <v>0.27500000000000002</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="19">
         <v>0.27600000000000002</v>
       </c>
-      <c r="L40" s="22">
+      <c r="L40" s="19">
         <v>0.26100000000000001</v>
       </c>
       <c r="M40" s="11">
@@ -3722,7 +3722,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U40" s="15"/>
-      <c r="V40" s="19"/>
+      <c r="V40" s="22"/>
       <c r="W40" s="4" t="s">
         <v>6</v>
       </c>
@@ -3738,13 +3738,13 @@
       <c r="AD40" s="9">
         <v>821.8</v>
       </c>
-      <c r="AE40" s="22">
+      <c r="AE40" s="19">
         <v>909.9</v>
       </c>
-      <c r="AF40" s="22">
+      <c r="AF40" s="19">
         <v>906.5</v>
       </c>
-      <c r="AG40" s="22">
+      <c r="AG40" s="19">
         <v>956.3</v>
       </c>
       <c r="AH40" s="11">
@@ -3765,7 +3765,7 @@
       </c>
     </row>
     <row r="41" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="4" t="s">
         <v>7</v>
       </c>
@@ -3781,13 +3781,13 @@
       <c r="I41" s="9">
         <v>0.32200000000000001</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J41" s="19">
         <v>0.28199999999999997</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K41" s="19">
         <v>0.29399999999999998</v>
       </c>
-      <c r="L41" s="22">
+      <c r="L41" s="19">
         <v>0.28899999999999998</v>
       </c>
       <c r="M41" s="11">
@@ -3807,7 +3807,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U41" s="15"/>
-      <c r="V41" s="19"/>
+      <c r="V41" s="22"/>
       <c r="W41" s="4" t="s">
         <v>7</v>
       </c>
@@ -3823,13 +3823,13 @@
       <c r="AD41" s="9">
         <v>1552</v>
       </c>
-      <c r="AE41" s="22">
+      <c r="AE41" s="19">
         <v>1771</v>
       </c>
-      <c r="AF41" s="22">
+      <c r="AF41" s="19">
         <v>1697</v>
       </c>
-      <c r="AG41" s="22">
+      <c r="AG41" s="19">
         <v>1730</v>
       </c>
       <c r="AH41" s="11">
@@ -3850,7 +3850,7 @@
       </c>
     </row>
     <row r="42" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="4" t="s">
         <v>8</v>
       </c>
@@ -3866,13 +3866,13 @@
       <c r="I42" s="9">
         <v>0.33</v>
       </c>
-      <c r="J42" s="22">
+      <c r="J42" s="19">
         <v>0.31</v>
       </c>
-      <c r="K42" s="22">
+      <c r="K42" s="19">
         <v>0.26600000000000001</v>
       </c>
-      <c r="L42" s="22">
+      <c r="L42" s="19">
         <v>0.30099999999999999</v>
       </c>
       <c r="M42" s="11">
@@ -3892,7 +3892,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U42" s="15"/>
-      <c r="V42" s="19"/>
+      <c r="V42" s="22"/>
       <c r="W42" s="4" t="s">
         <v>8</v>
       </c>
@@ -3908,13 +3908,13 @@
       <c r="AD42" s="9">
         <v>2270</v>
       </c>
-      <c r="AE42" s="22">
+      <c r="AE42" s="19">
         <v>2419</v>
       </c>
-      <c r="AF42" s="22">
+      <c r="AF42" s="19">
         <v>2819</v>
       </c>
-      <c r="AG42" s="22">
+      <c r="AG42" s="19">
         <v>2488</v>
       </c>
       <c r="AH42" s="11">
@@ -3935,7 +3935,7 @@
       </c>
     </row>
     <row r="43" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="4" t="s">
         <v>9</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U43" s="15"/>
-      <c r="V43" s="19"/>
+      <c r="V43" s="22"/>
       <c r="W43" s="4" t="s">
         <v>9</v>
       </c>
@@ -4063,7 +4063,7 @@
       <c r="AO44" s="15"/>
     </row>
     <row r="45" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -4078,14 +4078,24 @@
         <f>AVERAGE(C45:G45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I45" s="6"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="5" t="e">
+      <c r="I45" s="6">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="M45" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N45" s="5">
         <f>AVERAGE(I45:M45)</f>
-        <v>#DIV/0!</v>
+        <v>0.29620000000000002</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="7"/>
@@ -4097,7 +4107,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U45" s="15"/>
-      <c r="V45" s="19" t="s">
+      <c r="V45" s="22" t="s">
         <v>23</v>
       </c>
       <c r="W45" s="4" t="s">
@@ -4112,14 +4122,24 @@
         <f>AVERAGE(X45:AB45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD45" s="6"/>
-      <c r="AE45" s="7"/>
-      <c r="AF45" s="7"/>
-      <c r="AG45" s="7"/>
-      <c r="AH45" s="8"/>
-      <c r="AI45" s="5" t="e">
+      <c r="AD45" s="6">
+        <v>86.64</v>
+      </c>
+      <c r="AE45" s="7">
+        <v>104.7</v>
+      </c>
+      <c r="AF45" s="7">
+        <v>103.1</v>
+      </c>
+      <c r="AG45" s="7">
+        <v>107.5</v>
+      </c>
+      <c r="AH45" s="8">
+        <v>102.5</v>
+      </c>
+      <c r="AI45" s="5">
         <f>AVERAGE(AD45:AH45)</f>
-        <v>#DIV/0!</v>
+        <v>100.88800000000001</v>
       </c>
       <c r="AJ45" s="6"/>
       <c r="AK45" s="7"/>
@@ -4132,7 +4152,7 @@
       </c>
     </row>
     <row r="46" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="4" t="s">
         <v>2</v>
       </c>
@@ -4145,14 +4165,24 @@
         <f t="shared" ref="H46:H53" si="24">AVERAGE(C46:G46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="5" t="e">
+      <c r="I46" s="9">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J46" s="19">
+        <v>0.92</v>
+      </c>
+      <c r="K46" s="19">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="L46" s="19">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="N46" s="5">
         <f t="shared" ref="N46:N53" si="25">AVERAGE(I46:M46)</f>
-        <v>#DIV/0!</v>
+        <v>0.94860000000000011</v>
       </c>
       <c r="O46" s="9"/>
       <c r="P46" s="10"/>
@@ -4164,7 +4194,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U46" s="15"/>
-      <c r="V46" s="19"/>
+      <c r="V46" s="22"/>
       <c r="W46" s="4" t="s">
         <v>2</v>
       </c>
@@ -4177,14 +4207,24 @@
         <f t="shared" ref="AC46:AC53" si="27">AVERAGE(X46:AB46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD46" s="9"/>
-      <c r="AE46" s="10"/>
-      <c r="AF46" s="10"/>
-      <c r="AG46" s="10"/>
-      <c r="AH46" s="11"/>
-      <c r="AI46" s="5" t="e">
+      <c r="AD46" s="9">
+        <v>5873</v>
+      </c>
+      <c r="AE46" s="19">
+        <v>6393</v>
+      </c>
+      <c r="AF46" s="19">
+        <v>6295</v>
+      </c>
+      <c r="AG46" s="19">
+        <v>6174</v>
+      </c>
+      <c r="AH46" s="11">
+        <v>6286</v>
+      </c>
+      <c r="AI46" s="5">
         <f t="shared" ref="AI46:AI53" si="28">AVERAGE(AD46:AH46)</f>
-        <v>#DIV/0!</v>
+        <v>6204.2</v>
       </c>
       <c r="AJ46" s="9"/>
       <c r="AK46" s="10"/>
@@ -4197,7 +4237,7 @@
       </c>
     </row>
     <row r="47" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="4" t="s">
         <v>3</v>
       </c>
@@ -4210,14 +4250,24 @@
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="5" t="e">
+      <c r="I47" s="9">
+        <v>2.8740000000000001</v>
+      </c>
+      <c r="J47" s="19">
+        <v>2.77</v>
+      </c>
+      <c r="K47" s="19">
+        <v>2.7759999999999998</v>
+      </c>
+      <c r="L47" s="19">
+        <v>2.7120000000000002</v>
+      </c>
+      <c r="M47" s="11">
+        <v>2.7629999999999999</v>
+      </c>
+      <c r="N47" s="5">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>2.7789999999999999</v>
       </c>
       <c r="O47" s="9"/>
       <c r="P47" s="10"/>
@@ -4229,7 +4279,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U47" s="15"/>
-      <c r="V47" s="19"/>
+      <c r="V47" s="22"/>
       <c r="W47" s="4" t="s">
         <v>3</v>
       </c>
@@ -4242,14 +4292,24 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD47" s="9"/>
-      <c r="AE47" s="10"/>
-      <c r="AF47" s="10"/>
-      <c r="AG47" s="10"/>
-      <c r="AH47" s="11"/>
-      <c r="AI47" s="5" t="e">
+      <c r="AD47" s="9">
+        <v>7260</v>
+      </c>
+      <c r="AE47" s="19">
+        <v>7534</v>
+      </c>
+      <c r="AF47" s="19">
+        <v>7515</v>
+      </c>
+      <c r="AG47" s="19">
+        <v>7694</v>
+      </c>
+      <c r="AH47" s="11">
+        <v>7553</v>
+      </c>
+      <c r="AI47" s="5">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>7511.2</v>
       </c>
       <c r="AJ47" s="9"/>
       <c r="AK47" s="10"/>
@@ -4262,7 +4322,7 @@
       </c>
     </row>
     <row r="48" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="4" t="s">
         <v>4</v>
       </c>
@@ -4275,14 +4335,24 @@
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I48" s="9"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="5" t="e">
+      <c r="I48" s="9">
+        <v>8.5570000000000004</v>
+      </c>
+      <c r="J48" s="19">
+        <v>8.4540000000000006</v>
+      </c>
+      <c r="K48" s="19">
+        <v>8.4380000000000006</v>
+      </c>
+      <c r="L48" s="19">
+        <v>8.3420000000000005</v>
+      </c>
+      <c r="M48" s="11">
+        <v>8.4890000000000008</v>
+      </c>
+      <c r="N48" s="5">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>8.4559999999999995</v>
       </c>
       <c r="O48" s="9"/>
       <c r="P48" s="10"/>
@@ -4294,7 +4364,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U48" s="15"/>
-      <c r="V48" s="19"/>
+      <c r="V48" s="22"/>
       <c r="W48" s="4" t="s">
         <v>4</v>
       </c>
@@ -4307,14 +4377,24 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD48" s="9"/>
-      <c r="AE48" s="10"/>
-      <c r="AF48" s="10"/>
-      <c r="AG48" s="10"/>
-      <c r="AH48" s="11"/>
-      <c r="AI48" s="5" t="e">
+      <c r="AD48" s="9">
+        <v>9676</v>
+      </c>
+      <c r="AE48" s="19">
+        <v>9795</v>
+      </c>
+      <c r="AF48" s="19">
+        <v>9813</v>
+      </c>
+      <c r="AG48" s="19">
+        <v>9926</v>
+      </c>
+      <c r="AH48" s="11">
+        <v>9754</v>
+      </c>
+      <c r="AI48" s="5">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>9792.7999999999993</v>
       </c>
       <c r="AJ48" s="9"/>
       <c r="AK48" s="10"/>
@@ -4327,7 +4407,7 @@
       </c>
     </row>
     <row r="49" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="4" t="s">
         <v>5</v>
       </c>
@@ -4340,14 +4420,24 @@
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I49" s="9"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="5" t="e">
+      <c r="I49" s="9">
+        <v>15.164999999999999</v>
+      </c>
+      <c r="J49" s="19">
+        <v>14.956</v>
+      </c>
+      <c r="K49" s="19">
+        <v>15.156000000000001</v>
+      </c>
+      <c r="L49" s="19">
+        <v>15.005000000000001</v>
+      </c>
+      <c r="M49" s="11">
+        <v>15.19</v>
+      </c>
+      <c r="N49" s="5">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>15.094400000000002</v>
       </c>
       <c r="O49" s="9"/>
       <c r="P49" s="10"/>
@@ -4359,7 +4449,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U49" s="15"/>
-      <c r="V49" s="19"/>
+      <c r="V49" s="22"/>
       <c r="W49" s="4" t="s">
         <v>5</v>
       </c>
@@ -4372,14 +4462,24 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD49" s="9"/>
-      <c r="AE49" s="10"/>
-      <c r="AF49" s="10"/>
-      <c r="AG49" s="10"/>
-      <c r="AH49" s="11"/>
-      <c r="AI49" s="5" t="e">
+      <c r="AD49" s="9">
+        <v>10650</v>
+      </c>
+      <c r="AE49" s="19">
+        <v>10790</v>
+      </c>
+      <c r="AF49" s="19">
+        <v>10650</v>
+      </c>
+      <c r="AG49" s="19">
+        <v>10760</v>
+      </c>
+      <c r="AH49" s="11">
+        <v>10630</v>
+      </c>
+      <c r="AI49" s="5">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>10696</v>
       </c>
       <c r="AJ49" s="9"/>
       <c r="AK49" s="10"/>
@@ -4392,7 +4492,7 @@
       </c>
     </row>
     <row r="50" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
@@ -4405,14 +4505,24 @@
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I50" s="9"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="5" t="e">
+      <c r="I50" s="9">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="J50" s="19">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="K50" s="19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L50" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="N50" s="5">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0.28280000000000005</v>
       </c>
       <c r="O50" s="9"/>
       <c r="P50" s="10"/>
@@ -4424,7 +4534,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U50" s="15"/>
-      <c r="V50" s="19"/>
+      <c r="V50" s="22"/>
       <c r="W50" s="4" t="s">
         <v>6</v>
       </c>
@@ -4437,14 +4547,24 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD50" s="9"/>
-      <c r="AE50" s="10"/>
-      <c r="AF50" s="10"/>
-      <c r="AG50" s="10"/>
-      <c r="AH50" s="11"/>
-      <c r="AI50" s="5" t="e">
+      <c r="AD50" s="9">
+        <v>816.7</v>
+      </c>
+      <c r="AE50" s="19">
+        <v>903.7</v>
+      </c>
+      <c r="AF50" s="19">
+        <v>860.8</v>
+      </c>
+      <c r="AG50" s="19">
+        <v>890.6</v>
+      </c>
+      <c r="AH50" s="11">
+        <v>954.2</v>
+      </c>
+      <c r="AI50" s="5">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>885.2</v>
       </c>
       <c r="AJ50" s="9"/>
       <c r="AK50" s="10"/>
@@ -4457,7 +4577,7 @@
       </c>
     </row>
     <row r="51" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
@@ -4470,14 +4590,24 @@
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I51" s="9"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="5" t="e">
+      <c r="I51" s="9">
+        <v>0.312</v>
+      </c>
+      <c r="J51" s="19">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="K51" s="19">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="L51" s="19">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="M51" s="11">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="N51" s="5">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0.29219999999999996</v>
       </c>
       <c r="O51" s="9"/>
       <c r="P51" s="10"/>
@@ -4489,7 +4619,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U51" s="15"/>
-      <c r="V51" s="19"/>
+      <c r="V51" s="22"/>
       <c r="W51" s="4" t="s">
         <v>7</v>
       </c>
@@ -4502,14 +4632,24 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD51" s="9"/>
-      <c r="AE51" s="10"/>
-      <c r="AF51" s="10"/>
-      <c r="AG51" s="10"/>
-      <c r="AH51" s="11"/>
-      <c r="AI51" s="5" t="e">
+      <c r="AD51" s="9">
+        <v>1603</v>
+      </c>
+      <c r="AE51" s="19">
+        <v>1756</v>
+      </c>
+      <c r="AF51" s="19">
+        <v>1751</v>
+      </c>
+      <c r="AG51" s="19">
+        <v>1741</v>
+      </c>
+      <c r="AH51" s="11">
+        <v>1713</v>
+      </c>
+      <c r="AI51" s="5">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>1712.8</v>
       </c>
       <c r="AJ51" s="9"/>
       <c r="AK51" s="10"/>
@@ -4522,7 +4662,7 @@
       </c>
     </row>
     <row r="52" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="4" t="s">
         <v>8</v>
       </c>
@@ -4535,14 +4675,24 @@
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I52" s="9"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="5" t="e">
+      <c r="I52" s="9">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="J52" s="19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K52" s="19">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="L52" s="19">
+        <v>0.31</v>
+      </c>
+      <c r="M52" s="11">
+        <v>0.313</v>
+      </c>
+      <c r="N52" s="5">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0.30759999999999998</v>
       </c>
       <c r="O52" s="9"/>
       <c r="P52" s="10"/>
@@ -4554,7 +4704,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U52" s="15"/>
-      <c r="V52" s="19"/>
+      <c r="V52" s="22"/>
       <c r="W52" s="4" t="s">
         <v>8</v>
       </c>
@@ -4567,14 +4717,24 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD52" s="9"/>
-      <c r="AE52" s="10"/>
-      <c r="AF52" s="10"/>
-      <c r="AG52" s="10"/>
-      <c r="AH52" s="11"/>
-      <c r="AI52" s="5" t="e">
+      <c r="AD52" s="9">
+        <v>2332</v>
+      </c>
+      <c r="AE52" s="19">
+        <v>2583</v>
+      </c>
+      <c r="AF52" s="19">
+        <v>2465</v>
+      </c>
+      <c r="AG52" s="19">
+        <v>2414</v>
+      </c>
+      <c r="AH52" s="11">
+        <v>2395</v>
+      </c>
+      <c r="AI52" s="5">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>2437.8000000000002</v>
       </c>
       <c r="AJ52" s="9"/>
       <c r="AK52" s="10"/>
@@ -4587,7 +4747,7 @@
       </c>
     </row>
     <row r="53" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -4600,14 +4760,24 @@
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I53" s="12"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="5" t="e">
+      <c r="I53" s="12">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="J53" s="13">
+        <v>0.312</v>
+      </c>
+      <c r="K53" s="13">
+        <v>0.307</v>
+      </c>
+      <c r="L53" s="13">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="M53" s="14">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="N53" s="5">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0.314</v>
       </c>
       <c r="O53" s="12"/>
       <c r="P53" s="13"/>
@@ -4619,7 +4789,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U53" s="15"/>
-      <c r="V53" s="19"/>
+      <c r="V53" s="22"/>
       <c r="W53" s="4" t="s">
         <v>9</v>
       </c>
@@ -4632,14 +4802,24 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD53" s="12"/>
-      <c r="AE53" s="13"/>
-      <c r="AF53" s="13"/>
-      <c r="AG53" s="13"/>
-      <c r="AH53" s="14"/>
-      <c r="AI53" s="5" t="e">
+      <c r="AD53" s="12">
+        <v>2916</v>
+      </c>
+      <c r="AE53" s="13">
+        <v>3203</v>
+      </c>
+      <c r="AF53" s="13">
+        <v>3249</v>
+      </c>
+      <c r="AG53" s="13">
+        <v>3263</v>
+      </c>
+      <c r="AH53" s="14">
+        <v>3310</v>
+      </c>
+      <c r="AI53" s="5">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>3188.2</v>
       </c>
       <c r="AJ53" s="12"/>
       <c r="AK53" s="13"/>
@@ -4695,7 +4875,7 @@
       <c r="AO54" s="15"/>
     </row>
     <row r="55" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -4710,14 +4890,24 @@
         <f>AVERAGE(C55:G55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I55" s="6"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="5" t="e">
+      <c r="I55" s="6">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="K55" s="7">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="L55" s="7">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="M55" s="8">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="N55" s="5">
         <f>AVERAGE(I55:M55)</f>
-        <v>#DIV/0!</v>
+        <v>0.30179999999999996</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="7"/>
@@ -4729,7 +4919,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U55" s="15"/>
-      <c r="V55" s="19" t="s">
+      <c r="V55" s="22" t="s">
         <v>24</v>
       </c>
       <c r="W55" s="4" t="s">
@@ -4744,14 +4934,24 @@
         <f>AVERAGE(X55:AB55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD55" s="6"/>
-      <c r="AE55" s="7"/>
-      <c r="AF55" s="7"/>
-      <c r="AG55" s="7"/>
-      <c r="AH55" s="8"/>
-      <c r="AI55" s="5" t="e">
+      <c r="AD55" s="6">
+        <v>80.459999999999994</v>
+      </c>
+      <c r="AE55" s="7">
+        <v>103.1</v>
+      </c>
+      <c r="AF55" s="7">
+        <v>101.6</v>
+      </c>
+      <c r="AG55" s="7">
+        <v>103.3</v>
+      </c>
+      <c r="AH55" s="8">
+        <v>109</v>
+      </c>
+      <c r="AI55" s="5">
         <f>AVERAGE(AD55:AH55)</f>
-        <v>#DIV/0!</v>
+        <v>99.49199999999999</v>
       </c>
       <c r="AJ55" s="6"/>
       <c r="AK55" s="7"/>
@@ -4764,7 +4964,7 @@
       </c>
     </row>
     <row r="56" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
@@ -4777,14 +4977,24 @@
         <f t="shared" ref="H56:H63" si="30">AVERAGE(C56:G56)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I56" s="9"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="5" t="e">
+      <c r="I56" s="9">
+        <v>1.032</v>
+      </c>
+      <c r="J56" s="19">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K56" s="19">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="L56" s="19">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="M56" s="11">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="N56" s="5">
         <f t="shared" ref="N56:N63" si="31">AVERAGE(I56:M56)</f>
-        <v>#DIV/0!</v>
+        <v>0.98759999999999992</v>
       </c>
       <c r="O56" s="9"/>
       <c r="P56" s="10"/>
@@ -4796,7 +5006,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U56" s="15"/>
-      <c r="V56" s="19"/>
+      <c r="V56" s="22"/>
       <c r="W56" s="4" t="s">
         <v>2</v>
       </c>
@@ -4809,14 +5019,24 @@
         <f t="shared" ref="AC56:AC63" si="33">AVERAGE(X56:AB56)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD56" s="9"/>
-      <c r="AE56" s="10"/>
-      <c r="AF56" s="10"/>
-      <c r="AG56" s="10"/>
-      <c r="AH56" s="11"/>
-      <c r="AI56" s="5" t="e">
+      <c r="AD56" s="9">
+        <v>5696</v>
+      </c>
+      <c r="AE56" s="19">
+        <v>5930</v>
+      </c>
+      <c r="AF56" s="19">
+        <v>5920</v>
+      </c>
+      <c r="AG56" s="19">
+        <v>5987</v>
+      </c>
+      <c r="AH56" s="11">
+        <v>6261</v>
+      </c>
+      <c r="AI56" s="5">
         <f t="shared" ref="AI56:AI63" si="34">AVERAGE(AD56:AH56)</f>
-        <v>#DIV/0!</v>
+        <v>5958.8</v>
       </c>
       <c r="AJ56" s="9"/>
       <c r="AK56" s="10"/>
@@ -4829,7 +5049,7 @@
       </c>
     </row>
     <row r="57" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="4" t="s">
         <v>3</v>
       </c>
@@ -4842,14 +5062,24 @@
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I57" s="9"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="5" t="e">
+      <c r="I57" s="9">
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="J57" s="19">
+        <v>2.7629999999999999</v>
+      </c>
+      <c r="K57" s="19">
+        <v>2.782</v>
+      </c>
+      <c r="L57" s="19">
+        <v>2.7559999999999998</v>
+      </c>
+      <c r="M57" s="11">
+        <v>2.7959999999999998</v>
+      </c>
+      <c r="N57" s="5">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
+        <v>2.7727999999999997</v>
       </c>
       <c r="O57" s="9"/>
       <c r="P57" s="10"/>
@@ -4861,7 +5091,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U57" s="15"/>
-      <c r="V57" s="19"/>
+      <c r="V57" s="22"/>
       <c r="W57" s="4" t="s">
         <v>3</v>
       </c>
@@ -4874,14 +5104,24 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD57" s="9"/>
-      <c r="AE57" s="10"/>
-      <c r="AF57" s="10"/>
-      <c r="AG57" s="10"/>
-      <c r="AH57" s="11"/>
-      <c r="AI57" s="5" t="e">
+      <c r="AD57" s="9">
+        <v>7542</v>
+      </c>
+      <c r="AE57" s="19">
+        <v>7551</v>
+      </c>
+      <c r="AF57" s="19">
+        <v>7500</v>
+      </c>
+      <c r="AG57" s="19">
+        <v>7572</v>
+      </c>
+      <c r="AH57" s="11">
+        <v>7464</v>
+      </c>
+      <c r="AI57" s="5">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>7525.8</v>
       </c>
       <c r="AJ57" s="9"/>
       <c r="AK57" s="10"/>
@@ -4894,7 +5134,7 @@
       </c>
     </row>
     <row r="58" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="4" t="s">
         <v>4</v>
       </c>
@@ -4907,14 +5147,24 @@
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I58" s="9"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="5" t="e">
+      <c r="I58" s="9">
+        <v>8.1989999999999998</v>
+      </c>
+      <c r="J58" s="19">
+        <v>8.375</v>
+      </c>
+      <c r="K58" s="19">
+        <v>8.1319999999999997</v>
+      </c>
+      <c r="L58" s="19">
+        <v>8.3409999999999993</v>
+      </c>
+      <c r="M58" s="11">
+        <v>8.2230000000000008</v>
+      </c>
+      <c r="N58" s="5">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
+        <v>8.2539999999999996</v>
       </c>
       <c r="O58" s="9"/>
       <c r="P58" s="10"/>
@@ -4926,7 +5176,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U58" s="15"/>
-      <c r="V58" s="19"/>
+      <c r="V58" s="22"/>
       <c r="W58" s="4" t="s">
         <v>4</v>
       </c>
@@ -4939,14 +5189,24 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD58" s="9"/>
-      <c r="AE58" s="10"/>
-      <c r="AF58" s="10"/>
-      <c r="AG58" s="10"/>
-      <c r="AH58" s="11"/>
-      <c r="AI58" s="5" t="e">
+      <c r="AD58" s="9">
+        <v>10100</v>
+      </c>
+      <c r="AE58" s="19">
+        <v>9887</v>
+      </c>
+      <c r="AF58" s="19">
+        <v>10180</v>
+      </c>
+      <c r="AG58" s="19">
+        <v>9927</v>
+      </c>
+      <c r="AH58" s="11">
+        <v>10070</v>
+      </c>
+      <c r="AI58" s="5">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>10032.799999999999</v>
       </c>
       <c r="AJ58" s="9"/>
       <c r="AK58" s="10"/>
@@ -4959,7 +5219,7 @@
       </c>
     </row>
     <row r="59" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="4" t="s">
         <v>5</v>
       </c>
@@ -4972,14 +5232,24 @@
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I59" s="9"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="5" t="e">
+      <c r="I59" s="9">
+        <v>14.372999999999999</v>
+      </c>
+      <c r="J59" s="19">
+        <v>14.584</v>
+      </c>
+      <c r="K59" s="19">
+        <v>14.327</v>
+      </c>
+      <c r="L59" s="19">
+        <v>14.542999999999999</v>
+      </c>
+      <c r="M59" s="11">
+        <v>14.375</v>
+      </c>
+      <c r="N59" s="5">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
+        <v>14.4404</v>
       </c>
       <c r="O59" s="9"/>
       <c r="P59" s="10"/>
@@ -4991,7 +5261,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U59" s="15"/>
-      <c r="V59" s="19"/>
+      <c r="V59" s="22"/>
       <c r="W59" s="4" t="s">
         <v>5</v>
       </c>
@@ -5004,14 +5274,24 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD59" s="9"/>
-      <c r="AE59" s="10"/>
-      <c r="AF59" s="10"/>
-      <c r="AG59" s="10"/>
-      <c r="AH59" s="11"/>
-      <c r="AI59" s="5" t="e">
+      <c r="AD59" s="9">
+        <v>11230</v>
+      </c>
+      <c r="AE59" s="19">
+        <v>11070</v>
+      </c>
+      <c r="AF59" s="19">
+        <v>11270</v>
+      </c>
+      <c r="AG59" s="19">
+        <v>11100</v>
+      </c>
+      <c r="AH59" s="11">
+        <v>11230</v>
+      </c>
+      <c r="AI59" s="5">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>11180</v>
       </c>
       <c r="AJ59" s="9"/>
       <c r="AK59" s="10"/>
@@ -5024,7 +5304,7 @@
       </c>
     </row>
     <row r="60" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="4" t="s">
         <v>6</v>
       </c>
@@ -5037,14 +5317,24 @@
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I60" s="9"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="5" t="e">
+      <c r="I60" s="9">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="J60" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K60" s="19">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="L60" s="19">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="M60" s="11">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="N60" s="5">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
+        <v>0.26840000000000003</v>
       </c>
       <c r="O60" s="9"/>
       <c r="P60" s="10"/>
@@ -5056,7 +5346,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U60" s="15"/>
-      <c r="V60" s="19"/>
+      <c r="V60" s="22"/>
       <c r="W60" s="4" t="s">
         <v>6</v>
       </c>
@@ -5069,14 +5359,24 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD60" s="9"/>
-      <c r="AE60" s="10"/>
-      <c r="AF60" s="10"/>
-      <c r="AG60" s="10"/>
-      <c r="AH60" s="11"/>
-      <c r="AI60" s="5" t="e">
+      <c r="AD60" s="9">
+        <v>920.3</v>
+      </c>
+      <c r="AE60" s="19">
+        <v>893.4</v>
+      </c>
+      <c r="AF60" s="19">
+        <v>1048</v>
+      </c>
+      <c r="AG60" s="19">
+        <v>922.2</v>
+      </c>
+      <c r="AH60" s="11">
+        <v>885.5</v>
+      </c>
+      <c r="AI60" s="5">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>933.87999999999988</v>
       </c>
       <c r="AJ60" s="9"/>
       <c r="AK60" s="10"/>
@@ -5089,7 +5389,7 @@
       </c>
     </row>
     <row r="61" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
+      <c r="A61" s="22"/>
       <c r="B61" s="4" t="s">
         <v>7</v>
       </c>
@@ -5102,14 +5402,24 @@
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I61" s="9"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="5" t="e">
+      <c r="I61" s="9">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="J61" s="19">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="K61" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L61" s="19">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="M61" s="11">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="N61" s="5">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
+        <v>0.28720000000000001</v>
       </c>
       <c r="O61" s="9"/>
       <c r="P61" s="10"/>
@@ -5121,7 +5431,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U61" s="15"/>
-      <c r="V61" s="19"/>
+      <c r="V61" s="22"/>
       <c r="W61" s="4" t="s">
         <v>7</v>
       </c>
@@ -5134,14 +5444,24 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD61" s="9"/>
-      <c r="AE61" s="10"/>
-      <c r="AF61" s="10"/>
-      <c r="AG61" s="10"/>
-      <c r="AH61" s="11"/>
-      <c r="AI61" s="5" t="e">
+      <c r="AD61" s="9">
+        <v>1698</v>
+      </c>
+      <c r="AE61" s="19">
+        <v>1776</v>
+      </c>
+      <c r="AF61" s="19">
+        <v>1784</v>
+      </c>
+      <c r="AG61" s="19">
+        <v>1657</v>
+      </c>
+      <c r="AH61" s="11">
+        <v>1791</v>
+      </c>
+      <c r="AI61" s="5">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>1741.2</v>
       </c>
       <c r="AJ61" s="9"/>
       <c r="AK61" s="10"/>
@@ -5154,7 +5474,7 @@
       </c>
     </row>
     <row r="62" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="4" t="s">
         <v>8</v>
       </c>
@@ -5167,14 +5487,24 @@
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I62" s="9"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="5" t="e">
+      <c r="I62" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="J62" s="19">
+        <v>0.317</v>
+      </c>
+      <c r="K62" s="19">
+        <v>0.309</v>
+      </c>
+      <c r="L62" s="19">
+        <v>0.312</v>
+      </c>
+      <c r="M62" s="11">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="N62" s="5">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
+        <v>0.308</v>
       </c>
       <c r="O62" s="9"/>
       <c r="P62" s="10"/>
@@ -5186,7 +5516,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U62" s="15"/>
-      <c r="V62" s="19"/>
+      <c r="V62" s="22"/>
       <c r="W62" s="4" t="s">
         <v>8</v>
       </c>
@@ -5199,14 +5529,24 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD62" s="9"/>
-      <c r="AE62" s="10"/>
-      <c r="AF62" s="10"/>
-      <c r="AG62" s="10"/>
-      <c r="AH62" s="11"/>
-      <c r="AI62" s="5" t="e">
+      <c r="AD62" s="9">
+        <v>2418</v>
+      </c>
+      <c r="AE62" s="19">
+        <v>2360</v>
+      </c>
+      <c r="AF62" s="19">
+        <v>2426</v>
+      </c>
+      <c r="AG62" s="19">
+        <v>2405</v>
+      </c>
+      <c r="AH62" s="11">
+        <v>2563</v>
+      </c>
+      <c r="AI62" s="5">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>2434.4</v>
       </c>
       <c r="AJ62" s="9"/>
       <c r="AK62" s="10"/>
@@ -5219,7 +5559,7 @@
       </c>
     </row>
     <row r="63" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="4" t="s">
         <v>9</v>
       </c>
@@ -5232,14 +5572,24 @@
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I63" s="12"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="5" t="e">
+      <c r="I63" s="12">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="J63" s="13">
+        <v>0.315</v>
+      </c>
+      <c r="K63" s="13">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="L63" s="13">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="M63" s="14">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="N63" s="5">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
+        <v>0.31940000000000002</v>
       </c>
       <c r="O63" s="12"/>
       <c r="P63" s="13"/>
@@ -5251,7 +5601,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U63" s="15"/>
-      <c r="V63" s="19"/>
+      <c r="V63" s="22"/>
       <c r="W63" s="4" t="s">
         <v>9</v>
       </c>
@@ -5264,14 +5614,24 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD63" s="12"/>
-      <c r="AE63" s="13"/>
-      <c r="AF63" s="13"/>
-      <c r="AG63" s="13"/>
-      <c r="AH63" s="14"/>
-      <c r="AI63" s="5" t="e">
+      <c r="AD63" s="12">
+        <v>3007</v>
+      </c>
+      <c r="AE63" s="13">
+        <v>3173</v>
+      </c>
+      <c r="AF63" s="13">
+        <v>3324</v>
+      </c>
+      <c r="AG63" s="13">
+        <v>3066</v>
+      </c>
+      <c r="AH63" s="14">
+        <v>3095</v>
+      </c>
+      <c r="AI63" s="5">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>3133</v>
       </c>
       <c r="AJ63" s="12"/>
       <c r="AK63" s="13"/>
@@ -5327,7 +5687,7 @@
       <c r="AO64" s="15"/>
     </row>
     <row r="65" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -5342,14 +5702,24 @@
         <f>AVERAGE(C65:G65)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I65" s="6"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="5" t="e">
+      <c r="I65" s="6">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="J65" s="7">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="K65" s="7">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="L65" s="7">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="M65" s="8">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="N65" s="5">
         <f>AVERAGE(I65:M65)</f>
-        <v>#DIV/0!</v>
+        <v>0.2994</v>
       </c>
       <c r="O65" s="6"/>
       <c r="P65" s="7"/>
@@ -5361,7 +5731,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U65" s="15"/>
-      <c r="V65" s="19" t="s">
+      <c r="V65" s="22" t="s">
         <v>25</v>
       </c>
       <c r="W65" s="4" t="s">
@@ -5376,14 +5746,24 @@
         <f>AVERAGE(X65:AB65)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD65" s="6"/>
-      <c r="AE65" s="7"/>
-      <c r="AF65" s="7"/>
-      <c r="AG65" s="7"/>
-      <c r="AH65" s="8"/>
-      <c r="AI65" s="5" t="e">
+      <c r="AD65" s="6">
+        <v>82.37</v>
+      </c>
+      <c r="AE65" s="7">
+        <v>105.4</v>
+      </c>
+      <c r="AF65" s="7">
+        <v>104.6</v>
+      </c>
+      <c r="AG65" s="7">
+        <v>102.2</v>
+      </c>
+      <c r="AH65" s="8">
+        <v>106.4</v>
+      </c>
+      <c r="AI65" s="5">
         <f>AVERAGE(AD65:AH65)</f>
-        <v>#DIV/0!</v>
+        <v>100.194</v>
       </c>
       <c r="AJ65" s="6"/>
       <c r="AK65" s="7"/>
@@ -5396,7 +5776,7 @@
       </c>
     </row>
     <row r="66" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
+      <c r="A66" s="22"/>
       <c r="B66" s="4" t="s">
         <v>2</v>
       </c>
@@ -5409,14 +5789,24 @@
         <f t="shared" ref="H66:H73" si="36">AVERAGE(C66:G66)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I66" s="9"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="5" t="e">
+      <c r="I66" s="9">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="J66" s="19">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="K66" s="19">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="L66" s="19">
+        <v>0.91</v>
+      </c>
+      <c r="M66" s="11">
+        <v>0.877</v>
+      </c>
+      <c r="N66" s="5">
         <f t="shared" ref="N66:N73" si="37">AVERAGE(I66:M66)</f>
-        <v>#DIV/0!</v>
+        <v>0.89960000000000007</v>
       </c>
       <c r="O66" s="9"/>
       <c r="P66" s="10"/>
@@ -5428,7 +5818,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U66" s="15"/>
-      <c r="V66" s="19"/>
+      <c r="V66" s="22"/>
       <c r="W66" s="4" t="s">
         <v>2</v>
       </c>
@@ -5441,14 +5831,24 @@
         <f t="shared" ref="AC66:AC73" si="39">AVERAGE(X66:AB66)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD66" s="9"/>
-      <c r="AE66" s="10"/>
-      <c r="AF66" s="10"/>
-      <c r="AG66" s="10"/>
-      <c r="AH66" s="11"/>
-      <c r="AI66" s="5" t="e">
+      <c r="AD66" s="9">
+        <v>6454</v>
+      </c>
+      <c r="AE66" s="19">
+        <v>6510</v>
+      </c>
+      <c r="AF66" s="19">
+        <v>6552</v>
+      </c>
+      <c r="AG66" s="19">
+        <v>6459</v>
+      </c>
+      <c r="AH66" s="11">
+        <v>6708</v>
+      </c>
+      <c r="AI66" s="5">
         <f t="shared" ref="AI66:AI73" si="40">AVERAGE(AD66:AH66)</f>
-        <v>#DIV/0!</v>
+        <v>6536.6</v>
       </c>
       <c r="AJ66" s="9"/>
       <c r="AK66" s="10"/>
@@ -5461,7 +5861,7 @@
       </c>
     </row>
     <row r="67" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
+      <c r="A67" s="22"/>
       <c r="B67" s="4" t="s">
         <v>3</v>
       </c>
@@ -5474,14 +5874,24 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I67" s="9"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="5" t="e">
+      <c r="I67" s="9">
+        <v>2.6139999999999999</v>
+      </c>
+      <c r="J67" s="19">
+        <v>2.5619999999999998</v>
+      </c>
+      <c r="K67" s="19">
+        <v>2.581</v>
+      </c>
+      <c r="L67" s="19">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="M67" s="11">
+        <v>2.5569999999999999</v>
+      </c>
+      <c r="N67" s="5">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <v>2.5697999999999999</v>
       </c>
       <c r="O67" s="9"/>
       <c r="P67" s="10"/>
@@ -5493,7 +5903,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U67" s="15"/>
-      <c r="V67" s="19"/>
+      <c r="V67" s="22"/>
       <c r="W67" s="4" t="s">
         <v>3</v>
       </c>
@@ -5506,14 +5916,24 @@
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD67" s="9"/>
-      <c r="AE67" s="10"/>
-      <c r="AF67" s="10"/>
-      <c r="AG67" s="10"/>
-      <c r="AH67" s="11"/>
-      <c r="AI67" s="5" t="e">
+      <c r="AD67" s="9">
+        <v>7982</v>
+      </c>
+      <c r="AE67" s="19">
+        <v>8146</v>
+      </c>
+      <c r="AF67" s="19">
+        <v>8086</v>
+      </c>
+      <c r="AG67" s="19">
+        <v>8232</v>
+      </c>
+      <c r="AH67" s="11">
+        <v>8162</v>
+      </c>
+      <c r="AI67" s="5">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
+        <v>8121.6</v>
       </c>
       <c r="AJ67" s="9"/>
       <c r="AK67" s="10"/>
@@ -5526,7 +5946,7 @@
       </c>
     </row>
     <row r="68" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="4" t="s">
         <v>4</v>
       </c>
@@ -5539,14 +5959,24 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I68" s="9"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="5" t="e">
+      <c r="I68" s="9">
+        <v>7.4690000000000003</v>
+      </c>
+      <c r="J68" s="19">
+        <v>7.7140000000000004</v>
+      </c>
+      <c r="K68" s="19">
+        <v>7.6050000000000004</v>
+      </c>
+      <c r="L68" s="19">
+        <v>7.4329999999999998</v>
+      </c>
+      <c r="M68" s="11">
+        <v>7.524</v>
+      </c>
+      <c r="N68" s="5">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <v>7.5489999999999995</v>
       </c>
       <c r="O68" s="9"/>
       <c r="P68" s="10"/>
@@ -5558,7 +5988,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U68" s="15"/>
-      <c r="V68" s="19"/>
+      <c r="V68" s="22"/>
       <c r="W68" s="4" t="s">
         <v>4</v>
       </c>
@@ -5571,14 +6001,24 @@
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD68" s="9"/>
-      <c r="AE68" s="10"/>
-      <c r="AF68" s="10"/>
-      <c r="AG68" s="10"/>
-      <c r="AH68" s="11"/>
-      <c r="AI68" s="5" t="e">
+      <c r="AD68" s="9">
+        <v>11090</v>
+      </c>
+      <c r="AE68" s="19">
+        <v>10730</v>
+      </c>
+      <c r="AF68" s="19">
+        <v>10890</v>
+      </c>
+      <c r="AG68" s="19">
+        <v>11140</v>
+      </c>
+      <c r="AH68" s="11">
+        <v>11010</v>
+      </c>
+      <c r="AI68" s="5">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
+        <v>10972</v>
       </c>
       <c r="AJ68" s="9"/>
       <c r="AK68" s="10"/>
@@ -5591,7 +6031,7 @@
       </c>
     </row>
     <row r="69" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
+      <c r="A69" s="22"/>
       <c r="B69" s="4" t="s">
         <v>5</v>
       </c>
@@ -5604,14 +6044,24 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I69" s="9"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="5" t="e">
+      <c r="I69" s="9">
+        <v>13.439</v>
+      </c>
+      <c r="J69" s="19">
+        <v>13.247</v>
+      </c>
+      <c r="K69" s="19">
+        <v>13.263999999999999</v>
+      </c>
+      <c r="L69" s="19">
+        <v>12.935</v>
+      </c>
+      <c r="M69" s="11">
+        <v>13.045999999999999</v>
+      </c>
+      <c r="N69" s="5">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <v>13.186200000000003</v>
       </c>
       <c r="O69" s="9"/>
       <c r="P69" s="10"/>
@@ -5623,7 +6073,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U69" s="15"/>
-      <c r="V69" s="19"/>
+      <c r="V69" s="22"/>
       <c r="W69" s="4" t="s">
         <v>5</v>
       </c>
@@ -5636,14 +6086,24 @@
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD69" s="9"/>
-      <c r="AE69" s="10"/>
-      <c r="AF69" s="10"/>
-      <c r="AG69" s="10"/>
-      <c r="AH69" s="11"/>
-      <c r="AI69" s="5" t="e">
+      <c r="AD69" s="9">
+        <v>12010</v>
+      </c>
+      <c r="AE69" s="19">
+        <v>12190</v>
+      </c>
+      <c r="AF69" s="19">
+        <v>12170</v>
+      </c>
+      <c r="AG69" s="19">
+        <v>12480</v>
+      </c>
+      <c r="AH69" s="11">
+        <v>12370</v>
+      </c>
+      <c r="AI69" s="5">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
+        <v>12244</v>
       </c>
       <c r="AJ69" s="9"/>
       <c r="AK69" s="10"/>
@@ -5656,7 +6116,7 @@
       </c>
     </row>
     <row r="70" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="4" t="s">
         <v>6</v>
       </c>
@@ -5669,14 +6129,24 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I70" s="9"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="5" t="e">
+      <c r="I70" s="9">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="J70" s="19">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="K70" s="19">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="L70" s="19">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="M70" s="11">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="N70" s="5">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <v>0.27</v>
       </c>
       <c r="O70" s="9"/>
       <c r="P70" s="10"/>
@@ -5688,7 +6158,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U70" s="15"/>
-      <c r="V70" s="19"/>
+      <c r="V70" s="22"/>
       <c r="W70" s="4" t="s">
         <v>6</v>
       </c>
@@ -5701,14 +6171,24 @@
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD70" s="9"/>
-      <c r="AE70" s="10"/>
-      <c r="AF70" s="10"/>
-      <c r="AG70" s="10"/>
-      <c r="AH70" s="11"/>
-      <c r="AI70" s="5" t="e">
+      <c r="AD70" s="9">
+        <v>940.5</v>
+      </c>
+      <c r="AE70" s="19">
+        <v>901.2</v>
+      </c>
+      <c r="AF70" s="19">
+        <v>912.1</v>
+      </c>
+      <c r="AG70" s="19">
+        <v>936.5</v>
+      </c>
+      <c r="AH70" s="11">
+        <v>940.1</v>
+      </c>
+      <c r="AI70" s="5">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
+        <v>926.08000000000015</v>
       </c>
       <c r="AJ70" s="9"/>
       <c r="AK70" s="10"/>
@@ -5721,7 +6201,7 @@
       </c>
     </row>
     <row r="71" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
+      <c r="A71" s="22"/>
       <c r="B71" s="4" t="s">
         <v>7</v>
       </c>
@@ -5734,14 +6214,24 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I71" s="9"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="5" t="e">
+      <c r="I71" s="9">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="J71" s="19">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="K71" s="19">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="L71" s="19">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="M71" s="11">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="N71" s="5">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <v>0.2868</v>
       </c>
       <c r="O71" s="9"/>
       <c r="P71" s="10"/>
@@ -5753,7 +6243,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U71" s="15"/>
-      <c r="V71" s="19"/>
+      <c r="V71" s="22"/>
       <c r="W71" s="4" t="s">
         <v>7</v>
       </c>
@@ -5766,14 +6256,24 @@
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD71" s="9"/>
-      <c r="AE71" s="10"/>
-      <c r="AF71" s="10"/>
-      <c r="AG71" s="10"/>
-      <c r="AH71" s="11"/>
-      <c r="AI71" s="5" t="e">
+      <c r="AD71" s="9">
+        <v>1803</v>
+      </c>
+      <c r="AE71" s="19">
+        <v>1712</v>
+      </c>
+      <c r="AF71" s="19">
+        <v>1791</v>
+      </c>
+      <c r="AG71" s="19">
+        <v>1705</v>
+      </c>
+      <c r="AH71" s="11">
+        <v>1707</v>
+      </c>
+      <c r="AI71" s="5">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
+        <v>1743.6</v>
       </c>
       <c r="AJ71" s="9"/>
       <c r="AK71" s="10"/>
@@ -5786,7 +6286,7 @@
       </c>
     </row>
     <row r="72" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="4" t="s">
         <v>8</v>
       </c>
@@ -5799,14 +6299,24 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I72" s="9"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="5" t="e">
+      <c r="I72" s="9">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="J72" s="19">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="K72" s="19">
+        <v>0.31</v>
+      </c>
+      <c r="L72" s="19">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="M72" s="11">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="N72" s="5">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <v>0.30080000000000001</v>
       </c>
       <c r="O72" s="9"/>
       <c r="P72" s="10"/>
@@ -5818,7 +6328,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U72" s="15"/>
-      <c r="V72" s="19"/>
+      <c r="V72" s="22"/>
       <c r="W72" s="4" t="s">
         <v>8</v>
       </c>
@@ -5831,14 +6341,24 @@
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD72" s="9"/>
-      <c r="AE72" s="10"/>
-      <c r="AF72" s="10"/>
-      <c r="AG72" s="10"/>
-      <c r="AH72" s="11"/>
-      <c r="AI72" s="5" t="e">
+      <c r="AD72" s="9">
+        <v>2604</v>
+      </c>
+      <c r="AE72" s="19">
+        <v>2488</v>
+      </c>
+      <c r="AF72" s="19">
+        <v>2416</v>
+      </c>
+      <c r="AG72" s="19">
+        <v>2484</v>
+      </c>
+      <c r="AH72" s="11">
+        <v>2469</v>
+      </c>
+      <c r="AI72" s="5">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
+        <v>2492.1999999999998</v>
       </c>
       <c r="AJ72" s="9"/>
       <c r="AK72" s="10"/>
@@ -5851,7 +6371,7 @@
       </c>
     </row>
     <row r="73" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
+      <c r="A73" s="22"/>
       <c r="B73" s="4" t="s">
         <v>9</v>
       </c>
@@ -5864,14 +6384,24 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I73" s="12"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="5" t="e">
+      <c r="I73" s="12">
+        <v>0.318</v>
+      </c>
+      <c r="J73" s="13">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="K73" s="13">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="L73" s="13">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="M73" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="N73" s="5">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <v>0.3236</v>
       </c>
       <c r="O73" s="12"/>
       <c r="P73" s="13"/>
@@ -5883,7 +6413,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U73" s="15"/>
-      <c r="V73" s="19"/>
+      <c r="V73" s="22"/>
       <c r="W73" s="4" t="s">
         <v>9</v>
       </c>
@@ -5896,14 +6426,24 @@
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD73" s="12"/>
-      <c r="AE73" s="13"/>
-      <c r="AF73" s="13"/>
-      <c r="AG73" s="13"/>
-      <c r="AH73" s="14"/>
-      <c r="AI73" s="5" t="e">
+      <c r="AD73" s="12">
+        <v>3141</v>
+      </c>
+      <c r="AE73" s="13">
+        <v>3057</v>
+      </c>
+      <c r="AF73" s="13">
+        <v>3034</v>
+      </c>
+      <c r="AG73" s="13">
+        <v>3079</v>
+      </c>
+      <c r="AH73" s="14">
+        <v>3121</v>
+      </c>
+      <c r="AI73" s="5">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
+        <v>3086.4</v>
       </c>
       <c r="AJ73" s="12"/>
       <c r="AK73" s="13"/>
@@ -5959,7 +6499,7 @@
       <c r="AO74" s="15"/>
     </row>
     <row r="75" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -5974,14 +6514,24 @@
         <f>AVERAGE(C75:G75)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I75" s="6"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="5" t="e">
+      <c r="I75" s="6">
+        <v>0.374</v>
+      </c>
+      <c r="J75" s="7">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="K75" s="7">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="L75" s="7">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="M75" s="8">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="N75" s="5">
         <f>AVERAGE(I75:M75)</f>
-        <v>#DIV/0!</v>
+        <v>0.30460000000000004</v>
       </c>
       <c r="O75" s="6"/>
       <c r="P75" s="7"/>
@@ -5993,7 +6543,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U75" s="15"/>
-      <c r="V75" s="19" t="s">
+      <c r="V75" s="22" t="s">
         <v>26</v>
       </c>
       <c r="W75" s="4" t="s">
@@ -6008,14 +6558,24 @@
         <f>AVERAGE(X75:AB75)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD75" s="6"/>
-      <c r="AE75" s="7"/>
-      <c r="AF75" s="7"/>
-      <c r="AG75" s="7"/>
-      <c r="AH75" s="8"/>
-      <c r="AI75" s="5" t="e">
+      <c r="AD75" s="6">
+        <v>79.42</v>
+      </c>
+      <c r="AE75" s="7">
+        <v>106.9</v>
+      </c>
+      <c r="AF75" s="7">
+        <v>99.9</v>
+      </c>
+      <c r="AG75" s="7">
+        <v>103.1</v>
+      </c>
+      <c r="AH75" s="8">
+        <v>13.7</v>
+      </c>
+      <c r="AI75" s="5">
         <f>AVERAGE(AD75:AH75)</f>
-        <v>#DIV/0!</v>
+        <v>80.604000000000013</v>
       </c>
       <c r="AJ75" s="6"/>
       <c r="AK75" s="7"/>
@@ -6028,7 +6588,7 @@
       </c>
     </row>
     <row r="76" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
+      <c r="A76" s="22"/>
       <c r="B76" s="4" t="s">
         <v>2</v>
       </c>
@@ -6041,14 +6601,24 @@
         <f t="shared" ref="H76:H83" si="42">AVERAGE(C76:G76)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I76" s="9"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="5" t="e">
+      <c r="I76" s="9">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="J76" s="19">
+        <v>0.92</v>
+      </c>
+      <c r="K76" s="19">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="L76" s="19">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="M76" s="11">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="N76" s="5">
         <f t="shared" ref="N76:N83" si="43">AVERAGE(I76:M76)</f>
-        <v>#DIV/0!</v>
+        <v>0.90619999999999989</v>
       </c>
       <c r="O76" s="9"/>
       <c r="P76" s="10"/>
@@ -6060,7 +6630,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U76" s="15"/>
-      <c r="V76" s="19"/>
+      <c r="V76" s="22"/>
       <c r="W76" s="4" t="s">
         <v>2</v>
       </c>
@@ -6073,14 +6643,24 @@
         <f t="shared" ref="AC76:AC83" si="45">AVERAGE(X76:AB76)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD76" s="9"/>
-      <c r="AE76" s="10"/>
-      <c r="AF76" s="10"/>
-      <c r="AG76" s="10"/>
-      <c r="AH76" s="11"/>
-      <c r="AI76" s="5" t="e">
+      <c r="AD76" s="9">
+        <v>6252</v>
+      </c>
+      <c r="AE76" s="19">
+        <v>6392</v>
+      </c>
+      <c r="AF76" s="19">
+        <v>6663</v>
+      </c>
+      <c r="AG76" s="19">
+        <v>6488</v>
+      </c>
+      <c r="AH76" s="11">
+        <v>6673</v>
+      </c>
+      <c r="AI76" s="5">
         <f t="shared" ref="AI76:AI83" si="46">AVERAGE(AD76:AH76)</f>
-        <v>#DIV/0!</v>
+        <v>6493.6</v>
       </c>
       <c r="AJ76" s="9"/>
       <c r="AK76" s="10"/>
@@ -6093,7 +6673,7 @@
       </c>
     </row>
     <row r="77" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="4" t="s">
         <v>3</v>
       </c>
@@ -6106,14 +6686,24 @@
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I77" s="9"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="5" t="e">
+      <c r="I77" s="9">
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="J77" s="19">
+        <v>2.7519999999999998</v>
+      </c>
+      <c r="K77" s="19">
+        <v>2.7839999999999998</v>
+      </c>
+      <c r="L77" s="19">
+        <v>2.7919999999999998</v>
+      </c>
+      <c r="M77" s="11">
+        <v>2.7589999999999999</v>
+      </c>
+      <c r="N77" s="5">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
+        <v>2.7708000000000004</v>
       </c>
       <c r="O77" s="9"/>
       <c r="P77" s="10"/>
@@ -6125,7 +6715,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U77" s="15"/>
-      <c r="V77" s="19"/>
+      <c r="V77" s="22"/>
       <c r="W77" s="4" t="s">
         <v>3</v>
       </c>
@@ -6138,14 +6728,24 @@
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD77" s="9"/>
-      <c r="AE77" s="10"/>
-      <c r="AF77" s="10"/>
-      <c r="AG77" s="10"/>
-      <c r="AH77" s="11"/>
-      <c r="AI77" s="5" t="e">
+      <c r="AD77" s="9">
+        <v>7541</v>
+      </c>
+      <c r="AE77" s="19">
+        <v>7582</v>
+      </c>
+      <c r="AF77" s="19">
+        <v>7494</v>
+      </c>
+      <c r="AG77" s="19">
+        <v>7474</v>
+      </c>
+      <c r="AH77" s="11">
+        <v>7564</v>
+      </c>
+      <c r="AI77" s="5">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
+        <v>7531</v>
       </c>
       <c r="AJ77" s="9"/>
       <c r="AK77" s="10"/>
@@ -6158,7 +6758,7 @@
       </c>
     </row>
     <row r="78" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
+      <c r="A78" s="22"/>
       <c r="B78" s="4" t="s">
         <v>4</v>
       </c>
@@ -6171,14 +6771,24 @@
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I78" s="9"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="5" t="e">
+      <c r="I78" s="9">
+        <v>8.1010000000000009</v>
+      </c>
+      <c r="J78" s="19">
+        <v>8.0890000000000004</v>
+      </c>
+      <c r="K78" s="19">
+        <v>8.2650000000000006</v>
+      </c>
+      <c r="L78" s="19">
+        <v>8.1780000000000008</v>
+      </c>
+      <c r="M78" s="11">
+        <v>8.2710000000000008</v>
+      </c>
+      <c r="N78" s="5">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
+        <v>8.1808000000000014</v>
       </c>
       <c r="O78" s="9"/>
       <c r="P78" s="10"/>
@@ -6190,7 +6800,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U78" s="15"/>
-      <c r="V78" s="19"/>
+      <c r="V78" s="22"/>
       <c r="W78" s="4" t="s">
         <v>4</v>
       </c>
@@ -6203,14 +6813,24 @@
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD78" s="9"/>
-      <c r="AE78" s="10"/>
-      <c r="AF78" s="10"/>
-      <c r="AG78" s="10"/>
-      <c r="AH78" s="11"/>
-      <c r="AI78" s="5" t="e">
+      <c r="AD78" s="9">
+        <v>10220</v>
+      </c>
+      <c r="AE78" s="19">
+        <v>10240</v>
+      </c>
+      <c r="AF78" s="19">
+        <v>10020</v>
+      </c>
+      <c r="AG78" s="19">
+        <v>10120</v>
+      </c>
+      <c r="AH78" s="11">
+        <v>10010</v>
+      </c>
+      <c r="AI78" s="5">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
+        <v>10122</v>
       </c>
       <c r="AJ78" s="9"/>
       <c r="AK78" s="10"/>
@@ -6223,7 +6843,7 @@
       </c>
     </row>
     <row r="79" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
+      <c r="A79" s="22"/>
       <c r="B79" s="4" t="s">
         <v>5</v>
       </c>
@@ -6236,14 +6856,24 @@
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I79" s="9"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="5" t="e">
+      <c r="I79" s="9">
+        <v>14.422000000000001</v>
+      </c>
+      <c r="J79" s="19">
+        <v>14.275</v>
+      </c>
+      <c r="K79" s="19">
+        <v>14.256</v>
+      </c>
+      <c r="L79" s="19">
+        <v>14.205</v>
+      </c>
+      <c r="M79" s="11">
+        <v>14.253</v>
+      </c>
+      <c r="N79" s="5">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
+        <v>14.2822</v>
       </c>
       <c r="O79" s="9"/>
       <c r="P79" s="10"/>
@@ -6255,7 +6885,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U79" s="15"/>
-      <c r="V79" s="19"/>
+      <c r="V79" s="22"/>
       <c r="W79" s="4" t="s">
         <v>5</v>
       </c>
@@ -6268,14 +6898,24 @@
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD79" s="9"/>
-      <c r="AE79" s="10"/>
-      <c r="AF79" s="10"/>
-      <c r="AG79" s="10"/>
-      <c r="AH79" s="11"/>
-      <c r="AI79" s="5" t="e">
+      <c r="AD79" s="9">
+        <v>11190</v>
+      </c>
+      <c r="AE79" s="19">
+        <v>11310</v>
+      </c>
+      <c r="AF79" s="19">
+        <v>11320</v>
+      </c>
+      <c r="AG79" s="19">
+        <v>11370</v>
+      </c>
+      <c r="AH79" s="11">
+        <v>11330</v>
+      </c>
+      <c r="AI79" s="5">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
+        <v>11304</v>
       </c>
       <c r="AJ79" s="9"/>
       <c r="AK79" s="10"/>
@@ -6288,7 +6928,7 @@
       </c>
     </row>
     <row r="80" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
+      <c r="A80" s="22"/>
       <c r="B80" s="4" t="s">
         <v>6</v>
       </c>
@@ -6301,14 +6941,24 @@
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I80" s="9"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="5" t="e">
+      <c r="I80" s="9">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="J80" s="19">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="K80" s="19">
+        <v>0.254</v>
+      </c>
+      <c r="L80" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M80" s="11">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="N80" s="5">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
+        <v>0.27160000000000001</v>
       </c>
       <c r="O80" s="9"/>
       <c r="P80" s="10"/>
@@ -6320,7 +6970,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U80" s="15"/>
-      <c r="V80" s="19"/>
+      <c r="V80" s="22"/>
       <c r="W80" s="4" t="s">
         <v>6</v>
       </c>
@@ -6333,14 +6983,24 @@
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD80" s="9"/>
-      <c r="AE80" s="10"/>
-      <c r="AF80" s="10"/>
-      <c r="AG80" s="10"/>
-      <c r="AH80" s="11"/>
-      <c r="AI80" s="5" t="e">
+      <c r="AD80" s="9">
+        <v>918.9</v>
+      </c>
+      <c r="AE80" s="19">
+        <v>894.8</v>
+      </c>
+      <c r="AF80" s="19">
+        <v>983.1</v>
+      </c>
+      <c r="AG80" s="19">
+        <v>893.7</v>
+      </c>
+      <c r="AH80" s="11">
+        <v>913.4</v>
+      </c>
+      <c r="AI80" s="5">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
+        <v>920.78</v>
       </c>
       <c r="AJ80" s="9"/>
       <c r="AK80" s="10"/>
@@ -6353,7 +7013,7 @@
       </c>
     </row>
     <row r="81" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
+      <c r="A81" s="22"/>
       <c r="B81" s="4" t="s">
         <v>7</v>
       </c>
@@ -6366,14 +7026,24 @@
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I81" s="9"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="5" t="e">
+      <c r="I81" s="9">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="J81" s="19">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="K81" s="19">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="L81" s="19">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="M81" s="11">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="N81" s="5">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="O81" s="9"/>
       <c r="P81" s="10"/>
@@ -6385,7 +7055,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U81" s="15"/>
-      <c r="V81" s="19"/>
+      <c r="V81" s="22"/>
       <c r="W81" s="4" t="s">
         <v>7</v>
       </c>
@@ -6398,14 +7068,24 @@
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD81" s="9"/>
-      <c r="AE81" s="10"/>
-      <c r="AF81" s="10"/>
-      <c r="AG81" s="10"/>
-      <c r="AH81" s="11"/>
-      <c r="AI81" s="5" t="e">
+      <c r="AD81" s="9">
+        <v>1828</v>
+      </c>
+      <c r="AE81" s="19">
+        <v>1707</v>
+      </c>
+      <c r="AF81" s="19">
+        <v>1698</v>
+      </c>
+      <c r="AG81" s="19">
+        <v>1730</v>
+      </c>
+      <c r="AH81" s="11">
+        <v>1714</v>
+      </c>
+      <c r="AI81" s="5">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
+        <v>1735.4</v>
       </c>
       <c r="AJ81" s="9"/>
       <c r="AK81" s="10"/>
@@ -6418,7 +7098,7 @@
       </c>
     </row>
     <row r="82" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
+      <c r="A82" s="22"/>
       <c r="B82" s="4" t="s">
         <v>8</v>
       </c>
@@ -6431,14 +7111,24 @@
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I82" s="9"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="5" t="e">
+      <c r="I82" s="9">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="J82" s="19">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="K82" s="19">
+        <v>0.311</v>
+      </c>
+      <c r="L82" s="19">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="M82" s="11">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="N82" s="5">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
+        <v>0.2954</v>
       </c>
       <c r="O82" s="9"/>
       <c r="P82" s="10"/>
@@ -6450,7 +7140,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U82" s="15"/>
-      <c r="V82" s="19"/>
+      <c r="V82" s="22"/>
       <c r="W82" s="4" t="s">
         <v>8</v>
       </c>
@@ -6463,14 +7153,24 @@
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD82" s="9"/>
-      <c r="AE82" s="10"/>
-      <c r="AF82" s="10"/>
-      <c r="AG82" s="10"/>
-      <c r="AH82" s="11"/>
-      <c r="AI82" s="5" t="e">
+      <c r="AD82" s="9">
+        <v>2630</v>
+      </c>
+      <c r="AE82" s="19">
+        <v>2741</v>
+      </c>
+      <c r="AF82" s="19">
+        <v>2406</v>
+      </c>
+      <c r="AG82" s="19">
+        <v>2459</v>
+      </c>
+      <c r="AH82" s="11">
+        <v>2473</v>
+      </c>
+      <c r="AI82" s="5">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
+        <v>2541.8000000000002</v>
       </c>
       <c r="AJ82" s="9"/>
       <c r="AK82" s="10"/>
@@ -6483,7 +7183,7 @@
       </c>
     </row>
     <row r="83" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
+      <c r="A83" s="22"/>
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
@@ -6496,14 +7196,24 @@
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I83" s="12"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="5" t="e">
+      <c r="I83" s="12">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="J83" s="13">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="K83" s="13">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="L83" s="13">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="M83" s="14">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="N83" s="5">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
+        <v>0.31540000000000001</v>
       </c>
       <c r="O83" s="12"/>
       <c r="P83" s="13"/>
@@ -6515,7 +7225,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U83" s="15"/>
-      <c r="V83" s="19"/>
+      <c r="V83" s="22"/>
       <c r="W83" s="4" t="s">
         <v>9</v>
       </c>
@@ -6528,14 +7238,24 @@
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD83" s="12"/>
-      <c r="AE83" s="13"/>
-      <c r="AF83" s="13"/>
-      <c r="AG83" s="13"/>
-      <c r="AH83" s="14"/>
-      <c r="AI83" s="5" t="e">
+      <c r="AD83" s="12">
+        <v>3064</v>
+      </c>
+      <c r="AE83" s="13">
+        <v>3279</v>
+      </c>
+      <c r="AF83" s="13">
+        <v>3105</v>
+      </c>
+      <c r="AG83" s="13">
+        <v>3277</v>
+      </c>
+      <c r="AH83" s="14">
+        <v>3127</v>
+      </c>
+      <c r="AI83" s="5">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
+        <v>3170.4</v>
       </c>
       <c r="AJ83" s="12"/>
       <c r="AK83" s="13"/>
@@ -6549,30 +7269,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="AD3:AI3"/>
+    <mergeCell ref="AJ3:AO3"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="A75:A83"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="A55:A63"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="V35:V43"/>
+    <mergeCell ref="V45:V53"/>
+    <mergeCell ref="V55:V63"/>
+    <mergeCell ref="V65:V73"/>
+    <mergeCell ref="V75:V83"/>
     <mergeCell ref="V1:X2"/>
     <mergeCell ref="X3:AC3"/>
     <mergeCell ref="V5:V13"/>
     <mergeCell ref="V15:V23"/>
     <mergeCell ref="V25:V33"/>
-    <mergeCell ref="V35:V43"/>
-    <mergeCell ref="V45:V53"/>
-    <mergeCell ref="V55:V63"/>
-    <mergeCell ref="V65:V73"/>
-    <mergeCell ref="V75:V83"/>
-    <mergeCell ref="AD3:AI3"/>
-    <mergeCell ref="AJ3:AO3"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="A15:A23"/>
-    <mergeCell ref="A75:A83"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="A35:A43"/>
-    <mergeCell ref="A45:A53"/>
-    <mergeCell ref="A55:A63"/>
-    <mergeCell ref="A65:A73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/performance bf0.xlsx
+++ b/performance bf0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filippo\Desktop\tesi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48B78B9-6B8E-4322-BE23-D813F0BD29AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE4D7C3-7D4E-4094-A1B8-1B38F18F7780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -288,11 +288,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -326,12 +339,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -614,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G54" workbookViewId="0">
-      <selection activeCell="AI83" sqref="AI83"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD77" sqref="AD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,57 +663,57 @@
       <c r="X2" s="20"/>
     </row>
     <row r="3" spans="1:41" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21" t="s">
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
       <c r="U3" s="15"/>
       <c r="V3" s="17"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="21" t="s">
+      <c r="X3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21" t="s">
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21" t="s">
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="21"/>
-      <c r="AO3" s="21"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -815,20 +829,30 @@
       </c>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="5" t="e">
+      <c r="C5" s="6">
+        <v>0.254</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.247</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.309</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="H5" s="5">
         <f>AVERAGE(C5:G5)</f>
-        <v>#DIV/0!</v>
+        <v>0.25679999999999997</v>
       </c>
       <c r="I5" s="6">
         <v>0.35599999999999998</v>
@@ -859,20 +883,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U5" s="15"/>
-      <c r="V5" s="22" t="s">
+      <c r="V5" s="21" t="s">
         <v>10</v>
       </c>
       <c r="W5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="5" t="e">
+      <c r="X5" s="6">
+        <v>116.9</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>125.3</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>120.3</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>96.13</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>125.3</v>
+      </c>
+      <c r="AC5" s="5">
         <f>AVERAGE(X5:AB5)</f>
-        <v>#DIV/0!</v>
+        <v>116.78599999999999</v>
       </c>
       <c r="AD5" s="6">
         <v>83.55</v>
@@ -904,18 +938,28 @@
       </c>
     </row>
     <row r="6" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="5" t="e">
+      <c r="C6" s="9">
+        <v>5.4649999999999999</v>
+      </c>
+      <c r="D6" s="10">
+        <v>5.4189999999999996</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5.3879999999999999</v>
+      </c>
+      <c r="F6" s="19">
+        <v>5.391</v>
+      </c>
+      <c r="G6" s="11">
+        <v>5.3559999999999999</v>
+      </c>
+      <c r="H6" s="5">
         <f t="shared" ref="H6:H13" si="0">AVERAGE(C6:G6)</f>
-        <v>#DIV/0!</v>
+        <v>5.4037999999999995</v>
       </c>
       <c r="I6" s="9">
         <v>1.0309999999999999</v>
@@ -946,18 +990,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U6" s="15"/>
-      <c r="V6" s="22"/>
+      <c r="V6" s="21"/>
       <c r="W6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="5" t="e">
+      <c r="X6" s="9">
+        <v>1076</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>1085</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>1091</v>
+      </c>
+      <c r="AA6" s="19">
+        <v>1091</v>
+      </c>
+      <c r="AB6" s="11">
+        <v>1098</v>
+      </c>
+      <c r="AC6" s="5">
         <f t="shared" ref="AC6:AC13" si="3">AVERAGE(X6:AB6)</f>
-        <v>#DIV/0!</v>
+        <v>1088.2</v>
       </c>
       <c r="AD6" s="9">
         <v>5705</v>
@@ -989,18 +1043,28 @@
       </c>
     </row>
     <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="5" t="e">
+      <c r="C7" s="9">
+        <v>16.158000000000001</v>
+      </c>
+      <c r="D7" s="10">
+        <v>16.242000000000001</v>
+      </c>
+      <c r="E7" s="10">
+        <v>16.044</v>
+      </c>
+      <c r="F7" s="19">
+        <v>16.414999999999999</v>
+      </c>
+      <c r="G7" s="11">
+        <v>16.189</v>
+      </c>
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>16.209600000000002</v>
       </c>
       <c r="I7" s="9">
         <v>3.0009999999999999</v>
@@ -1031,18 +1095,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U7" s="15"/>
-      <c r="V7" s="22"/>
+      <c r="V7" s="21"/>
       <c r="W7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="5" t="e">
+      <c r="X7" s="9">
+        <v>1291</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>1285</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>1301</v>
+      </c>
+      <c r="AA7" s="19">
+        <v>1271</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>1289</v>
+      </c>
+      <c r="AC7" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1287.4000000000001</v>
       </c>
       <c r="AD7" s="9">
         <v>6953</v>
@@ -1074,18 +1148,28 @@
       </c>
     </row>
     <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="5" t="e">
+      <c r="C8" s="9">
+        <v>59.335000000000001</v>
+      </c>
+      <c r="D8" s="10">
+        <v>60.131</v>
+      </c>
+      <c r="E8" s="10">
+        <v>60.335000000000001</v>
+      </c>
+      <c r="F8" s="19">
+        <v>59.84</v>
+      </c>
+      <c r="G8" s="11">
+        <v>60.313000000000002</v>
+      </c>
+      <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>59.9908</v>
       </c>
       <c r="I8" s="9">
         <v>8.9440000000000008</v>
@@ -1116,18 +1200,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U8" s="15"/>
-      <c r="V8" s="22"/>
+      <c r="V8" s="21"/>
       <c r="W8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="5" t="e">
+      <c r="X8" s="9">
+        <v>1396</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>1377</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>1372</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>1384</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>1373</v>
+      </c>
+      <c r="AC8" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1380.4</v>
       </c>
       <c r="AD8" s="9">
         <v>9258</v>
@@ -1159,18 +1253,28 @@
       </c>
     </row>
     <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="5" t="e">
+      <c r="C9" s="9">
+        <v>111.727</v>
+      </c>
+      <c r="D9" s="10">
+        <v>112.38200000000001</v>
+      </c>
+      <c r="E9" s="10">
+        <v>112.22</v>
+      </c>
+      <c r="F9" s="19">
+        <v>111.79</v>
+      </c>
+      <c r="G9" s="11">
+        <v>111.81399999999999</v>
+      </c>
+      <c r="H9" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>111.9866</v>
       </c>
       <c r="I9" s="9">
         <v>15.941000000000001</v>
@@ -1201,18 +1305,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U9" s="15"/>
-      <c r="V9" s="22"/>
+      <c r="V9" s="21"/>
       <c r="W9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="5" t="e">
+      <c r="X9" s="9">
+        <v>1445</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>1437</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>1439</v>
+      </c>
+      <c r="AA9" s="19">
+        <v>1444</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>1444</v>
+      </c>
+      <c r="AC9" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1441.8</v>
       </c>
       <c r="AD9" s="9">
         <v>10130</v>
@@ -1244,18 +1358,28 @@
       </c>
     </row>
     <row r="10" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="5" t="e">
+      <c r="C10" s="9">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="H10" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.26119999999999999</v>
       </c>
       <c r="I10" s="9">
         <v>0.27300000000000002</v>
@@ -1286,18 +1410,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U10" s="15"/>
-      <c r="V10" s="22"/>
+      <c r="V10" s="21"/>
       <c r="W10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="5" t="e">
+      <c r="X10" s="9">
+        <v>972</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>946.2</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>953.5</v>
+      </c>
+      <c r="AA10" s="19">
+        <v>957.1</v>
+      </c>
+      <c r="AB10" s="11">
+        <v>953.5</v>
+      </c>
+      <c r="AC10" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>956.45999999999981</v>
       </c>
       <c r="AD10" s="9">
         <v>915.3</v>
@@ -1329,18 +1463,28 @@
       </c>
     </row>
     <row r="11" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="5" t="e">
+      <c r="C11" s="9">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.39139999999999997</v>
       </c>
       <c r="I11" s="9">
         <v>0.31900000000000001</v>
@@ -1371,18 +1515,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U11" s="15"/>
-      <c r="V11" s="22"/>
+      <c r="V11" s="21"/>
       <c r="W11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="5" t="e">
+      <c r="X11" s="9">
+        <v>1258</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>1265</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>1311</v>
+      </c>
+      <c r="AA11" s="19">
+        <v>1274</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>1274</v>
+      </c>
+      <c r="AC11" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1276.4000000000001</v>
       </c>
       <c r="AD11" s="9">
         <v>1567</v>
@@ -1414,18 +1568,28 @@
       </c>
     </row>
     <row r="12" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="5" t="e">
+      <c r="C12" s="9">
+        <v>0.51</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="H12" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="I12" s="9">
         <v>0.318</v>
@@ -1456,18 +1620,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U12" s="15"/>
-      <c r="V12" s="22"/>
+      <c r="V12" s="21"/>
       <c r="W12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="5" t="e">
+      <c r="X12" s="9">
+        <v>1469</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>1461</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>1182</v>
+      </c>
+      <c r="AA12" s="19">
+        <v>1463</v>
+      </c>
+      <c r="AB12" s="11">
+        <v>1452</v>
+      </c>
+      <c r="AC12" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1405.4</v>
       </c>
       <c r="AD12" s="9">
         <v>2357</v>
@@ -1499,18 +1673,28 @@
       </c>
     </row>
     <row r="13" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="5" t="e">
+      <c r="C13" s="12">
+        <v>0.629</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.622</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0.63</v>
+      </c>
+      <c r="H13" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.62739999999999996</v>
       </c>
       <c r="I13" s="12">
         <v>0.34300000000000003</v>
@@ -1541,18 +1725,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U13" s="15"/>
-      <c r="V13" s="22"/>
+      <c r="V13" s="21"/>
       <c r="W13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="5" t="e">
+      <c r="X13" s="12">
+        <v>1588</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>1583</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>1606</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>1598</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>1586</v>
+      </c>
+      <c r="AC13" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1592.2</v>
       </c>
       <c r="AD13" s="12">
         <v>2915</v>
@@ -1627,20 +1821,30 @@
       <c r="AO14" s="15"/>
     </row>
     <row r="15" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="5" t="e">
+      <c r="C15" s="6">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.249</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.252</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="H15" s="5">
         <f>AVERAGE(C15:G15)</f>
-        <v>#DIV/0!</v>
+        <v>0.25060000000000004</v>
       </c>
       <c r="I15" s="6">
         <v>0.38</v>
@@ -1671,20 +1875,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U15" s="15"/>
-      <c r="V15" s="22" t="s">
+      <c r="V15" s="21" t="s">
         <v>20</v>
       </c>
       <c r="W15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="5" t="e">
+      <c r="X15" s="6">
+        <v>122.7</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>119.3</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>117.9</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>106.1</v>
+      </c>
+      <c r="AB15" s="8">
+        <v>129.1</v>
+      </c>
+      <c r="AC15" s="5">
         <f>AVERAGE(X15:AB15)</f>
-        <v>#DIV/0!</v>
+        <v>119.02000000000001</v>
       </c>
       <c r="AD15" s="6">
         <v>78.2</v>
@@ -1716,18 +1930,28 @@
       </c>
     </row>
     <row r="16" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="5" t="e">
+      <c r="C16" s="9">
+        <v>8.202</v>
+      </c>
+      <c r="D16" s="19">
+        <v>5.7279999999999998</v>
+      </c>
+      <c r="E16" s="19">
+        <v>5.0739999999999998</v>
+      </c>
+      <c r="F16" s="19">
+        <v>5.0220000000000002</v>
+      </c>
+      <c r="G16" s="11">
+        <v>4.9829999999999997</v>
+      </c>
+      <c r="H16" s="5">
         <f t="shared" ref="H16:H23" si="6">AVERAGE(C16:G16)</f>
-        <v>#DIV/0!</v>
+        <v>5.8017999999999992</v>
       </c>
       <c r="I16" s="9">
         <v>1.056</v>
@@ -1758,18 +1982,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U16" s="15"/>
-      <c r="V16" s="22"/>
+      <c r="V16" s="21"/>
       <c r="W16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="5" t="e">
+      <c r="X16" s="9">
+        <v>717</v>
+      </c>
+      <c r="Y16" s="19">
+        <v>1027</v>
+      </c>
+      <c r="Z16" s="19">
+        <v>1159</v>
+      </c>
+      <c r="AA16" s="19">
+        <v>1171</v>
+      </c>
+      <c r="AB16" s="11">
+        <v>1180</v>
+      </c>
+      <c r="AC16" s="5">
         <f t="shared" ref="AC16:AC23" si="9">AVERAGE(X16:AB16)</f>
-        <v>#DIV/0!</v>
+        <v>1050.8</v>
       </c>
       <c r="AD16" s="9">
         <v>5566</v>
@@ -1801,18 +2035,28 @@
       </c>
     </row>
     <row r="17" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="5" t="e">
+      <c r="C17" s="9">
+        <v>14.484</v>
+      </c>
+      <c r="D17" s="19">
+        <v>14.688000000000001</v>
+      </c>
+      <c r="E17" s="19">
+        <v>15.548</v>
+      </c>
+      <c r="F17" s="19">
+        <v>14.977</v>
+      </c>
+      <c r="G17" s="11">
+        <v>15.087</v>
+      </c>
+      <c r="H17" s="5">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>14.956800000000001</v>
       </c>
       <c r="I17" s="9">
         <v>2.879</v>
@@ -1843,18 +2087,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U17" s="15"/>
-      <c r="V17" s="22"/>
+      <c r="V17" s="21"/>
       <c r="W17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="5" t="e">
+      <c r="X17" s="9">
+        <v>1441</v>
+      </c>
+      <c r="Y17" s="19">
+        <v>1421</v>
+      </c>
+      <c r="Z17" s="19">
+        <v>1342</v>
+      </c>
+      <c r="AA17" s="19">
+        <v>1393</v>
+      </c>
+      <c r="AB17" s="11">
+        <v>1383</v>
+      </c>
+      <c r="AC17" s="5">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1396</v>
       </c>
       <c r="AD17" s="9">
         <v>7247</v>
@@ -1886,18 +2140,28 @@
       </c>
     </row>
     <row r="18" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="5" t="e">
+      <c r="C18" s="9">
+        <v>53.418999999999997</v>
+      </c>
+      <c r="D18" s="10">
+        <v>53.359000000000002</v>
+      </c>
+      <c r="E18" s="10">
+        <v>54.377000000000002</v>
+      </c>
+      <c r="F18" s="19">
+        <v>53.213000000000001</v>
+      </c>
+      <c r="G18" s="11">
+        <v>53.356999999999999</v>
+      </c>
+      <c r="H18" s="5">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>53.545000000000002</v>
       </c>
       <c r="I18" s="9">
         <v>8.6059999999999999</v>
@@ -1928,18 +2192,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U18" s="15"/>
-      <c r="V18" s="22"/>
+      <c r="V18" s="21"/>
       <c r="W18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="5" t="e">
+      <c r="X18" s="9">
+        <v>1550</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>1552</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>1523</v>
+      </c>
+      <c r="AA18" s="19">
+        <v>1556</v>
+      </c>
+      <c r="AB18" s="11">
+        <v>1552</v>
+      </c>
+      <c r="AC18" s="5">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1546.6</v>
       </c>
       <c r="AD18" s="9">
         <v>9622</v>
@@ -1971,18 +2245,28 @@
       </c>
     </row>
     <row r="19" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="5" t="e">
+      <c r="C19" s="9">
+        <v>96.198999999999998</v>
+      </c>
+      <c r="D19" s="10">
+        <v>96.290999999999997</v>
+      </c>
+      <c r="E19" s="10">
+        <v>96.638999999999996</v>
+      </c>
+      <c r="F19" s="19">
+        <v>95.953000000000003</v>
+      </c>
+      <c r="G19" s="11">
+        <v>95.825999999999993</v>
+      </c>
+      <c r="H19" s="5">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>96.181600000000003</v>
       </c>
       <c r="I19" s="9">
         <v>15.096</v>
@@ -2013,18 +2297,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U19" s="15"/>
-      <c r="V19" s="22"/>
+      <c r="V19" s="21"/>
       <c r="W19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="5" t="e">
+      <c r="X19" s="9">
+        <v>1678</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>1677</v>
+      </c>
+      <c r="Z19" s="10">
+        <v>1671</v>
+      </c>
+      <c r="AA19" s="19">
+        <v>1682</v>
+      </c>
+      <c r="AB19" s="11">
+        <v>1685</v>
+      </c>
+      <c r="AC19" s="5">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1678.6</v>
       </c>
       <c r="AD19" s="9">
         <v>10690</v>
@@ -2056,18 +2350,28 @@
       </c>
     </row>
     <row r="20" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="5" t="e">
+      <c r="C20" s="9">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="H20" s="5">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.26720000000000005</v>
       </c>
       <c r="I20" s="9">
         <v>0.29199999999999998</v>
@@ -2098,18 +2402,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U20" s="15"/>
-      <c r="V20" s="22"/>
+      <c r="V20" s="21"/>
       <c r="W20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="5" t="e">
+      <c r="X20" s="9">
+        <v>949.8</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>864.4</v>
+      </c>
+      <c r="Z20" s="10">
+        <v>972</v>
+      </c>
+      <c r="AA20" s="19">
+        <v>939.1</v>
+      </c>
+      <c r="AB20" s="11">
+        <v>957.1</v>
+      </c>
+      <c r="AC20" s="5">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>936.4799999999999</v>
       </c>
       <c r="AD20" s="9">
         <v>854.7</v>
@@ -2141,18 +2455,28 @@
       </c>
     </row>
     <row r="21" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="5" t="e">
+      <c r="C21" s="9">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.378</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.377</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0.376</v>
+      </c>
+      <c r="H21" s="5">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.33799999999999997</v>
       </c>
       <c r="I21" s="9">
         <v>0.309</v>
@@ -2183,18 +2507,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U21" s="15"/>
-      <c r="V21" s="22"/>
+      <c r="V21" s="21"/>
       <c r="W21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="5" t="e">
+      <c r="X21" s="9">
+        <v>1358</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>1278</v>
+      </c>
+      <c r="Z21" s="10">
+        <v>1322</v>
+      </c>
+      <c r="AA21" s="19">
+        <v>1325</v>
+      </c>
+      <c r="AB21" s="11">
+        <v>1329</v>
+      </c>
+      <c r="AC21" s="5">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1322.4</v>
       </c>
       <c r="AD21" s="9">
         <v>1614</v>
@@ -2226,18 +2560,28 @@
       </c>
     </row>
     <row r="22" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="5" t="e">
+      <c r="C22" s="9">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H22" s="5">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.49139999999999995</v>
       </c>
       <c r="I22" s="9">
         <v>0.33300000000000002</v>
@@ -2268,18 +2612,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="22"/>
+      <c r="V22" s="21"/>
       <c r="W22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="5" t="e">
+      <c r="X22" s="9">
+        <v>1472</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>1520</v>
+      </c>
+      <c r="Z22" s="10">
+        <v>1567</v>
+      </c>
+      <c r="AA22" s="19">
+        <v>1551</v>
+      </c>
+      <c r="AB22" s="11">
+        <v>1517</v>
+      </c>
+      <c r="AC22" s="5">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1525.4</v>
       </c>
       <c r="AD22" s="9">
         <v>2250</v>
@@ -2311,18 +2665,28 @@
       </c>
     </row>
     <row r="23" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="5" t="e">
+      <c r="C23" s="12">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D23" s="13">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0.59</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H23" s="5">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.64280000000000004</v>
       </c>
       <c r="I23" s="12">
         <v>0.34499999999999997</v>
@@ -2353,18 +2717,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U23" s="15"/>
-      <c r="V23" s="22"/>
+      <c r="V23" s="21"/>
       <c r="W23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="5" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="X23" s="13">
+        <v>1716</v>
+      </c>
+      <c r="Y23" s="13">
+        <v>1659</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>1693</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>1651</v>
+      </c>
+      <c r="AB23" s="14">
+        <v>1196</v>
+      </c>
+      <c r="AC23" s="23">
+        <f>AVERAGE(X23:AB23)</f>
+        <v>1583</v>
       </c>
       <c r="AD23" s="12">
         <v>2894</v>
@@ -2439,20 +2813,30 @@
       <c r="AO24" s="15"/>
     </row>
     <row r="25" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="5" t="e">
+      <c r="C25" s="6">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.247</v>
+      </c>
+      <c r="H25" s="5">
         <f>AVERAGE(C25:G25)</f>
-        <v>#DIV/0!</v>
+        <v>0.26519999999999999</v>
       </c>
       <c r="I25" s="6">
         <v>0.34300000000000003</v>
@@ -2483,20 +2867,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U25" s="15"/>
-      <c r="V25" s="22" t="s">
+      <c r="V25" s="21" t="s">
         <v>21</v>
       </c>
       <c r="W25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="5" t="e">
+      <c r="X25" s="6">
+        <v>112.9</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>107.2</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>112.5</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>108</v>
+      </c>
+      <c r="AB25" s="8">
+        <v>120.3</v>
+      </c>
+      <c r="AC25" s="5">
         <f>AVERAGE(X25:AB25)</f>
-        <v>#DIV/0!</v>
+        <v>112.17999999999999</v>
       </c>
       <c r="AD25" s="6">
         <v>86.55</v>
@@ -2528,18 +2922,28 @@
       </c>
     </row>
     <row r="26" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="5" t="e">
+      <c r="C26" s="9">
+        <v>5.0839999999999996</v>
+      </c>
+      <c r="D26" s="19">
+        <v>4.8819999999999997</v>
+      </c>
+      <c r="E26" s="19">
+        <v>4.6520000000000001</v>
+      </c>
+      <c r="F26" s="19">
+        <v>4.5960000000000001</v>
+      </c>
+      <c r="G26" s="11">
+        <v>4.8819999999999997</v>
+      </c>
+      <c r="H26" s="5">
         <f t="shared" ref="H26:H33" si="12">AVERAGE(C26:G26)</f>
-        <v>#DIV/0!</v>
+        <v>4.8191999999999995</v>
       </c>
       <c r="I26" s="9">
         <v>0.96799999999999997</v>
@@ -2570,18 +2974,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U26" s="15"/>
-      <c r="V26" s="22"/>
+      <c r="V26" s="21"/>
       <c r="W26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="5" t="e">
+      <c r="X26" s="9">
+        <v>1157</v>
+      </c>
+      <c r="Y26" s="19">
+        <v>1205</v>
+      </c>
+      <c r="Z26" s="19">
+        <v>1264</v>
+      </c>
+      <c r="AA26" s="19">
+        <v>1279</v>
+      </c>
+      <c r="AB26" s="11">
+        <v>1205</v>
+      </c>
+      <c r="AC26" s="5">
         <f t="shared" ref="AC26:AC33" si="15">AVERAGE(X26:AB26)</f>
-        <v>#DIV/0!</v>
+        <v>1222</v>
       </c>
       <c r="AD26" s="9">
         <v>6077</v>
@@ -2613,18 +3027,28 @@
       </c>
     </row>
     <row r="27" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="5" t="e">
+      <c r="C27" s="9">
+        <v>15.601000000000001</v>
+      </c>
+      <c r="D27" s="19">
+        <v>15.37</v>
+      </c>
+      <c r="E27" s="19">
+        <v>13.872999999999999</v>
+      </c>
+      <c r="F27" s="19">
+        <v>14.548999999999999</v>
+      </c>
+      <c r="G27" s="11">
+        <v>15.105</v>
+      </c>
+      <c r="H27" s="5">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>14.899600000000001</v>
       </c>
       <c r="I27" s="9">
         <v>2.7250000000000001</v>
@@ -2655,18 +3079,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U27" s="15"/>
-      <c r="V27" s="22"/>
+      <c r="V27" s="21"/>
       <c r="W27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="5" t="e">
+      <c r="X27" s="9">
+        <v>1338</v>
+      </c>
+      <c r="Y27" s="19">
+        <v>1358</v>
+      </c>
+      <c r="Z27" s="19">
+        <v>1504</v>
+      </c>
+      <c r="AA27" s="19">
+        <v>1434</v>
+      </c>
+      <c r="AB27" s="11">
+        <v>1381</v>
+      </c>
+      <c r="AC27" s="5">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1403</v>
       </c>
       <c r="AD27" s="9">
         <v>7658</v>
@@ -2698,18 +3132,28 @@
       </c>
     </row>
     <row r="28" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="5" t="e">
+      <c r="C28" s="9">
+        <v>49.576999999999998</v>
+      </c>
+      <c r="D28" s="10">
+        <v>49.741</v>
+      </c>
+      <c r="E28" s="10">
+        <v>49.238</v>
+      </c>
+      <c r="F28" s="19">
+        <v>49.436</v>
+      </c>
+      <c r="G28" s="11">
+        <v>49.642000000000003</v>
+      </c>
+      <c r="H28" s="5">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>49.526799999999994</v>
       </c>
       <c r="I28" s="9">
         <v>7.99</v>
@@ -2740,18 +3184,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U28" s="15"/>
-      <c r="V28" s="22"/>
+      <c r="V28" s="21"/>
       <c r="W28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="5" t="e">
+      <c r="X28" s="9">
+        <v>1670</v>
+      </c>
+      <c r="Y28" s="10">
+        <v>1665</v>
+      </c>
+      <c r="Z28" s="10">
+        <v>1682</v>
+      </c>
+      <c r="AA28" s="19">
+        <v>1675</v>
+      </c>
+      <c r="AB28" s="11">
+        <v>1668</v>
+      </c>
+      <c r="AC28" s="5">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1672</v>
       </c>
       <c r="AD28" s="9">
         <v>10360</v>
@@ -2783,18 +3237,28 @@
       </c>
     </row>
     <row r="29" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="5" t="e">
+      <c r="C29" s="9">
+        <v>88.713999999999999</v>
+      </c>
+      <c r="D29" s="10">
+        <v>88.558999999999997</v>
+      </c>
+      <c r="E29" s="10">
+        <v>88.876999999999995</v>
+      </c>
+      <c r="F29" s="19">
+        <v>88.578000000000003</v>
+      </c>
+      <c r="G29" s="11">
+        <v>90.075999999999993</v>
+      </c>
+      <c r="H29" s="5">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>88.960799999999992</v>
       </c>
       <c r="I29" s="9">
         <v>13.497999999999999</v>
@@ -2825,18 +3289,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U29" s="15"/>
-      <c r="V29" s="22"/>
+      <c r="V29" s="21"/>
       <c r="W29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="5" t="e">
+      <c r="X29" s="9">
+        <v>1820</v>
+      </c>
+      <c r="Y29" s="10">
+        <v>1823</v>
+      </c>
+      <c r="Z29" s="10">
+        <v>1816</v>
+      </c>
+      <c r="AA29" s="19">
+        <v>1823</v>
+      </c>
+      <c r="AB29" s="11">
+        <v>1792</v>
+      </c>
+      <c r="AC29" s="5">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1814.8</v>
       </c>
       <c r="AD29" s="9">
         <v>11960</v>
@@ -2868,18 +3342,28 @@
       </c>
     </row>
     <row r="30" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="5" t="e">
+      <c r="C30" s="9">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="F30" s="19">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="H30" s="5">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0.25140000000000001</v>
       </c>
       <c r="I30" s="9">
         <v>0.29899999999999999</v>
@@ -2910,18 +3394,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U30" s="15"/>
-      <c r="V30" s="22"/>
+      <c r="V30" s="21"/>
       <c r="W30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="5" t="e">
+      <c r="X30" s="9">
+        <v>972</v>
+      </c>
+      <c r="Y30" s="10">
+        <v>889</v>
+      </c>
+      <c r="Z30" s="10">
+        <v>1063</v>
+      </c>
+      <c r="AA30" s="19">
+        <v>1028</v>
+      </c>
+      <c r="AB30" s="11">
+        <v>1037</v>
+      </c>
+      <c r="AC30" s="5">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>997.8</v>
       </c>
       <c r="AD30" s="9">
         <v>834.7</v>
@@ -2953,18 +3447,28 @@
       </c>
     </row>
     <row r="31" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="5" t="e">
+      <c r="C31" s="9">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="F31" s="19">
+        <v>0.432</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="H31" s="5">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="I31" s="9">
         <v>0.312</v>
@@ -2995,18 +3499,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U31" s="15"/>
-      <c r="V31" s="22"/>
+      <c r="V31" s="21"/>
       <c r="W31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="5" t="e">
+      <c r="X31" s="9">
+        <v>1436</v>
+      </c>
+      <c r="Y31" s="10">
+        <v>1456</v>
+      </c>
+      <c r="Z31" s="10">
+        <v>1444</v>
+      </c>
+      <c r="AA31" s="19">
+        <v>1156</v>
+      </c>
+      <c r="AB31" s="11">
+        <v>1392</v>
+      </c>
+      <c r="AC31" s="5">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1376.8</v>
       </c>
       <c r="AD31" s="9">
         <v>1603</v>
@@ -3038,18 +3552,28 @@
       </c>
     </row>
     <row r="32" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="5" t="e">
+      <c r="C32" s="9">
+        <v>0.438</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="F32" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="H32" s="5">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="I32" s="9">
         <v>0.32900000000000001</v>
@@ -3080,18 +3604,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U32" s="15"/>
-      <c r="V32" s="22"/>
+      <c r="V32" s="21"/>
       <c r="W32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="5" t="e">
+      <c r="X32" s="9">
+        <v>1711</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>1669</v>
+      </c>
+      <c r="Z32" s="10">
+        <v>1742</v>
+      </c>
+      <c r="AA32" s="19">
+        <v>1665</v>
+      </c>
+      <c r="AB32" s="11">
+        <v>1636</v>
+      </c>
+      <c r="AC32" s="5">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1684.6</v>
       </c>
       <c r="AD32" s="9">
         <v>2274</v>
@@ -3123,18 +3657,28 @@
       </c>
     </row>
     <row r="33" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="5" t="e">
+      <c r="C33" s="12">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="H33" s="5">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="I33" s="12">
         <v>0.33900000000000002</v>
@@ -3165,18 +3709,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U33" s="15"/>
-      <c r="V33" s="22"/>
+      <c r="V33" s="21"/>
       <c r="W33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="13"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="5" t="e">
+      <c r="X33" s="12">
+        <v>1781</v>
+      </c>
+      <c r="Y33" s="13">
+        <v>1836</v>
+      </c>
+      <c r="Z33" s="13">
+        <v>1823</v>
+      </c>
+      <c r="AA33" s="13">
+        <v>1826</v>
+      </c>
+      <c r="AB33" s="14">
+        <v>1800</v>
+      </c>
+      <c r="AC33" s="5">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1813.2</v>
       </c>
       <c r="AD33" s="12">
         <v>2950</v>
@@ -3251,20 +3805,30 @@
       <c r="AO34" s="15"/>
     </row>
     <row r="35" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="5" t="e">
+      <c r="C35" s="6">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="H35" s="5">
         <f>AVERAGE(C35:G35)</f>
-        <v>#DIV/0!</v>
+        <v>0.24900000000000003</v>
       </c>
       <c r="I35" s="6">
         <v>0.36399999999999999</v>
@@ -3295,20 +3859,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U35" s="15"/>
-      <c r="V35" s="22" t="s">
+      <c r="V35" s="21" t="s">
         <v>22</v>
       </c>
       <c r="W35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="5" t="e">
+      <c r="X35" s="6">
+        <v>115.6</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>118.8</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>128.6</v>
+      </c>
+      <c r="AA35" s="7">
+        <v>107.6</v>
+      </c>
+      <c r="AB35" s="8">
+        <v>128.6</v>
+      </c>
+      <c r="AC35" s="5">
         <f>AVERAGE(X35:AB35)</f>
-        <v>#DIV/0!</v>
+        <v>119.84</v>
       </c>
       <c r="AD35" s="6">
         <v>81.66</v>
@@ -3340,18 +3914,28 @@
       </c>
     </row>
     <row r="36" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="5" t="e">
+      <c r="C36" s="9">
+        <v>5.0140000000000002</v>
+      </c>
+      <c r="D36" s="19">
+        <v>4.923</v>
+      </c>
+      <c r="E36" s="19">
+        <v>4.9290000000000003</v>
+      </c>
+      <c r="F36" s="19">
+        <v>4.9930000000000003</v>
+      </c>
+      <c r="G36" s="11">
+        <v>4.9690000000000003</v>
+      </c>
+      <c r="H36" s="5">
         <f t="shared" ref="H36:H43" si="18">AVERAGE(C36:G36)</f>
-        <v>#DIV/0!</v>
+        <v>4.9656000000000002</v>
       </c>
       <c r="I36" s="9">
         <v>0.99299999999999999</v>
@@ -3382,18 +3966,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U36" s="15"/>
-      <c r="V36" s="22"/>
+      <c r="V36" s="21"/>
       <c r="W36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="5" t="e">
+      <c r="X36" s="9">
+        <v>1173</v>
+      </c>
+      <c r="Y36" s="19">
+        <v>1194</v>
+      </c>
+      <c r="Z36" s="19">
+        <v>1193</v>
+      </c>
+      <c r="AA36" s="19">
+        <v>1178</v>
+      </c>
+      <c r="AB36" s="11">
+        <v>1183</v>
+      </c>
+      <c r="AC36" s="5">
         <f t="shared" ref="AC36:AC43" si="21">AVERAGE(X36:AB36)</f>
-        <v>#DIV/0!</v>
+        <v>1184.2</v>
       </c>
       <c r="AD36" s="9">
         <v>5922</v>
@@ -3425,18 +4019,28 @@
       </c>
     </row>
     <row r="37" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="5" t="e">
+      <c r="C37" s="9">
+        <v>14.337999999999999</v>
+      </c>
+      <c r="D37" s="19">
+        <v>14.516</v>
+      </c>
+      <c r="E37" s="19">
+        <v>14.551</v>
+      </c>
+      <c r="F37" s="19">
+        <v>14.308999999999999</v>
+      </c>
+      <c r="G37" s="11">
+        <v>15.132999999999999</v>
+      </c>
+      <c r="H37" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>14.569399999999998</v>
       </c>
       <c r="I37" s="9">
         <v>2.827</v>
@@ -3467,18 +4071,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U37" s="15"/>
-      <c r="V37" s="22"/>
+      <c r="V37" s="21"/>
       <c r="W37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="5" t="e">
+      <c r="X37" s="9">
+        <v>1455</v>
+      </c>
+      <c r="Y37" s="19">
+        <v>1437</v>
+      </c>
+      <c r="Z37" s="19">
+        <v>1434</v>
+      </c>
+      <c r="AA37" s="19">
+        <v>1458</v>
+      </c>
+      <c r="AB37" s="11">
+        <v>1379</v>
+      </c>
+      <c r="AC37" s="5">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+        <v>1432.6</v>
       </c>
       <c r="AD37" s="9">
         <v>7380</v>
@@ -3510,18 +4124,28 @@
       </c>
     </row>
     <row r="38" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="5" t="e">
+      <c r="C38" s="9">
+        <v>52.496000000000002</v>
+      </c>
+      <c r="D38" s="10">
+        <v>52.825000000000003</v>
+      </c>
+      <c r="E38" s="10">
+        <v>52.569000000000003</v>
+      </c>
+      <c r="F38" s="19">
+        <v>52.850999999999999</v>
+      </c>
+      <c r="G38" s="11">
+        <v>52.728000000000002</v>
+      </c>
+      <c r="H38" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>52.693799999999996</v>
       </c>
       <c r="I38" s="9">
         <v>8.407</v>
@@ -3552,18 +4176,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U38" s="15"/>
-      <c r="V38" s="22"/>
+      <c r="V38" s="21"/>
       <c r="W38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="5" t="e">
+      <c r="X38" s="9">
+        <v>1577</v>
+      </c>
+      <c r="Y38" s="10">
+        <v>1567</v>
+      </c>
+      <c r="Z38" s="10">
+        <v>1575</v>
+      </c>
+      <c r="AA38" s="19">
+        <v>1567</v>
+      </c>
+      <c r="AB38" s="11">
+        <v>1570</v>
+      </c>
+      <c r="AC38" s="5">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+        <v>1571.2</v>
       </c>
       <c r="AD38" s="9">
         <v>9849</v>
@@ -3595,18 +4229,28 @@
       </c>
     </row>
     <row r="39" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="5" t="e">
+      <c r="C39" s="9">
+        <v>96.650999999999996</v>
+      </c>
+      <c r="D39" s="10">
+        <v>96.11</v>
+      </c>
+      <c r="E39" s="10">
+        <v>96.272999999999996</v>
+      </c>
+      <c r="F39" s="19">
+        <v>96.277000000000001</v>
+      </c>
+      <c r="G39" s="11">
+        <v>96.144999999999996</v>
+      </c>
+      <c r="H39" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>96.291199999999989</v>
       </c>
       <c r="I39" s="9">
         <v>14.922000000000001</v>
@@ -3637,18 +4281,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U39" s="15"/>
-      <c r="V39" s="22"/>
+      <c r="V39" s="21"/>
       <c r="W39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="11"/>
-      <c r="AC39" s="5" t="e">
+      <c r="X39" s="9">
+        <v>1670</v>
+      </c>
+      <c r="Y39" s="10">
+        <v>1680</v>
+      </c>
+      <c r="Z39" s="10">
+        <v>1677</v>
+      </c>
+      <c r="AA39" s="19">
+        <v>1677</v>
+      </c>
+      <c r="AB39" s="11">
+        <v>1679</v>
+      </c>
+      <c r="AC39" s="5">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+        <v>1676.6</v>
       </c>
       <c r="AD39" s="9">
         <v>10820</v>
@@ -3680,18 +4334,28 @@
       </c>
     </row>
     <row r="40" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="5" t="e">
+      <c r="C40" s="9">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0.316</v>
+      </c>
+      <c r="F40" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0.255</v>
+      </c>
+      <c r="H40" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0.30259999999999998</v>
       </c>
       <c r="I40" s="9">
         <v>0.30399999999999999</v>
@@ -3722,18 +4386,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U40" s="15"/>
-      <c r="V40" s="22"/>
+      <c r="V40" s="21"/>
       <c r="W40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="11"/>
-      <c r="AC40" s="5" t="e">
+      <c r="X40" s="9">
+        <v>841.1</v>
+      </c>
+      <c r="Y40" s="10">
+        <v>632.4</v>
+      </c>
+      <c r="Z40" s="10">
+        <v>790.5</v>
+      </c>
+      <c r="AA40" s="19">
+        <v>999.2</v>
+      </c>
+      <c r="AB40" s="11">
+        <v>979.6</v>
+      </c>
+      <c r="AC40" s="5">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+        <v>848.56000000000006</v>
       </c>
       <c r="AD40" s="9">
         <v>821.8</v>
@@ -3765,18 +4439,28 @@
       </c>
     </row>
     <row r="41" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="5" t="e">
+      <c r="C41" s="9">
+        <v>0.376</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0.376</v>
+      </c>
+      <c r="F41" s="19">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0.37</v>
+      </c>
+      <c r="H41" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0.38540000000000002</v>
       </c>
       <c r="I41" s="9">
         <v>0.32200000000000001</v>
@@ -3807,18 +4491,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U41" s="15"/>
-      <c r="V41" s="22"/>
+      <c r="V41" s="21"/>
       <c r="W41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="11"/>
-      <c r="AC41" s="5" t="e">
+      <c r="X41" s="9">
+        <v>1329</v>
+      </c>
+      <c r="Y41" s="10">
+        <v>1311</v>
+      </c>
+      <c r="Z41" s="10">
+        <v>1329</v>
+      </c>
+      <c r="AA41" s="19">
+        <v>1178</v>
+      </c>
+      <c r="AB41" s="11">
+        <v>1350</v>
+      </c>
+      <c r="AC41" s="5">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+        <v>1299.4000000000001</v>
       </c>
       <c r="AD41" s="9">
         <v>1552</v>
@@ -3850,18 +4544,28 @@
       </c>
     </row>
     <row r="42" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="5" t="e">
+      <c r="C42" s="9">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0.502</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="F42" s="19">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="H42" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0.48339999999999994</v>
       </c>
       <c r="I42" s="9">
         <v>0.33</v>
@@ -3892,18 +4596,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U42" s="15"/>
-      <c r="V42" s="22"/>
+      <c r="V42" s="21"/>
       <c r="W42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="11"/>
-      <c r="AC42" s="5" t="e">
+      <c r="X42" s="9">
+        <v>1591</v>
+      </c>
+      <c r="Y42" s="10">
+        <v>1493</v>
+      </c>
+      <c r="Z42" s="10">
+        <v>1539</v>
+      </c>
+      <c r="AA42" s="19">
+        <v>1558</v>
+      </c>
+      <c r="AB42" s="11">
+        <v>1574</v>
+      </c>
+      <c r="AC42" s="5">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+        <v>1551</v>
       </c>
       <c r="AD42" s="9">
         <v>2270</v>
@@ -3935,18 +4649,28 @@
       </c>
     </row>
     <row r="43" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="5" t="e">
+      <c r="C43" s="12">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="D43" s="13">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="E43" s="13">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="F43" s="13">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="G43" s="14">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="H43" s="5">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0.60220000000000007</v>
       </c>
       <c r="I43" s="12">
         <v>0.33</v>
@@ -3977,18 +4701,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U43" s="15"/>
-      <c r="V43" s="22"/>
+      <c r="V43" s="21"/>
       <c r="W43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
-      <c r="AA43" s="13"/>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="5" t="e">
+      <c r="X43" s="12">
+        <v>1467</v>
+      </c>
+      <c r="Y43" s="13">
+        <v>1714</v>
+      </c>
+      <c r="Z43" s="13">
+        <v>1702</v>
+      </c>
+      <c r="AA43" s="13">
+        <v>1731</v>
+      </c>
+      <c r="AB43" s="14">
+        <v>1714</v>
+      </c>
+      <c r="AC43" s="5">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+        <v>1665.6</v>
       </c>
       <c r="AD43" s="12">
         <v>3024</v>
@@ -4063,20 +4797,30 @@
       <c r="AO44" s="15"/>
     </row>
     <row r="45" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="5" t="e">
+      <c r="C45" s="6">
+        <v>0.253</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="H45" s="5">
         <f>AVERAGE(C45:G45)</f>
-        <v>#DIV/0!</v>
+        <v>0.316</v>
       </c>
       <c r="I45" s="6">
         <v>0.34300000000000003</v>
@@ -4107,20 +4851,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U45" s="15"/>
-      <c r="V45" s="22" t="s">
+      <c r="V45" s="21" t="s">
         <v>23</v>
       </c>
       <c r="W45" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="5" t="e">
+      <c r="X45" s="6">
+        <v>117.4</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>113.4</v>
+      </c>
+      <c r="Z45" s="7">
+        <v>113.4</v>
+      </c>
+      <c r="AA45" s="7">
+        <v>62.93</v>
+      </c>
+      <c r="AB45" s="8">
+        <v>89.74</v>
+      </c>
+      <c r="AC45" s="5">
         <f>AVERAGE(X45:AB45)</f>
-        <v>#DIV/0!</v>
+        <v>99.374000000000009</v>
       </c>
       <c r="AD45" s="6">
         <v>86.64</v>
@@ -4152,18 +4906,28 @@
       </c>
     </row>
     <row r="46" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="5" t="e">
+      <c r="C46" s="9">
+        <v>4.7430000000000003</v>
+      </c>
+      <c r="D46" s="10">
+        <v>4.8090000000000002</v>
+      </c>
+      <c r="E46" s="10">
+        <v>4.9850000000000003</v>
+      </c>
+      <c r="F46" s="19">
+        <v>5.3689999999999998</v>
+      </c>
+      <c r="G46" s="11">
+        <v>4.99</v>
+      </c>
+      <c r="H46" s="5">
         <f t="shared" ref="H46:H53" si="24">AVERAGE(C46:G46)</f>
-        <v>#DIV/0!</v>
+        <v>4.9792000000000005</v>
       </c>
       <c r="I46" s="9">
         <v>1.0009999999999999</v>
@@ -4194,18 +4958,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U46" s="15"/>
-      <c r="V46" s="22"/>
+      <c r="V46" s="21"/>
       <c r="W46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="5" t="e">
+      <c r="X46" s="9">
+        <v>1240</v>
+      </c>
+      <c r="Y46" s="10">
+        <v>1223</v>
+      </c>
+      <c r="Z46" s="10">
+        <v>1180</v>
+      </c>
+      <c r="AA46" s="19">
+        <v>1095</v>
+      </c>
+      <c r="AB46" s="11">
+        <v>1178</v>
+      </c>
+      <c r="AC46" s="5">
         <f t="shared" ref="AC46:AC53" si="27">AVERAGE(X46:AB46)</f>
-        <v>#DIV/0!</v>
+        <v>1183.2</v>
       </c>
       <c r="AD46" s="9">
         <v>5873</v>
@@ -4237,18 +5011,28 @@
       </c>
     </row>
     <row r="47" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="5" t="e">
+      <c r="C47" s="9">
+        <v>14.372</v>
+      </c>
+      <c r="D47" s="10">
+        <v>14.456</v>
+      </c>
+      <c r="E47" s="10">
+        <v>14.377000000000001</v>
+      </c>
+      <c r="F47" s="19">
+        <v>14.38</v>
+      </c>
+      <c r="G47" s="11">
+        <v>14.6</v>
+      </c>
+      <c r="H47" s="5">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>14.437000000000001</v>
       </c>
       <c r="I47" s="9">
         <v>2.8740000000000001</v>
@@ -4279,18 +5063,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U47" s="15"/>
-      <c r="V47" s="22"/>
+      <c r="V47" s="21"/>
       <c r="W47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="10"/>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="5" t="e">
+      <c r="X47" s="9">
+        <v>1452</v>
+      </c>
+      <c r="Y47" s="10">
+        <v>1443</v>
+      </c>
+      <c r="Z47" s="10">
+        <v>1451</v>
+      </c>
+      <c r="AA47" s="19">
+        <v>1451</v>
+      </c>
+      <c r="AB47" s="11">
+        <v>1429</v>
+      </c>
+      <c r="AC47" s="5">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>1445.2</v>
       </c>
       <c r="AD47" s="9">
         <v>7260</v>
@@ -4322,18 +5116,28 @@
       </c>
     </row>
     <row r="48" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="5" t="e">
+      <c r="C48" s="9">
+        <v>53.314999999999998</v>
+      </c>
+      <c r="D48" s="10">
+        <v>53.506</v>
+      </c>
+      <c r="E48" s="10">
+        <v>53.741</v>
+      </c>
+      <c r="F48" s="19">
+        <v>53.689</v>
+      </c>
+      <c r="G48" s="11">
+        <v>53.45</v>
+      </c>
+      <c r="H48" s="5">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>53.540200000000006</v>
       </c>
       <c r="I48" s="9">
         <v>8.5570000000000004</v>
@@ -4364,18 +5168,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U48" s="15"/>
-      <c r="V48" s="22"/>
+      <c r="V48" s="21"/>
       <c r="W48" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="11"/>
-      <c r="AC48" s="5" t="e">
+      <c r="X48" s="9">
+        <v>1553</v>
+      </c>
+      <c r="Y48" s="10">
+        <v>1548</v>
+      </c>
+      <c r="Z48" s="10">
+        <v>1541</v>
+      </c>
+      <c r="AA48" s="19">
+        <v>1542</v>
+      </c>
+      <c r="AB48" s="11">
+        <v>1549</v>
+      </c>
+      <c r="AC48" s="5">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>1546.6</v>
       </c>
       <c r="AD48" s="9">
         <v>9676</v>
@@ -4407,18 +5221,28 @@
       </c>
     </row>
     <row r="49" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="5" t="e">
+      <c r="C49" s="9">
+        <v>99.22</v>
+      </c>
+      <c r="D49" s="10">
+        <v>99.397000000000006</v>
+      </c>
+      <c r="E49" s="10">
+        <v>99.394999999999996</v>
+      </c>
+      <c r="F49" s="19">
+        <v>98.671999999999997</v>
+      </c>
+      <c r="G49" s="11">
+        <v>98.366</v>
+      </c>
+      <c r="H49" s="5">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>99.009999999999991</v>
       </c>
       <c r="I49" s="9">
         <v>15.164999999999999</v>
@@ -4449,18 +5273,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U49" s="15"/>
-      <c r="V49" s="22"/>
+      <c r="V49" s="21"/>
       <c r="W49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="10"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-      <c r="AB49" s="11"/>
-      <c r="AC49" s="5" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="X49" s="9">
+        <v>1627</v>
+      </c>
+      <c r="Y49" s="10">
+        <v>1624</v>
+      </c>
+      <c r="Z49" s="10">
+        <v>1624</v>
+      </c>
+      <c r="AA49" s="19">
+        <v>1636</v>
+      </c>
+      <c r="AB49" s="11">
+        <v>1641</v>
+      </c>
+      <c r="AC49" s="5">
+        <f>AVERAGE(X49:AB49)</f>
+        <v>1630.4</v>
       </c>
       <c r="AD49" s="9">
         <v>10650</v>
@@ -4492,18 +5326,28 @@
       </c>
     </row>
     <row r="50" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="5" t="e">
+      <c r="C50" s="9">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="E50" s="10">
+        <v>0.247</v>
+      </c>
+      <c r="F50" s="19">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H50" s="5">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>0.28720000000000001</v>
       </c>
       <c r="I50" s="9">
         <v>0.30599999999999999</v>
@@ -4534,18 +5378,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U50" s="15"/>
-      <c r="V50" s="22"/>
+      <c r="V50" s="21"/>
       <c r="W50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="10"/>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="10"/>
-      <c r="AB50" s="11"/>
-      <c r="AC50" s="5" t="e">
+      <c r="X50" s="9">
+        <v>525.9</v>
+      </c>
+      <c r="Y50" s="10">
+        <v>1054</v>
+      </c>
+      <c r="Z50" s="10">
+        <v>1011</v>
+      </c>
+      <c r="AA50" s="19">
+        <v>1032</v>
+      </c>
+      <c r="AB50" s="11">
+        <v>1063</v>
+      </c>
+      <c r="AC50" s="5">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>937.18</v>
       </c>
       <c r="AD50" s="9">
         <v>816.7</v>
@@ -4577,18 +5431,28 @@
       </c>
     </row>
     <row r="51" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="5" t="e">
+      <c r="C51" s="9">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="E51" s="10">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="F51" s="19">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="G51" s="11">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="H51" s="5">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>0.34039999999999998</v>
       </c>
       <c r="I51" s="9">
         <v>0.312</v>
@@ -4619,18 +5483,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U51" s="15"/>
-      <c r="V51" s="22"/>
+      <c r="V51" s="21"/>
       <c r="W51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="10"/>
-      <c r="Z51" s="10"/>
-      <c r="AA51" s="10"/>
-      <c r="AB51" s="11"/>
-      <c r="AC51" s="5" t="e">
+      <c r="X51" s="9">
+        <v>1456</v>
+      </c>
+      <c r="Y51" s="10">
+        <v>1496</v>
+      </c>
+      <c r="Z51" s="10">
+        <v>1505</v>
+      </c>
+      <c r="AA51" s="19">
+        <v>1444</v>
+      </c>
+      <c r="AB51" s="11">
+        <v>1440</v>
+      </c>
+      <c r="AC51" s="5">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>1468.2</v>
       </c>
       <c r="AD51" s="9">
         <v>1603</v>
@@ -4662,18 +5536,28 @@
       </c>
     </row>
     <row r="52" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="5" t="e">
+      <c r="C52" s="9">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0.436</v>
+      </c>
+      <c r="E52" s="10">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="F52" s="19">
+        <v>0.42</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="H52" s="5">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>0.42320000000000002</v>
       </c>
       <c r="I52" s="9">
         <v>0.32100000000000001</v>
@@ -4704,18 +5588,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U52" s="15"/>
-      <c r="V52" s="22"/>
+      <c r="V52" s="21"/>
       <c r="W52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="10"/>
-      <c r="Z52" s="10"/>
-      <c r="AA52" s="10"/>
-      <c r="AB52" s="11"/>
-      <c r="AC52" s="5" t="e">
+      <c r="X52" s="9">
+        <v>1771</v>
+      </c>
+      <c r="Y52" s="10">
+        <v>1718</v>
+      </c>
+      <c r="Z52" s="10">
+        <v>1780</v>
+      </c>
+      <c r="AA52" s="19">
+        <v>1784</v>
+      </c>
+      <c r="AB52" s="11">
+        <v>1801</v>
+      </c>
+      <c r="AC52" s="5">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>1770.8</v>
       </c>
       <c r="AD52" s="9">
         <v>2332</v>
@@ -4747,18 +5641,28 @@
       </c>
     </row>
     <row r="53" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="5" t="e">
+      <c r="C53" s="12">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="D53" s="13">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="E53" s="13">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="F53" s="13">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="G53" s="14">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H53" s="5">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>0.52540000000000009</v>
       </c>
       <c r="I53" s="12">
         <v>0.34300000000000003</v>
@@ -4789,18 +5693,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U53" s="15"/>
-      <c r="V53" s="22"/>
+      <c r="V53" s="21"/>
       <c r="W53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="13"/>
-      <c r="Z53" s="13"/>
-      <c r="AA53" s="13"/>
-      <c r="AB53" s="14"/>
-      <c r="AC53" s="5" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="X53" s="12">
+        <v>1910</v>
+      </c>
+      <c r="Y53" s="13">
+        <v>1853</v>
+      </c>
+      <c r="Z53" s="13">
+        <v>1917</v>
+      </c>
+      <c r="AA53" s="13">
+        <v>1925</v>
+      </c>
+      <c r="AB53" s="14">
+        <v>1903</v>
+      </c>
+      <c r="AC53" s="5">
+        <f>AVERAGE(X53:AB53)</f>
+        <v>1901.6</v>
       </c>
       <c r="AD53" s="12">
         <v>2916</v>
@@ -4875,20 +5789,30 @@
       <c r="AO54" s="15"/>
     </row>
     <row r="55" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="5" t="e">
+      <c r="C55" s="6">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0.248</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="G55" s="8">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H55" s="5">
         <f>AVERAGE(C55:G55)</f>
-        <v>#DIV/0!</v>
+        <v>0.26719999999999999</v>
       </c>
       <c r="I55" s="6">
         <v>0.36899999999999999</v>
@@ -4919,20 +5843,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U55" s="15"/>
-      <c r="V55" s="22" t="s">
+      <c r="V55" s="21" t="s">
         <v>24</v>
       </c>
       <c r="W55" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="7"/>
-      <c r="Z55" s="7"/>
-      <c r="AA55" s="7"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="5" t="e">
+      <c r="X55" s="6">
+        <v>100.4</v>
+      </c>
+      <c r="Y55" s="7">
+        <v>103.9</v>
+      </c>
+      <c r="Z55" s="7">
+        <v>119.8</v>
+      </c>
+      <c r="AA55" s="7">
+        <v>109.6</v>
+      </c>
+      <c r="AB55" s="8">
+        <v>126.4</v>
+      </c>
+      <c r="AC55" s="5">
         <f>AVERAGE(X55:AB55)</f>
-        <v>#DIV/0!</v>
+        <v>112.02000000000001</v>
       </c>
       <c r="AD55" s="6">
         <v>80.459999999999994</v>
@@ -4964,18 +5898,28 @@
       </c>
     </row>
     <row r="56" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="5" t="e">
+      <c r="C56" s="9">
+        <v>4.8449999999999998</v>
+      </c>
+      <c r="D56" s="19">
+        <v>4.8449999999999998</v>
+      </c>
+      <c r="E56" s="19">
+        <v>4.8819999999999997</v>
+      </c>
+      <c r="F56" s="19">
+        <v>4.9409999999999998</v>
+      </c>
+      <c r="G56" s="11">
+        <v>5.1589999999999998</v>
+      </c>
+      <c r="H56" s="5">
         <f t="shared" ref="H56:H63" si="30">AVERAGE(C56:G56)</f>
-        <v>#DIV/0!</v>
+        <v>4.9343999999999992</v>
       </c>
       <c r="I56" s="9">
         <v>1.032</v>
@@ -5006,18 +5950,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U56" s="15"/>
-      <c r="V56" s="22"/>
+      <c r="V56" s="21"/>
       <c r="W56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="11"/>
-      <c r="AC56" s="5" t="e">
+      <c r="X56" s="9">
+        <v>1214</v>
+      </c>
+      <c r="Y56" s="19">
+        <v>1214</v>
+      </c>
+      <c r="Z56" s="19">
+        <v>1205</v>
+      </c>
+      <c r="AA56" s="19">
+        <v>1190</v>
+      </c>
+      <c r="AB56" s="11">
+        <v>1140</v>
+      </c>
+      <c r="AC56" s="5">
         <f t="shared" ref="AC56:AC63" si="33">AVERAGE(X56:AB56)</f>
-        <v>#DIV/0!</v>
+        <v>1192.5999999999999</v>
       </c>
       <c r="AD56" s="9">
         <v>5696</v>
@@ -5049,18 +6003,28 @@
       </c>
     </row>
     <row r="57" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="5" t="e">
+      <c r="C57" s="9">
+        <v>13.891</v>
+      </c>
+      <c r="D57" s="19">
+        <v>14.211</v>
+      </c>
+      <c r="E57" s="19">
+        <v>14.208</v>
+      </c>
+      <c r="F57" s="19">
+        <v>14.542</v>
+      </c>
+      <c r="G57" s="11">
+        <v>14.193</v>
+      </c>
+      <c r="H57" s="5">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>14.209</v>
       </c>
       <c r="I57" s="9">
         <v>2.7669999999999999</v>
@@ -5091,18 +6055,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U57" s="15"/>
-      <c r="V57" s="22"/>
+      <c r="V57" s="21"/>
       <c r="W57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="10"/>
-      <c r="Z57" s="10"/>
-      <c r="AA57" s="10"/>
-      <c r="AB57" s="11"/>
-      <c r="AC57" s="5" t="e">
+      <c r="X57" s="9">
+        <v>1502</v>
+      </c>
+      <c r="Y57" s="19">
+        <v>1468</v>
+      </c>
+      <c r="Z57" s="19">
+        <v>1469</v>
+      </c>
+      <c r="AA57" s="19">
+        <v>1435</v>
+      </c>
+      <c r="AB57" s="11">
+        <v>1470</v>
+      </c>
+      <c r="AC57" s="5">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
+        <v>1468.8</v>
       </c>
       <c r="AD57" s="9">
         <v>7542</v>
@@ -5134,18 +6108,28 @@
       </c>
     </row>
     <row r="58" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="5" t="e">
+      <c r="C58" s="9">
+        <v>52.003999999999998</v>
+      </c>
+      <c r="D58" s="10">
+        <v>51.906999999999996</v>
+      </c>
+      <c r="E58" s="10">
+        <v>52.267000000000003</v>
+      </c>
+      <c r="F58" s="19">
+        <v>52.073</v>
+      </c>
+      <c r="G58" s="11">
+        <v>51.863</v>
+      </c>
+      <c r="H58" s="5">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>52.022800000000004</v>
       </c>
       <c r="I58" s="9">
         <v>8.1989999999999998</v>
@@ -5176,18 +6160,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U58" s="15"/>
-      <c r="V58" s="22"/>
+      <c r="V58" s="21"/>
       <c r="W58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="10"/>
-      <c r="AB58" s="11"/>
-      <c r="AC58" s="5" t="e">
+      <c r="X58" s="9">
+        <v>1592</v>
+      </c>
+      <c r="Y58" s="10">
+        <v>1595</v>
+      </c>
+      <c r="Z58" s="10">
+        <v>1584</v>
+      </c>
+      <c r="AA58" s="19">
+        <v>1590</v>
+      </c>
+      <c r="AB58" s="11">
+        <v>1597</v>
+      </c>
+      <c r="AC58" s="5">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
+        <v>1591.6</v>
       </c>
       <c r="AD58" s="9">
         <v>10100</v>
@@ -5219,18 +6213,28 @@
       </c>
     </row>
     <row r="59" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="5" t="e">
+      <c r="C59" s="9">
+        <v>92.887</v>
+      </c>
+      <c r="D59" s="10">
+        <v>92.822999999999993</v>
+      </c>
+      <c r="E59" s="10">
+        <v>93.043999999999997</v>
+      </c>
+      <c r="F59" s="19">
+        <v>93.391000000000005</v>
+      </c>
+      <c r="G59" s="11">
+        <v>93.569000000000003</v>
+      </c>
+      <c r="H59" s="5">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>93.142799999999994</v>
       </c>
       <c r="I59" s="9">
         <v>14.372999999999999</v>
@@ -5261,18 +6265,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U59" s="15"/>
-      <c r="V59" s="22"/>
+      <c r="V59" s="21"/>
       <c r="W59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="10"/>
-      <c r="Z59" s="10"/>
-      <c r="AA59" s="10"/>
-      <c r="AB59" s="11"/>
-      <c r="AC59" s="5" t="e">
+      <c r="X59" s="9">
+        <v>1739</v>
+      </c>
+      <c r="Y59" s="10">
+        <v>1738</v>
+      </c>
+      <c r="Z59" s="10">
+        <v>1735</v>
+      </c>
+      <c r="AA59" s="19">
+        <v>1729</v>
+      </c>
+      <c r="AB59" s="11">
+        <v>1725</v>
+      </c>
+      <c r="AC59" s="5">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
+        <v>1733.2</v>
       </c>
       <c r="AD59" s="9">
         <v>11230</v>
@@ -5304,18 +6318,28 @@
       </c>
     </row>
     <row r="60" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="5" t="e">
+      <c r="C60" s="9">
+        <v>0.252</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0.255</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="F60" s="19">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="G60" s="11">
+        <v>0.253</v>
+      </c>
+      <c r="H60" s="5">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>0.25480000000000003</v>
       </c>
       <c r="I60" s="9">
         <v>0.27100000000000002</v>
@@ -5346,18 +6370,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U60" s="15"/>
-      <c r="V60" s="22"/>
+      <c r="V60" s="21"/>
       <c r="W60" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="10"/>
-      <c r="Z60" s="10"/>
-      <c r="AA60" s="10"/>
-      <c r="AB60" s="11"/>
-      <c r="AC60" s="5" t="e">
+      <c r="X60" s="9">
+        <v>991.3</v>
+      </c>
+      <c r="Y60" s="10">
+        <v>979.6</v>
+      </c>
+      <c r="Z60" s="10">
+        <v>975.8</v>
+      </c>
+      <c r="AA60" s="19">
+        <v>968.2</v>
+      </c>
+      <c r="AB60" s="11">
+        <v>987.4</v>
+      </c>
+      <c r="AC60" s="5">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
+        <v>980.45999999999981</v>
       </c>
       <c r="AD60" s="9">
         <v>920.3</v>
@@ -5389,18 +6423,28 @@
       </c>
     </row>
     <row r="61" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="5" t="e">
+      <c r="C61" s="9">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="E61" s="10">
+        <v>0.372</v>
+      </c>
+      <c r="F61" s="19">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="G61" s="11">
+        <v>0.371</v>
+      </c>
+      <c r="H61" s="5">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>0.372</v>
       </c>
       <c r="I61" s="9">
         <v>0.29399999999999998</v>
@@ -5431,18 +6475,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U61" s="15"/>
-      <c r="V61" s="22"/>
+      <c r="V61" s="21"/>
       <c r="W61" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="10"/>
-      <c r="Z61" s="10"/>
-      <c r="AA61" s="10"/>
-      <c r="AB61" s="11"/>
-      <c r="AC61" s="5" t="e">
+      <c r="X61" s="9">
+        <v>1291</v>
+      </c>
+      <c r="Y61" s="10">
+        <v>1358</v>
+      </c>
+      <c r="Z61" s="10">
+        <v>1343</v>
+      </c>
+      <c r="AA61" s="19">
+        <v>1380</v>
+      </c>
+      <c r="AB61" s="11">
+        <v>1347</v>
+      </c>
+      <c r="AC61" s="5">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
+        <v>1343.8</v>
       </c>
       <c r="AD61" s="9">
         <v>1698</v>
@@ -5474,18 +6528,28 @@
       </c>
     </row>
     <row r="62" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="5" t="e">
+      <c r="C62" s="9">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="E62" s="10">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F62" s="19">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="G62" s="11">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="H62" s="5">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>0.45760000000000006</v>
       </c>
       <c r="I62" s="9">
         <v>0.31</v>
@@ -5516,18 +6580,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U62" s="15"/>
-      <c r="V62" s="22"/>
+      <c r="V62" s="21"/>
       <c r="W62" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="10"/>
-      <c r="Z62" s="10"/>
-      <c r="AA62" s="10"/>
-      <c r="AB62" s="11"/>
-      <c r="AC62" s="5" t="e">
+      <c r="X62" s="9">
+        <v>1636</v>
+      </c>
+      <c r="Y62" s="10">
+        <v>1601</v>
+      </c>
+      <c r="Z62" s="10">
+        <v>1636</v>
+      </c>
+      <c r="AA62" s="19">
+        <v>1661</v>
+      </c>
+      <c r="AB62" s="11">
+        <v>1654</v>
+      </c>
+      <c r="AC62" s="5">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
+        <v>1637.6</v>
       </c>
       <c r="AD62" s="9">
         <v>2418</v>
@@ -5559,18 +6633,28 @@
       </c>
     </row>
     <row r="63" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="5" t="e">
+      <c r="C63" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D63" s="13">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="E63" s="13">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="F63" s="13">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="G63" s="14">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="H63" s="5">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>0.56459999999999988</v>
       </c>
       <c r="I63" s="12">
         <v>0.33200000000000002</v>
@@ -5601,18 +6685,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U63" s="15"/>
-      <c r="V63" s="22"/>
+      <c r="V63" s="21"/>
       <c r="W63" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X63" s="12"/>
-      <c r="Y63" s="13"/>
-      <c r="Z63" s="13"/>
-      <c r="AA63" s="13"/>
-      <c r="AB63" s="14"/>
-      <c r="AC63" s="5" t="e">
+      <c r="X63" s="12">
+        <v>1753</v>
+      </c>
+      <c r="Y63" s="13">
+        <v>1768</v>
+      </c>
+      <c r="Z63" s="13">
+        <v>1762</v>
+      </c>
+      <c r="AA63" s="13">
+        <v>1800</v>
+      </c>
+      <c r="AB63" s="14">
+        <v>1765</v>
+      </c>
+      <c r="AC63" s="5">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
+        <v>1769.6</v>
       </c>
       <c r="AD63" s="12">
         <v>3007</v>
@@ -5687,20 +6781,30 @@
       <c r="AO64" s="15"/>
     </row>
     <row r="65" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="5" t="e">
+      <c r="C65" s="6">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E65" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G65" s="8">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="H65" s="5">
         <f>AVERAGE(C65:G65)</f>
-        <v>#DIV/0!</v>
+        <v>0.24260000000000001</v>
       </c>
       <c r="I65" s="6">
         <v>0.36099999999999999</v>
@@ -5731,20 +6835,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U65" s="15"/>
-      <c r="V65" s="22" t="s">
+      <c r="V65" s="21" t="s">
         <v>25</v>
       </c>
       <c r="W65" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="X65" s="6"/>
-      <c r="Y65" s="7"/>
-      <c r="Z65" s="7"/>
-      <c r="AA65" s="7"/>
-      <c r="AB65" s="8"/>
-      <c r="AC65" s="5" t="e">
+      <c r="X65" s="6">
+        <v>122.7</v>
+      </c>
+      <c r="Y65" s="7">
+        <v>132</v>
+      </c>
+      <c r="Z65" s="7">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="AA65" s="7">
+        <v>107.6</v>
+      </c>
+      <c r="AB65" s="8">
+        <v>123.3</v>
+      </c>
+      <c r="AC65" s="5">
         <f>AVERAGE(X65:AB65)</f>
-        <v>#DIV/0!</v>
+        <v>123.05999999999999</v>
       </c>
       <c r="AD65" s="6">
         <v>82.37</v>
@@ -5776,18 +6890,28 @@
       </c>
     </row>
     <row r="66" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="5" t="e">
+      <c r="C66" s="9">
+        <v>4.4640000000000004</v>
+      </c>
+      <c r="D66" s="19">
+        <v>4.4180000000000001</v>
+      </c>
+      <c r="E66" s="19">
+        <v>4.6769999999999996</v>
+      </c>
+      <c r="F66" s="19">
+        <v>4.3810000000000002</v>
+      </c>
+      <c r="G66" s="11">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H66" s="5">
         <f t="shared" ref="H66:H73" si="36">AVERAGE(C66:G66)</f>
-        <v>#DIV/0!</v>
+        <v>4.4660000000000002</v>
       </c>
       <c r="I66" s="9">
         <v>0.91100000000000003</v>
@@ -5818,18 +6942,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U66" s="15"/>
-      <c r="V66" s="22"/>
+      <c r="V66" s="21"/>
       <c r="W66" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="10"/>
-      <c r="Z66" s="10"/>
-      <c r="AA66" s="10"/>
-      <c r="AB66" s="11"/>
-      <c r="AC66" s="5" t="e">
+      <c r="X66" s="9">
+        <v>1317</v>
+      </c>
+      <c r="Y66" s="19">
+        <v>1331</v>
+      </c>
+      <c r="Z66" s="19">
+        <v>1257</v>
+      </c>
+      <c r="AA66" s="19">
+        <v>1342</v>
+      </c>
+      <c r="AB66" s="11">
+        <v>1340</v>
+      </c>
+      <c r="AC66" s="5">
         <f t="shared" ref="AC66:AC73" si="39">AVERAGE(X66:AB66)</f>
-        <v>#DIV/0!</v>
+        <v>1317.4</v>
       </c>
       <c r="AD66" s="9">
         <v>6454</v>
@@ -5861,18 +6995,28 @@
       </c>
     </row>
     <row r="67" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="5" t="e">
+      <c r="C67" s="9">
+        <v>12.666</v>
+      </c>
+      <c r="D67" s="19">
+        <v>12.84</v>
+      </c>
+      <c r="E67" s="19">
+        <v>12.61</v>
+      </c>
+      <c r="F67" s="19">
+        <v>12.663</v>
+      </c>
+      <c r="G67" s="11">
+        <v>12.622</v>
+      </c>
+      <c r="H67" s="5">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+        <v>12.680199999999999</v>
       </c>
       <c r="I67" s="9">
         <v>2.6139999999999999</v>
@@ -5903,18 +7047,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U67" s="15"/>
-      <c r="V67" s="22"/>
+      <c r="V67" s="21"/>
       <c r="W67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X67" s="9"/>
-      <c r="Y67" s="10"/>
-      <c r="Z67" s="10"/>
-      <c r="AA67" s="10"/>
-      <c r="AB67" s="11"/>
-      <c r="AC67" s="5" t="e">
+      <c r="X67" s="9">
+        <v>1647</v>
+      </c>
+      <c r="Y67" s="19">
+        <v>1625</v>
+      </c>
+      <c r="Z67" s="19">
+        <v>1655</v>
+      </c>
+      <c r="AA67" s="19">
+        <v>1648</v>
+      </c>
+      <c r="AB67" s="11">
+        <v>1653</v>
+      </c>
+      <c r="AC67" s="5">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>1645.6</v>
       </c>
       <c r="AD67" s="9">
         <v>7982</v>
@@ -5946,18 +7100,28 @@
       </c>
     </row>
     <row r="68" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="5" t="e">
+      <c r="C68" s="9">
+        <v>43.375</v>
+      </c>
+      <c r="D68" s="10">
+        <v>43.363</v>
+      </c>
+      <c r="E68" s="10">
+        <v>42.994999999999997</v>
+      </c>
+      <c r="F68" s="19">
+        <v>43.061999999999998</v>
+      </c>
+      <c r="G68" s="11">
+        <v>42.869</v>
+      </c>
+      <c r="H68" s="5">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+        <v>43.132800000000003</v>
       </c>
       <c r="I68" s="9">
         <v>7.4690000000000003</v>
@@ -5988,18 +7152,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U68" s="15"/>
-      <c r="V68" s="22"/>
+      <c r="V68" s="21"/>
       <c r="W68" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="10"/>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="10"/>
-      <c r="AB68" s="11"/>
-      <c r="AC68" s="5" t="e">
+      <c r="X68" s="9">
+        <v>1909</v>
+      </c>
+      <c r="Y68" s="10">
+        <v>1910</v>
+      </c>
+      <c r="Z68" s="10">
+        <v>1926</v>
+      </c>
+      <c r="AA68" s="19">
+        <v>1923</v>
+      </c>
+      <c r="AB68" s="11">
+        <v>1932</v>
+      </c>
+      <c r="AC68" s="5">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>1920</v>
       </c>
       <c r="AD68" s="9">
         <v>11090</v>
@@ -6031,18 +7205,28 @@
       </c>
     </row>
     <row r="69" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="5" t="e">
+      <c r="C69" s="9">
+        <v>81.634</v>
+      </c>
+      <c r="D69" s="10">
+        <v>82.028000000000006</v>
+      </c>
+      <c r="E69" s="10">
+        <v>82.085999999999999</v>
+      </c>
+      <c r="F69" s="19">
+        <v>81.674000000000007</v>
+      </c>
+      <c r="G69" s="11">
+        <v>82.197999999999993</v>
+      </c>
+      <c r="H69" s="5">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+        <v>81.924000000000007</v>
       </c>
       <c r="I69" s="9">
         <v>13.439</v>
@@ -6073,18 +7257,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U69" s="15"/>
-      <c r="V69" s="22"/>
+      <c r="V69" s="21"/>
       <c r="W69" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="10"/>
-      <c r="Z69" s="10"/>
-      <c r="AA69" s="10"/>
-      <c r="AB69" s="11"/>
-      <c r="AC69" s="5" t="e">
+      <c r="X69" s="9">
+        <v>1978</v>
+      </c>
+      <c r="Y69" s="10">
+        <v>1968</v>
+      </c>
+      <c r="Z69" s="10">
+        <v>1967</v>
+      </c>
+      <c r="AA69" s="19">
+        <v>1977</v>
+      </c>
+      <c r="AB69" s="11">
+        <v>1964</v>
+      </c>
+      <c r="AC69" s="5">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>1970.8</v>
       </c>
       <c r="AD69" s="9">
         <v>12010</v>
@@ -6116,18 +7310,28 @@
       </c>
     </row>
     <row r="70" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="5" t="e">
+      <c r="C70" s="9">
+        <v>0.247</v>
+      </c>
+      <c r="D70" s="10">
+        <v>0.252</v>
+      </c>
+      <c r="E70" s="10">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="F70" s="19">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="G70" s="11">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="H70" s="5">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+        <v>0.23820000000000002</v>
       </c>
       <c r="I70" s="9">
         <v>0.26600000000000001</v>
@@ -6158,18 +7362,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U70" s="15"/>
-      <c r="V70" s="22"/>
+      <c r="V70" s="21"/>
       <c r="W70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="10"/>
-      <c r="Z70" s="10"/>
-      <c r="AA70" s="10"/>
-      <c r="AB70" s="11"/>
-      <c r="AC70" s="5" t="e">
+      <c r="X70" s="9">
+        <v>1011</v>
+      </c>
+      <c r="Y70" s="10">
+        <v>991.3</v>
+      </c>
+      <c r="Z70" s="10">
+        <v>1081</v>
+      </c>
+      <c r="AA70" s="19">
+        <v>1096</v>
+      </c>
+      <c r="AB70" s="11">
+        <v>1072</v>
+      </c>
+      <c r="AC70" s="5">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>1050.26</v>
       </c>
       <c r="AD70" s="9">
         <v>940.5</v>
@@ -6201,18 +7415,28 @@
       </c>
     </row>
     <row r="71" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="5" t="e">
+      <c r="C71" s="9">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="E71" s="10">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="F71" s="19">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G71" s="11">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H71" s="5">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+        <v>0.3422</v>
       </c>
       <c r="I71" s="9">
         <v>0.27700000000000002</v>
@@ -6243,18 +7467,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U71" s="15"/>
-      <c r="V71" s="22"/>
+      <c r="V71" s="21"/>
       <c r="W71" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="10"/>
-      <c r="Z71" s="10"/>
-      <c r="AA71" s="10"/>
-      <c r="AB71" s="11"/>
-      <c r="AC71" s="5" t="e">
+      <c r="X71" s="9">
+        <v>1431</v>
+      </c>
+      <c r="Y71" s="10">
+        <v>1444</v>
+      </c>
+      <c r="Z71" s="10">
+        <v>1399</v>
+      </c>
+      <c r="AA71" s="19">
+        <v>1532</v>
+      </c>
+      <c r="AB71" s="11">
+        <v>1500</v>
+      </c>
+      <c r="AC71" s="5">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>1461.2</v>
       </c>
       <c r="AD71" s="9">
         <v>1803</v>
@@ -6286,18 +7520,28 @@
       </c>
     </row>
     <row r="72" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="5" t="e">
+      <c r="C72" s="9">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="D72" s="10">
+        <v>0.438</v>
+      </c>
+      <c r="E72" s="10">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="F72" s="19">
+        <v>0.434</v>
+      </c>
+      <c r="G72" s="11">
+        <v>0.437</v>
+      </c>
+      <c r="H72" s="5">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+        <v>0.4446</v>
       </c>
       <c r="I72" s="9">
         <v>0.28799999999999998</v>
@@ -6328,18 +7572,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U72" s="15"/>
-      <c r="V72" s="22"/>
+      <c r="V72" s="21"/>
       <c r="W72" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X72" s="9"/>
-      <c r="Y72" s="10"/>
-      <c r="Z72" s="10"/>
-      <c r="AA72" s="10"/>
-      <c r="AB72" s="11"/>
-      <c r="AC72" s="5" t="e">
+      <c r="X72" s="9">
+        <v>1684</v>
+      </c>
+      <c r="Y72" s="10">
+        <v>1711</v>
+      </c>
+      <c r="Z72" s="10">
+        <v>1598</v>
+      </c>
+      <c r="AA72" s="19">
+        <v>1726</v>
+      </c>
+      <c r="AB72" s="11">
+        <v>1715</v>
+      </c>
+      <c r="AC72" s="5">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>1686.8</v>
       </c>
       <c r="AD72" s="9">
         <v>2604</v>
@@ -6371,18 +7625,28 @@
       </c>
     </row>
     <row r="73" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="5" t="e">
+      <c r="C73" s="12">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D73" s="13">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E73" s="13">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="F73" s="13">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="G73" s="14">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="H73" s="5">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+        <v>0.54080000000000017</v>
       </c>
       <c r="I73" s="12">
         <v>0.318</v>
@@ -6413,18 +7677,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U73" s="15"/>
-      <c r="V73" s="22"/>
+      <c r="V73" s="21"/>
       <c r="W73" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X73" s="12"/>
-      <c r="Y73" s="13"/>
-      <c r="Z73" s="13"/>
-      <c r="AA73" s="13"/>
-      <c r="AB73" s="14"/>
-      <c r="AC73" s="5" t="e">
+      <c r="X73" s="12">
+        <v>1830</v>
+      </c>
+      <c r="Y73" s="13">
+        <v>1857</v>
+      </c>
+      <c r="Z73" s="13">
+        <v>1840</v>
+      </c>
+      <c r="AA73" s="13">
+        <v>1867</v>
+      </c>
+      <c r="AB73" s="14">
+        <v>1843</v>
+      </c>
+      <c r="AC73" s="5">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>1847.4</v>
       </c>
       <c r="AD73" s="12">
         <v>3141</v>
@@ -6499,20 +7773,30 @@
       <c r="AO74" s="15"/>
     </row>
     <row r="75" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="5" t="e">
+      <c r="C75" s="6">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="D75" s="7">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E75" s="7">
+        <v>0.222</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="G75" s="8">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="H75" s="5">
         <f>AVERAGE(C75:G75)</f>
-        <v>#DIV/0!</v>
+        <v>0.25339999999999996</v>
       </c>
       <c r="I75" s="6">
         <v>0.374</v>
@@ -6543,20 +7827,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U75" s="15"/>
-      <c r="V75" s="22" t="s">
+      <c r="V75" s="21" t="s">
         <v>26</v>
       </c>
       <c r="W75" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="X75" s="6"/>
-      <c r="Y75" s="7"/>
-      <c r="Z75" s="7"/>
-      <c r="AA75" s="7"/>
-      <c r="AB75" s="8"/>
-      <c r="AC75" s="5" t="e">
+      <c r="X75" s="6">
+        <v>105.3</v>
+      </c>
+      <c r="Y75" s="7">
+        <v>124.8</v>
+      </c>
+      <c r="Z75" s="7">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="AA75" s="7">
+        <v>102.8</v>
+      </c>
+      <c r="AB75" s="8">
+        <v>125.9</v>
+      </c>
+      <c r="AC75" s="5">
         <f>AVERAGE(X75:AB75)</f>
-        <v>#DIV/0!</v>
+        <v>118.52000000000001</v>
       </c>
       <c r="AD75" s="6">
         <v>79.42</v>
@@ -6588,18 +7882,28 @@
       </c>
     </row>
     <row r="76" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="5" t="e">
+      <c r="C76" s="9">
+        <v>4.5990000000000002</v>
+      </c>
+      <c r="D76" s="19">
+        <v>4.5590000000000002</v>
+      </c>
+      <c r="E76" s="19">
+        <v>4.6189999999999998</v>
+      </c>
+      <c r="F76" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G76" s="11">
+        <v>4.5359999999999996</v>
+      </c>
+      <c r="H76" s="5">
         <f t="shared" ref="H76:H83" si="42">AVERAGE(C76:G76)</f>
-        <v>#DIV/0!</v>
+        <v>4.5826000000000011</v>
       </c>
       <c r="I76" s="9">
         <v>0.94099999999999995</v>
@@ -6630,18 +7934,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U76" s="15"/>
-      <c r="V76" s="22"/>
+      <c r="V76" s="21"/>
       <c r="W76" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="X76" s="9"/>
-      <c r="Y76" s="10"/>
-      <c r="Z76" s="10"/>
-      <c r="AA76" s="10"/>
-      <c r="AB76" s="11"/>
-      <c r="AC76" s="5" t="e">
+      <c r="X76" s="9">
+        <v>1279</v>
+      </c>
+      <c r="Y76" s="19">
+        <v>1290</v>
+      </c>
+      <c r="Z76" s="19">
+        <v>1273</v>
+      </c>
+      <c r="AA76" s="19">
+        <v>1278</v>
+      </c>
+      <c r="AB76" s="11">
+        <v>1296</v>
+      </c>
+      <c r="AC76" s="5">
         <f t="shared" ref="AC76:AC83" si="45">AVERAGE(X76:AB76)</f>
-        <v>#DIV/0!</v>
+        <v>1283.2</v>
       </c>
       <c r="AD76" s="9">
         <v>6252</v>
@@ -6673,18 +7987,28 @@
       </c>
     </row>
     <row r="77" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="5" t="e">
+      <c r="C77" s="9">
+        <v>13.936999999999999</v>
+      </c>
+      <c r="D77" s="19">
+        <v>13.936</v>
+      </c>
+      <c r="E77" s="19">
+        <v>13.885999999999999</v>
+      </c>
+      <c r="F77" s="19">
+        <v>13.826000000000001</v>
+      </c>
+      <c r="G77" s="11">
+        <v>13.976000000000001</v>
+      </c>
+      <c r="H77" s="5">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
+        <v>13.912200000000002</v>
       </c>
       <c r="I77" s="9">
         <v>2.7669999999999999</v>
@@ -6715,18 +8039,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U77" s="15"/>
-      <c r="V77" s="22"/>
+      <c r="V77" s="21"/>
       <c r="W77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X77" s="9"/>
-      <c r="Y77" s="10"/>
-      <c r="Z77" s="10"/>
-      <c r="AA77" s="10"/>
-      <c r="AB77" s="11"/>
-      <c r="AC77" s="5" t="e">
+      <c r="X77" s="9">
+        <v>1497</v>
+      </c>
+      <c r="Y77" s="19">
+        <v>1497</v>
+      </c>
+      <c r="Z77" s="19">
+        <v>1503</v>
+      </c>
+      <c r="AA77" s="19">
+        <v>1509</v>
+      </c>
+      <c r="AB77" s="11">
+        <v>1493</v>
+      </c>
+      <c r="AC77" s="5">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
+        <v>1499.8</v>
       </c>
       <c r="AD77" s="9">
         <v>7541</v>
@@ -6758,18 +8092,28 @@
       </c>
     </row>
     <row r="78" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="5" t="e">
+      <c r="C78" s="9">
+        <v>49.923000000000002</v>
+      </c>
+      <c r="D78" s="10">
+        <v>50.68</v>
+      </c>
+      <c r="E78" s="10">
+        <v>50.847000000000001</v>
+      </c>
+      <c r="F78" s="19">
+        <v>50.603999999999999</v>
+      </c>
+      <c r="G78" s="11">
+        <v>50.377000000000002</v>
+      </c>
+      <c r="H78" s="5">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
+        <v>50.486200000000011</v>
       </c>
       <c r="I78" s="9">
         <v>8.1010000000000009</v>
@@ -6800,18 +8144,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U78" s="15"/>
-      <c r="V78" s="22"/>
+      <c r="V78" s="21"/>
       <c r="W78" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="X78" s="9"/>
-      <c r="Y78" s="10"/>
-      <c r="Z78" s="10"/>
-      <c r="AA78" s="10"/>
-      <c r="AB78" s="11"/>
-      <c r="AC78" s="5" t="e">
+      <c r="X78" s="9">
+        <v>1659</v>
+      </c>
+      <c r="Y78" s="10">
+        <v>1634</v>
+      </c>
+      <c r="Z78" s="10">
+        <v>1628</v>
+      </c>
+      <c r="AA78" s="19">
+        <v>1636</v>
+      </c>
+      <c r="AB78" s="11">
+        <v>1644</v>
+      </c>
+      <c r="AC78" s="5">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
+        <v>1640.2</v>
       </c>
       <c r="AD78" s="9">
         <v>10220</v>
@@ -6843,18 +8197,28 @@
       </c>
     </row>
     <row r="79" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="22"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="5" t="e">
+      <c r="C79" s="9">
+        <v>92.388999999999996</v>
+      </c>
+      <c r="D79" s="10">
+        <v>91.748999999999995</v>
+      </c>
+      <c r="E79" s="10">
+        <v>89.884</v>
+      </c>
+      <c r="F79" s="19">
+        <v>91.655000000000001</v>
+      </c>
+      <c r="G79" s="11">
+        <v>91.596999999999994</v>
+      </c>
+      <c r="H79" s="5">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
+        <v>91.454800000000006</v>
       </c>
       <c r="I79" s="9">
         <v>14.422000000000001</v>
@@ -6885,18 +8249,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U79" s="15"/>
-      <c r="V79" s="22"/>
+      <c r="V79" s="21"/>
       <c r="W79" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="X79" s="9"/>
-      <c r="Y79" s="10"/>
-      <c r="Z79" s="10"/>
-      <c r="AA79" s="10"/>
-      <c r="AB79" s="11"/>
-      <c r="AC79" s="5" t="e">
+      <c r="X79" s="9">
+        <v>1747</v>
+      </c>
+      <c r="Y79" s="10">
+        <v>1760</v>
+      </c>
+      <c r="Z79" s="10">
+        <v>1796</v>
+      </c>
+      <c r="AA79" s="19">
+        <v>1761</v>
+      </c>
+      <c r="AB79" s="11">
+        <v>1762</v>
+      </c>
+      <c r="AC79" s="5">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
+        <v>1765.2</v>
       </c>
       <c r="AD79" s="9">
         <v>11190</v>
@@ -6928,18 +8302,28 @@
       </c>
     </row>
     <row r="80" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="22"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="5" t="e">
+      <c r="C80" s="9">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D80" s="10">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="E80" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="F80" s="19">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G80" s="11">
+        <v>0.247</v>
+      </c>
+      <c r="H80" s="5">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="I80" s="9">
         <v>0.27200000000000002</v>
@@ -6970,18 +8354,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U80" s="15"/>
-      <c r="V80" s="22"/>
+      <c r="V80" s="21"/>
       <c r="W80" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="X80" s="9"/>
-      <c r="Y80" s="10"/>
-      <c r="Z80" s="10"/>
-      <c r="AA80" s="10"/>
-      <c r="AB80" s="11"/>
-      <c r="AC80" s="5" t="e">
+      <c r="X80" s="9">
+        <v>431.4</v>
+      </c>
+      <c r="Y80" s="10">
+        <v>1024</v>
+      </c>
+      <c r="Z80" s="10">
+        <v>1086</v>
+      </c>
+      <c r="AA80" s="19">
+        <v>1110</v>
+      </c>
+      <c r="AB80" s="11">
+        <v>1011</v>
+      </c>
+      <c r="AC80" s="5">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
+        <v>932.4799999999999</v>
       </c>
       <c r="AD80" s="9">
         <v>918.9</v>
@@ -7013,18 +8407,28 @@
       </c>
     </row>
     <row r="81" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="22"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="5" t="e">
+      <c r="C81" s="9">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="E81" s="10">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="F81" s="19">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="G81" s="11">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="H81" s="5">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
+        <v>0.34360000000000002</v>
       </c>
       <c r="I81" s="9">
         <v>0.27300000000000002</v>
@@ -7055,18 +8459,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U81" s="15"/>
-      <c r="V81" s="22"/>
+      <c r="V81" s="21"/>
       <c r="W81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X81" s="9"/>
-      <c r="Y81" s="10"/>
-      <c r="Z81" s="10"/>
-      <c r="AA81" s="10"/>
-      <c r="AB81" s="11"/>
-      <c r="AC81" s="5" t="e">
+      <c r="X81" s="9">
+        <v>1440</v>
+      </c>
+      <c r="Y81" s="10">
+        <v>1461</v>
+      </c>
+      <c r="Z81" s="10">
+        <v>1436</v>
+      </c>
+      <c r="AA81" s="19">
+        <v>1474</v>
+      </c>
+      <c r="AB81" s="11">
+        <v>1461</v>
+      </c>
+      <c r="AC81" s="5">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
+        <v>1454.4</v>
       </c>
       <c r="AD81" s="9">
         <v>1828</v>
@@ -7098,18 +8512,28 @@
       </c>
     </row>
     <row r="82" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="5" t="e">
+      <c r="C82" s="9">
+        <v>0.442</v>
+      </c>
+      <c r="D82" s="10">
+        <v>0.438</v>
+      </c>
+      <c r="E82" s="10">
+        <v>0.435</v>
+      </c>
+      <c r="F82" s="19">
+        <v>0.433</v>
+      </c>
+      <c r="G82" s="11">
+        <v>0.439</v>
+      </c>
+      <c r="H82" s="5">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
+        <v>0.43739999999999996</v>
       </c>
       <c r="I82" s="9">
         <v>0.28499999999999998</v>
@@ -7140,18 +8564,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U82" s="15"/>
-      <c r="V82" s="22"/>
+      <c r="V82" s="21"/>
       <c r="W82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X82" s="9"/>
-      <c r="Y82" s="10"/>
-      <c r="Z82" s="10"/>
-      <c r="AA82" s="10"/>
-      <c r="AB82" s="11"/>
-      <c r="AC82" s="5" t="e">
+      <c r="X82" s="9">
+        <v>1695</v>
+      </c>
+      <c r="Y82" s="10">
+        <v>1711</v>
+      </c>
+      <c r="Z82" s="10">
+        <v>1722</v>
+      </c>
+      <c r="AA82" s="19">
+        <v>1730</v>
+      </c>
+      <c r="AB82" s="11">
+        <v>1707</v>
+      </c>
+      <c r="AC82" s="5">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
+        <v>1713</v>
       </c>
       <c r="AD82" s="9">
         <v>2630</v>
@@ -7183,18 +8617,28 @@
       </c>
     </row>
     <row r="83" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="5" t="e">
+      <c r="C83" s="12">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="D83" s="13">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="E83" s="13">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="F83" s="13">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="G83" s="14">
+        <v>0.54</v>
+      </c>
+      <c r="H83" s="5">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
+        <v>0.53980000000000006</v>
       </c>
       <c r="I83" s="12">
         <v>0.32600000000000001</v>
@@ -7225,18 +8669,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U83" s="15"/>
-      <c r="V83" s="22"/>
+      <c r="V83" s="21"/>
       <c r="W83" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X83" s="12"/>
-      <c r="Y83" s="13"/>
-      <c r="Z83" s="13"/>
-      <c r="AA83" s="13"/>
-      <c r="AB83" s="14"/>
-      <c r="AC83" s="5" t="e">
+      <c r="X83" s="12">
+        <v>1810</v>
+      </c>
+      <c r="Y83" s="13">
+        <v>1867</v>
+      </c>
+      <c r="Z83" s="13">
+        <v>1867</v>
+      </c>
+      <c r="AA83" s="13">
+        <v>1860</v>
+      </c>
+      <c r="AB83" s="14">
+        <v>1850</v>
+      </c>
+      <c r="AC83" s="5">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
+        <v>1850.8</v>
       </c>
       <c r="AD83" s="12">
         <v>3064</v>
@@ -7269,11 +8723,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="V1:X2"/>
+    <mergeCell ref="X3:AC3"/>
+    <mergeCell ref="V5:V13"/>
+    <mergeCell ref="V15:V23"/>
+    <mergeCell ref="V25:V33"/>
     <mergeCell ref="AD3:AI3"/>
     <mergeCell ref="AJ3:AO3"/>
     <mergeCell ref="O3:T3"/>
@@ -7288,11 +8742,11 @@
     <mergeCell ref="V55:V63"/>
     <mergeCell ref="V65:V73"/>
     <mergeCell ref="V75:V83"/>
-    <mergeCell ref="V1:X2"/>
-    <mergeCell ref="X3:AC3"/>
-    <mergeCell ref="V5:V13"/>
-    <mergeCell ref="V15:V23"/>
-    <mergeCell ref="V25:V33"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="A25:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/performance bf0.xlsx
+++ b/performance bf0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filippo\Desktop\tesi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE4D7C3-7D4E-4094-A1B8-1B38F18F7780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FC45FA-D064-403E-B01F-FC87DE8AD959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -305,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -336,16 +336,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -628,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD77" sqref="AD77"/>
+    <sheetView tabSelected="1" topLeftCell="L22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO37" sqref="AO37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,26 +642,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="U1" s="15"/>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
     </row>
     <row r="3" spans="1:41" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C3" s="22" t="s">
@@ -829,7 +830,7 @@
       </c>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -873,17 +874,27 @@
         <f>AVERAGE(I5:M5)</f>
         <v>0.2954</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="5" t="e">
+      <c r="O5" s="6">
+        <v>0.187</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0.188</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0.186</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0.187</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="T5" s="5">
         <f>AVERAGE(O5:S5)</f>
-        <v>#DIV/0!</v>
+        <v>0.1968</v>
       </c>
       <c r="U5" s="15"/>
-      <c r="V5" s="21" t="s">
+      <c r="V5" s="23" t="s">
         <v>10</v>
       </c>
       <c r="W5" s="4" t="s">
@@ -927,18 +938,28 @@
         <f>AVERAGE(AD5:AH5)</f>
         <v>101.59</v>
       </c>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="5" t="e">
+      <c r="AJ5" s="6">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>158</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="AN5" s="8">
+        <v>125.9</v>
+      </c>
+      <c r="AO5" s="5">
         <f>AVERAGE(AJ5:AN5)</f>
-        <v>#DIV/0!</v>
+        <v>152.23999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -980,17 +1001,27 @@
         <f t="shared" ref="N6:N13" si="1">AVERAGE(I6:M6)</f>
         <v>0.96200000000000008</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="5" t="e">
+      <c r="O6" s="9">
+        <v>1.639</v>
+      </c>
+      <c r="P6" s="19">
+        <v>1.595</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>1.64</v>
+      </c>
+      <c r="R6" s="19">
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="S6" s="11">
+        <v>1.6120000000000001</v>
+      </c>
+      <c r="T6" s="5">
         <f t="shared" ref="T6:T13" si="2">AVERAGE(O6:S6)</f>
-        <v>#DIV/0!</v>
+        <v>1.6244000000000001</v>
       </c>
       <c r="U6" s="15"/>
-      <c r="V6" s="21"/>
+      <c r="V6" s="23"/>
       <c r="W6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1032,18 +1063,28 @@
         <f t="shared" ref="AI6:AI13" si="4">AVERAGE(AD6:AH6)</f>
         <v>6125.4</v>
       </c>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="5" t="e">
+      <c r="AJ6" s="9">
+        <v>3588</v>
+      </c>
+      <c r="AK6" s="19">
+        <v>3687</v>
+      </c>
+      <c r="AL6" s="19">
+        <v>3586</v>
+      </c>
+      <c r="AM6" s="19">
+        <v>3594</v>
+      </c>
+      <c r="AN6" s="11">
+        <v>3648</v>
+      </c>
+      <c r="AO6" s="5">
         <f t="shared" ref="AO6:AO13" si="5">AVERAGE(AJ6:AN6)</f>
-        <v>#DIV/0!</v>
+        <v>3620.6</v>
       </c>
     </row>
     <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1085,17 +1126,27 @@
         <f t="shared" si="1"/>
         <v>2.9718000000000004</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="5" t="e">
+      <c r="O7" s="9">
+        <v>3.3239999999999998</v>
+      </c>
+      <c r="P7" s="19">
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>3.242</v>
+      </c>
+      <c r="R7" s="19">
+        <v>3.66</v>
+      </c>
+      <c r="S7" s="11">
+        <v>3.835</v>
+      </c>
+      <c r="T7" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.5131999999999999</v>
       </c>
       <c r="U7" s="15"/>
-      <c r="V7" s="21"/>
+      <c r="V7" s="23"/>
       <c r="W7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1137,18 +1188,28 @@
         <f t="shared" si="4"/>
         <v>7022</v>
       </c>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="5" t="e">
+      <c r="AJ7" s="9">
+        <v>6278</v>
+      </c>
+      <c r="AK7" s="19">
+        <v>5953</v>
+      </c>
+      <c r="AL7" s="19">
+        <v>6436</v>
+      </c>
+      <c r="AM7" s="19">
+        <v>5701</v>
+      </c>
+      <c r="AN7" s="11">
+        <v>5441</v>
+      </c>
+      <c r="AO7" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>5961.8</v>
       </c>
     </row>
     <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1190,17 +1251,27 @@
         <f t="shared" si="1"/>
         <v>8.9586000000000006</v>
       </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="5" t="e">
+      <c r="O8" s="9">
+        <v>8.7959999999999994</v>
+      </c>
+      <c r="P8" s="19">
+        <v>8.7750000000000004</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>8.8569999999999993</v>
+      </c>
+      <c r="R8" s="19">
+        <v>8.6370000000000005</v>
+      </c>
+      <c r="S8" s="11">
+        <v>8.702</v>
+      </c>
+      <c r="T8" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>8.7533999999999992</v>
       </c>
       <c r="U8" s="15"/>
-      <c r="V8" s="21"/>
+      <c r="V8" s="23"/>
       <c r="W8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1242,18 +1313,28 @@
         <f t="shared" si="4"/>
         <v>9243.7999999999993</v>
       </c>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="5" t="e">
+      <c r="AJ8" s="9">
+        <v>9414</v>
+      </c>
+      <c r="AK8" s="19">
+        <v>9436</v>
+      </c>
+      <c r="AL8" s="19">
+        <v>9349</v>
+      </c>
+      <c r="AM8" s="19">
+        <v>9587</v>
+      </c>
+      <c r="AN8" s="11">
+        <v>9515</v>
+      </c>
+      <c r="AO8" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9460.2000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1295,17 +1376,27 @@
         <f t="shared" si="1"/>
         <v>15.9312</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="5" t="e">
+      <c r="O9" s="9">
+        <v>13.644</v>
+      </c>
+      <c r="P9" s="19">
+        <v>13.494</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>13.856</v>
+      </c>
+      <c r="R9" s="19">
+        <v>14.04</v>
+      </c>
+      <c r="S9" s="11">
+        <v>13.994999999999999</v>
+      </c>
+      <c r="T9" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>13.8058</v>
       </c>
       <c r="U9" s="15"/>
-      <c r="V9" s="21"/>
+      <c r="V9" s="23"/>
       <c r="W9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1347,18 +1438,28 @@
         <f t="shared" si="4"/>
         <v>10134</v>
       </c>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="5" t="e">
+      <c r="AJ9" s="9">
+        <v>11830</v>
+      </c>
+      <c r="AK9" s="19">
+        <v>11960</v>
+      </c>
+      <c r="AL9" s="19">
+        <v>11650</v>
+      </c>
+      <c r="AM9" s="19">
+        <v>11500</v>
+      </c>
+      <c r="AN9" s="11">
+        <v>11540</v>
+      </c>
+      <c r="AO9" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>11696</v>
       </c>
     </row>
     <row r="10" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1400,17 +1501,27 @@
         <f t="shared" si="1"/>
         <v>0.27439999999999998</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="5" t="e">
+      <c r="O10" s="9">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="P10" s="19">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="R10" s="19">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S10" s="11">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T10" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.14460000000000001</v>
       </c>
       <c r="U10" s="15"/>
-      <c r="V10" s="21"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1452,18 +1563,28 @@
         <f t="shared" si="4"/>
         <v>910.76</v>
       </c>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="11"/>
-      <c r="AO10" s="5" t="e">
+      <c r="AJ10" s="9">
+        <v>1523</v>
+      </c>
+      <c r="AK10" s="19">
+        <v>1677</v>
+      </c>
+      <c r="AL10" s="19">
+        <v>1823</v>
+      </c>
+      <c r="AM10" s="19">
+        <v>1810</v>
+      </c>
+      <c r="AN10" s="11">
+        <v>1850</v>
+      </c>
+      <c r="AO10" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1736.6</v>
       </c>
     </row>
     <row r="11" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1505,17 +1626,27 @@
         <f t="shared" si="1"/>
         <v>0.29499999999999998</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="5" t="e">
+      <c r="O11" s="9">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="P11" s="19">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="S11" s="11">
+        <v>0.152</v>
+      </c>
+      <c r="T11" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.153</v>
       </c>
       <c r="U11" s="15"/>
-      <c r="V11" s="21"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1557,18 +1688,28 @@
         <f t="shared" si="4"/>
         <v>1697.4</v>
       </c>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="11"/>
-      <c r="AO11" s="5" t="e">
+      <c r="AJ11" s="9">
+        <v>2871</v>
+      </c>
+      <c r="AK11" s="19">
+        <v>3398</v>
+      </c>
+      <c r="AL11" s="19">
+        <v>3398</v>
+      </c>
+      <c r="AM11" s="19">
+        <v>3445</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>3287</v>
+      </c>
+      <c r="AO11" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>3279.8</v>
       </c>
     </row>
     <row r="12" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1610,17 +1751,27 @@
         <f t="shared" si="1"/>
         <v>0.30579999999999996</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="5" t="e">
+      <c r="O12" s="9">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="P12" s="19">
+        <v>0.157</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>0.158</v>
+      </c>
+      <c r="R12" s="19">
+        <v>0.155</v>
+      </c>
+      <c r="S12" s="11">
+        <v>0.158</v>
+      </c>
+      <c r="T12" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.15820000000000001</v>
       </c>
       <c r="U12" s="15"/>
-      <c r="V12" s="21"/>
+      <c r="V12" s="23"/>
       <c r="W12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1662,18 +1813,28 @@
         <f t="shared" si="4"/>
         <v>2453</v>
       </c>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="11"/>
-      <c r="AO12" s="5" t="e">
+      <c r="AJ12" s="9">
+        <v>4597</v>
+      </c>
+      <c r="AK12" s="19">
+        <v>4772</v>
+      </c>
+      <c r="AL12" s="19">
+        <v>4742</v>
+      </c>
+      <c r="AM12" s="19">
+        <v>4834</v>
+      </c>
+      <c r="AN12" s="11">
+        <v>4742</v>
+      </c>
+      <c r="AO12" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>4737.3999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
@@ -1715,17 +1876,27 @@
         <f t="shared" si="1"/>
         <v>0.31759999999999999</v>
       </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="5" t="e">
+      <c r="O13" s="12">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0.17</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="R13" s="13">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="S13" s="14">
+        <v>0.161</v>
+      </c>
+      <c r="T13" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="U13" s="15"/>
-      <c r="V13" s="21"/>
+      <c r="V13" s="23"/>
       <c r="W13" s="4" t="s">
         <v>9</v>
       </c>
@@ -1767,14 +1938,24 @@
         <f t="shared" si="4"/>
         <v>3156</v>
       </c>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="14"/>
-      <c r="AO13" s="5" t="e">
+      <c r="AJ13" s="12">
+        <v>5911</v>
+      </c>
+      <c r="AK13" s="13">
+        <v>5876</v>
+      </c>
+      <c r="AL13" s="13">
+        <v>5842</v>
+      </c>
+      <c r="AM13" s="13">
+        <v>5911</v>
+      </c>
+      <c r="AN13" s="14">
+        <v>6205</v>
+      </c>
+      <c r="AO13" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>5949</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
@@ -1821,7 +2002,7 @@
       <c r="AO14" s="15"/>
     </row>
     <row r="15" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1865,17 +2046,27 @@
         <f>AVERAGE(I15:M15)</f>
         <v>0.30500000000000005</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="5" t="e">
+      <c r="O15" s="6">
+        <v>0.191</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0.185</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0.185</v>
+      </c>
+      <c r="S15" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="T15" s="5">
         <f>AVERAGE(O15:S15)</f>
-        <v>#DIV/0!</v>
+        <v>0.19359999999999999</v>
       </c>
       <c r="U15" s="15"/>
-      <c r="V15" s="21" t="s">
+      <c r="V15" s="23" t="s">
         <v>20</v>
       </c>
       <c r="W15" s="4" t="s">
@@ -1919,18 +2110,28 @@
         <f>AVERAGE(AD15:AH15)</f>
         <v>98.833999999999989</v>
       </c>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="7"/>
-      <c r="AM15" s="7"/>
-      <c r="AN15" s="8"/>
-      <c r="AO15" s="5" t="e">
+      <c r="AJ15" s="6">
+        <v>155.5</v>
+      </c>
+      <c r="AK15" s="7">
+        <v>160.6</v>
+      </c>
+      <c r="AL15" s="7">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="AM15" s="7">
+        <v>160.6</v>
+      </c>
+      <c r="AN15" s="8">
+        <v>141.4</v>
+      </c>
+      <c r="AO15" s="5">
         <f>AVERAGE(AJ15:AN15)</f>
-        <v>#DIV/0!</v>
+        <v>153.78</v>
       </c>
     </row>
     <row r="16" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
@@ -1972,17 +2173,27 @@
         <f t="shared" ref="N16:N23" si="7">AVERAGE(I16:M16)</f>
         <v>0.99340000000000006</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="5" t="e">
+      <c r="O16" s="9">
+        <v>1.736</v>
+      </c>
+      <c r="P16" s="19">
+        <v>1.665</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>1.732</v>
+      </c>
+      <c r="R16" s="19">
+        <v>1.623</v>
+      </c>
+      <c r="S16" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="T16" s="5">
         <f t="shared" ref="T16:T23" si="8">AVERAGE(O16:S16)</f>
-        <v>#DIV/0!</v>
+        <v>1.6911999999999998</v>
       </c>
       <c r="U16" s="15"/>
-      <c r="V16" s="21"/>
+      <c r="V16" s="23"/>
       <c r="W16" s="4" t="s">
         <v>2</v>
       </c>
@@ -2002,7 +2213,7 @@
         <v>1180</v>
       </c>
       <c r="AC16" s="5">
-        <f t="shared" ref="AC16:AC23" si="9">AVERAGE(X16:AB16)</f>
+        <f t="shared" ref="AC16:AC22" si="9">AVERAGE(X16:AB16)</f>
         <v>1050.8</v>
       </c>
       <c r="AD16" s="9">
@@ -2024,18 +2235,28 @@
         <f t="shared" ref="AI16:AI23" si="10">AVERAGE(AD16:AH16)</f>
         <v>5926</v>
       </c>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="11"/>
-      <c r="AO16" s="5" t="e">
+      <c r="AJ16" s="9">
+        <v>3387</v>
+      </c>
+      <c r="AK16" s="19">
+        <v>3532</v>
+      </c>
+      <c r="AL16" s="19">
+        <v>3395</v>
+      </c>
+      <c r="AM16" s="19">
+        <v>3623</v>
+      </c>
+      <c r="AN16" s="11">
+        <v>3459</v>
+      </c>
+      <c r="AO16" s="5">
         <f t="shared" ref="AO16:AO23" si="11">AVERAGE(AJ16:AN16)</f>
-        <v>#DIV/0!</v>
+        <v>3479.2</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
@@ -2077,17 +2298,27 @@
         <f t="shared" si="7"/>
         <v>2.8377999999999997</v>
       </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="5" t="e">
+      <c r="O17" s="9">
+        <v>3.3769999999999998</v>
+      </c>
+      <c r="P17" s="19">
+        <v>3.5790000000000002</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>3.6440000000000001</v>
+      </c>
+      <c r="R17" s="19">
+        <v>3.617</v>
+      </c>
+      <c r="S17" s="11">
+        <v>3.427</v>
+      </c>
+      <c r="T17" s="5">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3.5287999999999995</v>
       </c>
       <c r="U17" s="15"/>
-      <c r="V17" s="21"/>
+      <c r="V17" s="23"/>
       <c r="W17" s="4" t="s">
         <v>3</v>
       </c>
@@ -2129,18 +2360,28 @@
         <f t="shared" si="10"/>
         <v>7354.2</v>
       </c>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="10"/>
-      <c r="AM17" s="10"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="5" t="e">
+      <c r="AJ17" s="9">
+        <v>6179</v>
+      </c>
+      <c r="AK17" s="19">
+        <v>5830</v>
+      </c>
+      <c r="AL17" s="19">
+        <v>5726</v>
+      </c>
+      <c r="AM17" s="19">
+        <v>5769</v>
+      </c>
+      <c r="AN17" s="11">
+        <v>6089</v>
+      </c>
+      <c r="AO17" s="5">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>5918.6</v>
       </c>
     </row>
     <row r="18" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
@@ -2182,17 +2423,27 @@
         <f t="shared" si="7"/>
         <v>8.4876000000000005</v>
       </c>
-      <c r="O18" s="9"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="5" t="e">
+      <c r="O18" s="9">
+        <v>8.5660000000000007</v>
+      </c>
+      <c r="P18" s="19">
+        <v>8.657</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>8.8650000000000002</v>
+      </c>
+      <c r="R18" s="19">
+        <v>8.6259999999999994</v>
+      </c>
+      <c r="S18" s="11">
+        <v>8.6750000000000007</v>
+      </c>
+      <c r="T18" s="5">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>8.6777999999999995</v>
       </c>
       <c r="U18" s="15"/>
-      <c r="V18" s="21"/>
+      <c r="V18" s="23"/>
       <c r="W18" s="4" t="s">
         <v>4</v>
       </c>
@@ -2234,18 +2485,28 @@
         <f t="shared" si="10"/>
         <v>9756.7999999999993</v>
       </c>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="10"/>
-      <c r="AL18" s="10"/>
-      <c r="AM18" s="10"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="5" t="e">
+      <c r="AJ18" s="9">
+        <v>9666</v>
+      </c>
+      <c r="AK18" s="19">
+        <v>9565</v>
+      </c>
+      <c r="AL18" s="19">
+        <v>9340</v>
+      </c>
+      <c r="AM18" s="19">
+        <v>9599</v>
+      </c>
+      <c r="AN18" s="11">
+        <v>9545</v>
+      </c>
+      <c r="AO18" s="5">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>9543</v>
       </c>
     </row>
     <row r="19" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
@@ -2287,17 +2548,27 @@
         <f t="shared" si="7"/>
         <v>14.956400000000002</v>
       </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="5" t="e">
+      <c r="O19" s="9">
+        <v>13.682</v>
+      </c>
+      <c r="P19" s="19">
+        <v>13.545999999999999</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>13.775</v>
+      </c>
+      <c r="R19" s="19">
+        <v>13.452999999999999</v>
+      </c>
+      <c r="S19" s="11">
+        <v>14.096</v>
+      </c>
+      <c r="T19" s="5">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>13.710400000000002</v>
       </c>
       <c r="U19" s="15"/>
-      <c r="V19" s="21"/>
+      <c r="V19" s="23"/>
       <c r="W19" s="4" t="s">
         <v>5</v>
       </c>
@@ -2339,18 +2610,28 @@
         <f t="shared" si="10"/>
         <v>10792</v>
       </c>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="10"/>
-      <c r="AL19" s="10"/>
-      <c r="AM19" s="10"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="5" t="e">
+      <c r="AJ19" s="9">
+        <v>11800</v>
+      </c>
+      <c r="AK19" s="19">
+        <v>11920</v>
+      </c>
+      <c r="AL19" s="19">
+        <v>11720</v>
+      </c>
+      <c r="AM19" s="19">
+        <v>12000</v>
+      </c>
+      <c r="AN19" s="11">
+        <v>11450</v>
+      </c>
+      <c r="AO19" s="5">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>11778</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
@@ -2392,17 +2673,27 @@
         <f t="shared" si="7"/>
         <v>0.27559999999999996</v>
       </c>
-      <c r="O20" s="9"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="5" t="e">
+      <c r="O20" s="9">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="P20" s="19">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="R20" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S20" s="11">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="T20" s="5">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.14620000000000002</v>
       </c>
       <c r="U20" s="15"/>
-      <c r="V20" s="21"/>
+      <c r="V20" s="23"/>
       <c r="W20" s="4" t="s">
         <v>6</v>
       </c>
@@ -2444,18 +2735,28 @@
         <f t="shared" si="10"/>
         <v>908.2</v>
       </c>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="10"/>
-      <c r="AL20" s="10"/>
-      <c r="AM20" s="10"/>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="5" t="e">
+      <c r="AJ20" s="9">
+        <v>1496</v>
+      </c>
+      <c r="AK20" s="19">
+        <v>1723</v>
+      </c>
+      <c r="AL20" s="19">
+        <v>1810</v>
+      </c>
+      <c r="AM20" s="19">
+        <v>1784</v>
+      </c>
+      <c r="AN20" s="11">
+        <v>1772</v>
+      </c>
+      <c r="AO20" s="5">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="21" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
@@ -2497,17 +2798,27 @@
         <f t="shared" si="7"/>
         <v>0.29040000000000005</v>
       </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="5" t="e">
+      <c r="O21" s="19">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="P21" s="19">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="R21" s="19">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="S21" s="19">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="T21" s="5">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.14479999999999998</v>
       </c>
       <c r="U21" s="15"/>
-      <c r="V21" s="21"/>
+      <c r="V21" s="23"/>
       <c r="W21" s="4" t="s">
         <v>7</v>
       </c>
@@ -2549,18 +2860,28 @@
         <f t="shared" si="10"/>
         <v>1724.6</v>
       </c>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="10"/>
-      <c r="AN21" s="11"/>
-      <c r="AO21" s="5" t="e">
+      <c r="AJ21" s="19">
+        <v>3422</v>
+      </c>
+      <c r="AK21" s="19">
+        <v>3518</v>
+      </c>
+      <c r="AL21" s="19">
+        <v>3494</v>
+      </c>
+      <c r="AM21" s="19">
+        <v>3353</v>
+      </c>
+      <c r="AN21" s="19">
+        <v>3469</v>
+      </c>
+      <c r="AO21" s="5">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>3451.2</v>
       </c>
     </row>
     <row r="22" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
@@ -2602,17 +2923,27 @@
         <f t="shared" si="7"/>
         <v>0.30420000000000003</v>
       </c>
-      <c r="O22" s="9"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="5" t="e">
+      <c r="O22" s="9">
+        <v>0.153</v>
+      </c>
+      <c r="P22" s="19">
+        <v>0.155</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>0.153</v>
+      </c>
+      <c r="R22" s="19">
+        <v>0.154</v>
+      </c>
+      <c r="S22" s="11">
+        <v>0.154</v>
+      </c>
+      <c r="T22" s="5">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="21"/>
+      <c r="V22" s="23"/>
       <c r="W22" s="4" t="s">
         <v>8</v>
       </c>
@@ -2654,18 +2985,28 @@
         <f t="shared" si="10"/>
         <v>2473.4</v>
       </c>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="5" t="e">
+      <c r="AJ22" s="9">
+        <v>4897</v>
+      </c>
+      <c r="AK22" s="19">
+        <v>4834</v>
+      </c>
+      <c r="AL22" s="19">
+        <v>4897</v>
+      </c>
+      <c r="AM22" s="19">
+        <v>4865</v>
+      </c>
+      <c r="AN22" s="11">
+        <v>4865</v>
+      </c>
+      <c r="AO22" s="5">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>4871.6000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
@@ -2707,17 +3048,27 @@
         <f t="shared" si="7"/>
         <v>0.32140000000000002</v>
       </c>
-      <c r="O23" s="12"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="5" t="e">
+      <c r="O23" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0.161</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="S23" s="14">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="T23" s="5">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="U23" s="15"/>
-      <c r="V23" s="21"/>
+      <c r="V23" s="23"/>
       <c r="W23" s="4" t="s">
         <v>9</v>
       </c>
@@ -2736,7 +3087,7 @@
       <c r="AB23" s="14">
         <v>1196</v>
       </c>
-      <c r="AC23" s="23">
+      <c r="AC23" s="20">
         <f>AVERAGE(X23:AB23)</f>
         <v>1583</v>
       </c>
@@ -2759,14 +3110,24 @@
         <f t="shared" si="10"/>
         <v>3112</v>
       </c>
-      <c r="AJ23" s="12"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="14"/>
-      <c r="AO23" s="5" t="e">
+      <c r="AJ23" s="12">
+        <v>5876</v>
+      </c>
+      <c r="AK23" s="13">
+        <v>5946</v>
+      </c>
+      <c r="AL23" s="13">
+        <v>6205</v>
+      </c>
+      <c r="AM23" s="13">
+        <v>6167</v>
+      </c>
+      <c r="AN23" s="14">
+        <v>6091</v>
+      </c>
+      <c r="AO23" s="5">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
@@ -2813,7 +3174,7 @@
       <c r="AO24" s="15"/>
     </row>
     <row r="25" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2857,17 +3218,27 @@
         <f>AVERAGE(I25:M25)</f>
         <v>0.28859999999999997</v>
       </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="5" t="e">
+      <c r="O25" s="6">
+        <v>0.186</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0.189</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0.187</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0.193</v>
+      </c>
+      <c r="S25" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="T25" s="5">
         <f>AVERAGE(O25:S25)</f>
-        <v>#DIV/0!</v>
+        <v>0.191</v>
       </c>
       <c r="U25" s="15"/>
-      <c r="V25" s="21" t="s">
+      <c r="V25" s="23" t="s">
         <v>21</v>
       </c>
       <c r="W25" s="4" t="s">
@@ -2911,18 +3282,28 @@
         <f>AVERAGE(AD25:AH25)</f>
         <v>103.75</v>
       </c>
-      <c r="AJ25" s="6"/>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="7"/>
-      <c r="AN25" s="8"/>
-      <c r="AO25" s="5" t="e">
+      <c r="AJ25" s="6">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="AK25" s="7">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="AL25" s="7">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="AM25" s="7">
+        <v>153.9</v>
+      </c>
+      <c r="AN25" s="8">
+        <v>148.5</v>
+      </c>
+      <c r="AO25" s="5">
         <f>AVERAGE(AJ25:AN25)</f>
-        <v>#DIV/0!</v>
+        <v>155.62</v>
       </c>
     </row>
     <row r="26" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
@@ -2964,17 +3345,27 @@
         <f t="shared" ref="N26:N33" si="13">AVERAGE(I26:M26)</f>
         <v>0.90739999999999998</v>
       </c>
-      <c r="O26" s="9"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="5" t="e">
+      <c r="O26" s="9">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="P26" s="19">
+        <v>1.623</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>1.635</v>
+      </c>
+      <c r="R26" s="19">
+        <v>1.675</v>
+      </c>
+      <c r="S26" s="11">
+        <v>1.718</v>
+      </c>
+      <c r="T26" s="5">
         <f t="shared" ref="T26:T33" si="14">AVERAGE(O26:S26)</f>
-        <v>#DIV/0!</v>
+        <v>1.6469999999999998</v>
       </c>
       <c r="U26" s="15"/>
-      <c r="V26" s="21"/>
+      <c r="V26" s="23"/>
       <c r="W26" s="4" t="s">
         <v>2</v>
       </c>
@@ -3016,18 +3407,28 @@
         <f t="shared" ref="AI26:AI33" si="16">AVERAGE(AD26:AH26)</f>
         <v>6489.4</v>
       </c>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="10"/>
-      <c r="AN26" s="11"/>
-      <c r="AO26" s="5" t="e">
+      <c r="AJ26" s="9">
+        <v>3712</v>
+      </c>
+      <c r="AK26" s="19">
+        <v>3623</v>
+      </c>
+      <c r="AL26" s="19">
+        <v>3597</v>
+      </c>
+      <c r="AM26" s="19">
+        <v>3511</v>
+      </c>
+      <c r="AN26" s="11">
+        <v>3423</v>
+      </c>
+      <c r="AO26" s="5">
         <f t="shared" ref="AO26:AO33" si="17">AVERAGE(AJ26:AN26)</f>
-        <v>#DIV/0!</v>
+        <v>3573.2</v>
       </c>
     </row>
     <row r="27" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
@@ -3069,17 +3470,27 @@
         <f t="shared" si="13"/>
         <v>2.7008000000000001</v>
       </c>
-      <c r="O27" s="9"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="5" t="e">
+      <c r="O27" s="9">
+        <v>3.2759999999999998</v>
+      </c>
+      <c r="P27" s="19">
+        <v>3.3140000000000001</v>
+      </c>
+      <c r="Q27" s="19">
+        <v>3.3109999999999999</v>
+      </c>
+      <c r="R27" s="19">
+        <v>3.3130000000000002</v>
+      </c>
+      <c r="S27" s="11">
+        <v>3.42</v>
+      </c>
+      <c r="T27" s="5">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>3.3268</v>
       </c>
       <c r="U27" s="15"/>
-      <c r="V27" s="21"/>
+      <c r="V27" s="23"/>
       <c r="W27" s="4" t="s">
         <v>3</v>
       </c>
@@ -3121,18 +3532,28 @@
         <f t="shared" si="16"/>
         <v>7726.6</v>
       </c>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="10"/>
-      <c r="AL27" s="10"/>
-      <c r="AM27" s="10"/>
-      <c r="AN27" s="11"/>
-      <c r="AO27" s="5" t="e">
+      <c r="AJ27" s="9">
+        <v>6270</v>
+      </c>
+      <c r="AK27" s="19">
+        <v>6297</v>
+      </c>
+      <c r="AL27" s="19">
+        <v>6302</v>
+      </c>
+      <c r="AM27" s="19">
+        <v>6298</v>
+      </c>
+      <c r="AN27" s="11">
+        <v>6101</v>
+      </c>
+      <c r="AO27" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>6253.6</v>
       </c>
     </row>
     <row r="28" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
@@ -3174,17 +3595,27 @@
         <f t="shared" si="13"/>
         <v>8.0175999999999981</v>
       </c>
-      <c r="O28" s="9"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="5" t="e">
+      <c r="O28" s="9">
+        <v>8.3379999999999992</v>
+      </c>
+      <c r="P28" s="19">
+        <v>8.4169999999999998</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>8.3070000000000004</v>
+      </c>
+      <c r="R28" s="19">
+        <v>8.2569999999999997</v>
+      </c>
+      <c r="S28" s="11">
+        <v>8.3640000000000008</v>
+      </c>
+      <c r="T28" s="5">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>8.3365999999999989</v>
       </c>
       <c r="U28" s="15"/>
-      <c r="V28" s="21"/>
+      <c r="V28" s="23"/>
       <c r="W28" s="4" t="s">
         <v>4</v>
       </c>
@@ -3226,18 +3657,28 @@
         <f t="shared" si="16"/>
         <v>10324</v>
       </c>
-      <c r="AJ28" s="9"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
-      <c r="AM28" s="10"/>
-      <c r="AN28" s="11"/>
-      <c r="AO28" s="5" t="e">
+      <c r="AJ28" s="9">
+        <v>9931</v>
+      </c>
+      <c r="AK28" s="19">
+        <v>9838</v>
+      </c>
+      <c r="AL28" s="19">
+        <v>9968</v>
+      </c>
+      <c r="AM28" s="19">
+        <v>10030</v>
+      </c>
+      <c r="AN28" s="11">
+        <v>9900</v>
+      </c>
+      <c r="AO28" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>9933.4</v>
       </c>
     </row>
     <row r="29" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
@@ -3279,17 +3720,27 @@
         <f t="shared" si="13"/>
         <v>13.634600000000001</v>
       </c>
-      <c r="O29" s="9"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="5" t="e">
+      <c r="O29" s="9">
+        <v>12.81</v>
+      </c>
+      <c r="P29" s="19">
+        <v>12.808</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>12.959</v>
+      </c>
+      <c r="R29" s="19">
+        <v>13.141</v>
+      </c>
+      <c r="S29" s="11">
+        <v>13.468999999999999</v>
+      </c>
+      <c r="T29" s="5">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>13.0374</v>
       </c>
       <c r="U29" s="15"/>
-      <c r="V29" s="21"/>
+      <c r="V29" s="23"/>
       <c r="W29" s="4" t="s">
         <v>5</v>
       </c>
@@ -3331,18 +3782,28 @@
         <f t="shared" si="16"/>
         <v>11842</v>
       </c>
-      <c r="AJ29" s="9"/>
-      <c r="AK29" s="10"/>
-      <c r="AL29" s="10"/>
-      <c r="AM29" s="10"/>
-      <c r="AN29" s="11"/>
-      <c r="AO29" s="5" t="e">
+      <c r="AJ29" s="9">
+        <v>12600</v>
+      </c>
+      <c r="AK29" s="19">
+        <v>12600</v>
+      </c>
+      <c r="AL29" s="19">
+        <v>12460</v>
+      </c>
+      <c r="AM29" s="19">
+        <v>12290</v>
+      </c>
+      <c r="AN29" s="11">
+        <v>11990</v>
+      </c>
+      <c r="AO29" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>12388</v>
       </c>
     </row>
     <row r="30" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="4" t="s">
         <v>6</v>
       </c>
@@ -3384,17 +3845,27 @@
         <f t="shared" si="13"/>
         <v>0.27800000000000002</v>
       </c>
-      <c r="O30" s="9"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="5" t="e">
+      <c r="O30" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="P30" s="19">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="R30" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="S30" s="11">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="T30" s="5">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.14340000000000003</v>
       </c>
       <c r="U30" s="15"/>
-      <c r="V30" s="21"/>
+      <c r="V30" s="23"/>
       <c r="W30" s="4" t="s">
         <v>6</v>
       </c>
@@ -3436,18 +3907,28 @@
         <f t="shared" si="16"/>
         <v>900</v>
       </c>
-      <c r="AJ30" s="9"/>
-      <c r="AK30" s="10"/>
-      <c r="AL30" s="10"/>
-      <c r="AM30" s="10"/>
-      <c r="AN30" s="11"/>
-      <c r="AO30" s="5" t="e">
+      <c r="AJ30" s="9">
+        <v>1469</v>
+      </c>
+      <c r="AK30" s="19">
+        <v>1864</v>
+      </c>
+      <c r="AL30" s="19">
+        <v>1699</v>
+      </c>
+      <c r="AM30" s="19">
+        <v>1837</v>
+      </c>
+      <c r="AN30" s="11">
+        <v>1837</v>
+      </c>
+      <c r="AO30" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>1741.2</v>
       </c>
     </row>
     <row r="31" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
@@ -3489,17 +3970,27 @@
         <f t="shared" si="13"/>
         <v>0.2964</v>
       </c>
-      <c r="O31" s="9"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="5" t="e">
+      <c r="O31" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="P31" s="19">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="Q31" s="19">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="R31" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="S31" s="11">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="T31" s="5">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.14860000000000001</v>
       </c>
       <c r="U31" s="15"/>
-      <c r="V31" s="21"/>
+      <c r="V31" s="23"/>
       <c r="W31" s="4" t="s">
         <v>7</v>
       </c>
@@ -3541,18 +4032,28 @@
         <f t="shared" si="16"/>
         <v>1686.6</v>
       </c>
-      <c r="AJ31" s="9"/>
-      <c r="AK31" s="10"/>
-      <c r="AL31" s="10"/>
-      <c r="AM31" s="10"/>
-      <c r="AN31" s="11"/>
-      <c r="AO31" s="5" t="e">
+      <c r="AJ31" s="9">
+        <v>3330</v>
+      </c>
+      <c r="AK31" s="19">
+        <v>3353</v>
+      </c>
+      <c r="AL31" s="19">
+        <v>3398</v>
+      </c>
+      <c r="AM31" s="19">
+        <v>3330</v>
+      </c>
+      <c r="AN31" s="11">
+        <v>3398</v>
+      </c>
+      <c r="AO31" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>3361.8</v>
       </c>
     </row>
     <row r="32" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
@@ -3594,17 +4095,27 @@
         <f t="shared" si="13"/>
         <v>0.30759999999999998</v>
       </c>
-      <c r="O32" s="9"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="5" t="e">
+      <c r="O32" s="9">
+        <v>0.161</v>
+      </c>
+      <c r="P32" s="19">
+        <v>0.155</v>
+      </c>
+      <c r="Q32" s="19">
+        <v>0.158</v>
+      </c>
+      <c r="R32" s="19">
+        <v>0.158</v>
+      </c>
+      <c r="S32" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="T32" s="5">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.15840000000000001</v>
       </c>
       <c r="U32" s="15"/>
-      <c r="V32" s="21"/>
+      <c r="V32" s="23"/>
       <c r="W32" s="4" t="s">
         <v>8</v>
       </c>
@@ -3646,18 +4157,28 @@
         <f>AVERAGE(AD32:AH32)</f>
         <v>2438.4</v>
       </c>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="10"/>
-      <c r="AL32" s="10"/>
-      <c r="AM32" s="10"/>
-      <c r="AN32" s="11"/>
-      <c r="AO32" s="5" t="e">
+      <c r="AJ32" s="9">
+        <v>4654</v>
+      </c>
+      <c r="AK32" s="19">
+        <v>4834</v>
+      </c>
+      <c r="AL32" s="19">
+        <v>4742</v>
+      </c>
+      <c r="AM32" s="19">
+        <v>4683</v>
+      </c>
+      <c r="AN32" s="11">
+        <v>4742</v>
+      </c>
+      <c r="AO32" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="33" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="4" t="s">
         <v>9</v>
       </c>
@@ -3699,17 +4220,27 @@
         <f t="shared" si="13"/>
         <v>0.32320000000000004</v>
       </c>
-      <c r="O33" s="12"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="5" t="e">
+      <c r="O33" s="12">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="P33" s="13">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="R33" s="13">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="S33" s="14">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="T33" s="5">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="U33" s="15"/>
-      <c r="V33" s="21"/>
+      <c r="V33" s="23"/>
       <c r="W33" s="4" t="s">
         <v>9</v>
       </c>
@@ -3751,14 +4282,24 @@
         <f t="shared" si="16"/>
         <v>3094</v>
       </c>
-      <c r="AJ33" s="12"/>
-      <c r="AK33" s="13"/>
-      <c r="AL33" s="13"/>
-      <c r="AM33" s="13"/>
-      <c r="AN33" s="14"/>
-      <c r="AO33" s="5" t="e">
+      <c r="AJ33" s="12">
+        <v>5676</v>
+      </c>
+      <c r="AK33" s="13">
+        <v>5946</v>
+      </c>
+      <c r="AL33" s="13">
+        <v>6167</v>
+      </c>
+      <c r="AM33" s="13">
+        <v>6129</v>
+      </c>
+      <c r="AN33" s="14">
+        <v>6018</v>
+      </c>
+      <c r="AO33" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>5987.2</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
@@ -3805,7 +4346,7 @@
       <c r="AO34" s="15"/>
     </row>
     <row r="35" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -3849,17 +4390,27 @@
         <f>AVERAGE(I35:M35)</f>
         <v>0.3024</v>
       </c>
-      <c r="O35" s="6"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="5" t="e">
+      <c r="O35" s="6">
+        <v>0.189</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0.186</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0.188</v>
+      </c>
+      <c r="S35" s="8">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="T35" s="5">
         <f>AVERAGE(O35:S35)</f>
-        <v>#DIV/0!</v>
+        <v>0.19019999999999998</v>
       </c>
       <c r="U35" s="15"/>
-      <c r="V35" s="21" t="s">
+      <c r="V35" s="23" t="s">
         <v>22</v>
       </c>
       <c r="W35" s="4" t="s">
@@ -3903,18 +4454,28 @@
         <f>AVERAGE(AD35:AH35)</f>
         <v>99.152000000000001</v>
       </c>
-      <c r="AJ35" s="6"/>
-      <c r="AK35" s="7"/>
-      <c r="AL35" s="7"/>
-      <c r="AM35" s="7"/>
-      <c r="AN35" s="8"/>
-      <c r="AO35" s="5" t="e">
+      <c r="AJ35" s="6">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="AK35" s="7">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="AL35" s="7">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="AM35" s="7">
+        <v>158</v>
+      </c>
+      <c r="AN35" s="8">
+        <v>150</v>
+      </c>
+      <c r="AO35" s="5">
         <f>AVERAGE(AJ35:AN35)</f>
-        <v>#DIV/0!</v>
+        <v>156.24</v>
       </c>
     </row>
     <row r="36" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="4" t="s">
         <v>2</v>
       </c>
@@ -3956,17 +4517,27 @@
         <f t="shared" ref="N36:N43" si="19">AVERAGE(I36:M36)</f>
         <v>0.93380000000000007</v>
       </c>
-      <c r="O36" s="9"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="5" t="e">
+      <c r="O36" s="9">
+        <v>1.651</v>
+      </c>
+      <c r="P36" s="19">
+        <v>1.643</v>
+      </c>
+      <c r="Q36" s="19">
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="R36" s="19">
+        <v>1.631</v>
+      </c>
+      <c r="S36" s="11">
+        <v>1.855</v>
+      </c>
+      <c r="T36" s="5">
         <f t="shared" ref="T36:T43" si="20">AVERAGE(O36:S36)</f>
-        <v>#DIV/0!</v>
+        <v>1.6832</v>
       </c>
       <c r="U36" s="15"/>
-      <c r="V36" s="21"/>
+      <c r="V36" s="23"/>
       <c r="W36" s="4" t="s">
         <v>2</v>
       </c>
@@ -4008,18 +4579,28 @@
         <f t="shared" ref="AI36:AI43" si="22">AVERAGE(AD36:AH36)</f>
         <v>6304.6</v>
       </c>
-      <c r="AJ36" s="9"/>
-      <c r="AK36" s="10"/>
-      <c r="AL36" s="10"/>
-      <c r="AM36" s="10"/>
-      <c r="AN36" s="11"/>
-      <c r="AO36" s="5" t="e">
+      <c r="AJ36" s="9">
+        <v>3562</v>
+      </c>
+      <c r="AK36" s="19">
+        <v>3579</v>
+      </c>
+      <c r="AL36" s="19">
+        <v>3594</v>
+      </c>
+      <c r="AM36" s="19">
+        <v>3605</v>
+      </c>
+      <c r="AN36" s="11">
+        <v>3170</v>
+      </c>
+      <c r="AO36" s="5">
         <f t="shared" ref="AO36:AO43" si="23">AVERAGE(AJ36:AN36)</f>
-        <v>#DIV/0!</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="37" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="4" t="s">
         <v>3</v>
       </c>
@@ -4061,17 +4642,27 @@
         <f t="shared" si="19"/>
         <v>2.7951999999999999</v>
       </c>
-      <c r="O37" s="9"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="5" t="e">
+      <c r="O37" s="9">
+        <v>3.4119999999999999</v>
+      </c>
+      <c r="P37" s="19">
+        <v>3.4430000000000001</v>
+      </c>
+      <c r="Q37" s="19">
+        <v>3.4969999999999999</v>
+      </c>
+      <c r="R37" s="19">
+        <v>3.4039999999999999</v>
+      </c>
+      <c r="S37" s="11">
+        <v>3.3879999999999999</v>
+      </c>
+      <c r="T37" s="5">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>3.4287999999999998</v>
       </c>
       <c r="U37" s="15"/>
-      <c r="V37" s="21"/>
+      <c r="V37" s="23"/>
       <c r="W37" s="4" t="s">
         <v>3</v>
       </c>
@@ -4113,18 +4704,28 @@
         <f>AVERAGE(AD37:AH37)</f>
         <v>7465.8</v>
       </c>
-      <c r="AJ37" s="9"/>
-      <c r="AK37" s="10"/>
-      <c r="AL37" s="10"/>
-      <c r="AM37" s="10"/>
-      <c r="AN37" s="11"/>
-      <c r="AO37" s="5" t="e">
+      <c r="AJ37" s="9">
+        <v>6116</v>
+      </c>
+      <c r="AK37" s="19">
+        <v>6061</v>
+      </c>
+      <c r="AL37" s="19">
+        <v>5967</v>
+      </c>
+      <c r="AM37" s="19">
+        <v>6130</v>
+      </c>
+      <c r="AN37" s="11">
+        <v>6159</v>
+      </c>
+      <c r="AO37" s="5">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>6086.6</v>
       </c>
     </row>
     <row r="38" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="4" t="s">
         <v>4</v>
       </c>
@@ -4166,17 +4767,27 @@
         <f t="shared" si="19"/>
         <v>8.329600000000001</v>
       </c>
-      <c r="O38" s="9"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="5" t="e">
+      <c r="O38" s="9">
+        <v>9.0389999999999997</v>
+      </c>
+      <c r="P38" s="19">
+        <v>8.7560000000000002</v>
+      </c>
+      <c r="Q38" s="19">
+        <v>9.0169999999999995</v>
+      </c>
+      <c r="R38" s="19">
+        <v>8.7579999999999991</v>
+      </c>
+      <c r="S38" s="11">
+        <v>8.6739999999999995</v>
+      </c>
+      <c r="T38" s="5">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>8.8488000000000007</v>
       </c>
       <c r="U38" s="15"/>
-      <c r="V38" s="21"/>
+      <c r="V38" s="23"/>
       <c r="W38" s="4" t="s">
         <v>4</v>
       </c>
@@ -4218,18 +4829,28 @@
         <f t="shared" si="22"/>
         <v>9940.7999999999993</v>
       </c>
-      <c r="AJ38" s="9"/>
-      <c r="AK38" s="10"/>
-      <c r="AL38" s="10"/>
-      <c r="AM38" s="10"/>
-      <c r="AN38" s="11"/>
-      <c r="AO38" s="5" t="e">
+      <c r="AJ38" s="9">
+        <v>9161</v>
+      </c>
+      <c r="AK38" s="19">
+        <v>9457</v>
+      </c>
+      <c r="AL38" s="19">
+        <v>9183</v>
+      </c>
+      <c r="AM38" s="19">
+        <v>9454</v>
+      </c>
+      <c r="AN38" s="11">
+        <v>9546</v>
+      </c>
+      <c r="AO38" s="5">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>9360.2000000000007</v>
       </c>
     </row>
     <row r="39" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="4" t="s">
         <v>5</v>
       </c>
@@ -4271,17 +4892,27 @@
         <f t="shared" si="19"/>
         <v>14.74</v>
       </c>
-      <c r="O39" s="9"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="5" t="e">
+      <c r="O39" s="9">
+        <v>14.102</v>
+      </c>
+      <c r="P39" s="19">
+        <v>13.973000000000001</v>
+      </c>
+      <c r="Q39" s="19">
+        <v>14.071999999999999</v>
+      </c>
+      <c r="R39" s="19">
+        <v>14.292999999999999</v>
+      </c>
+      <c r="S39" s="11">
+        <v>14.27</v>
+      </c>
+      <c r="T39" s="5">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>14.142000000000001</v>
       </c>
       <c r="U39" s="15"/>
-      <c r="V39" s="21"/>
+      <c r="V39" s="23"/>
       <c r="W39" s="4" t="s">
         <v>5</v>
       </c>
@@ -4323,18 +4954,28 @@
         <f t="shared" si="22"/>
         <v>10952</v>
       </c>
-      <c r="AJ39" s="9"/>
-      <c r="AK39" s="10"/>
-      <c r="AL39" s="10"/>
-      <c r="AM39" s="10"/>
-      <c r="AN39" s="11"/>
-      <c r="AO39" s="5" t="e">
+      <c r="AJ39" s="9">
+        <v>11450</v>
+      </c>
+      <c r="AK39" s="19">
+        <v>11550</v>
+      </c>
+      <c r="AL39" s="19">
+        <v>11470</v>
+      </c>
+      <c r="AM39" s="19">
+        <v>11300</v>
+      </c>
+      <c r="AN39" s="11">
+        <v>11310</v>
+      </c>
+      <c r="AO39" s="5">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>11416</v>
       </c>
     </row>
     <row r="40" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="4" t="s">
         <v>6</v>
       </c>
@@ -4376,17 +5017,27 @@
         <f t="shared" si="19"/>
         <v>0.27440000000000003</v>
       </c>
-      <c r="O40" s="9"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="5" t="e">
+      <c r="O40" s="9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="P40" s="19">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="Q40" s="19">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="R40" s="19">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S40" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T40" s="5">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>0.14460000000000001</v>
       </c>
       <c r="U40" s="15"/>
-      <c r="V40" s="21"/>
+      <c r="V40" s="23"/>
       <c r="W40" s="4" t="s">
         <v>6</v>
       </c>
@@ -4428,18 +5079,28 @@
         <f t="shared" si="22"/>
         <v>913.96</v>
       </c>
-      <c r="AJ40" s="9"/>
-      <c r="AK40" s="10"/>
-      <c r="AL40" s="10"/>
-      <c r="AM40" s="10"/>
-      <c r="AN40" s="11"/>
-      <c r="AO40" s="5" t="e">
+      <c r="AJ40" s="9">
+        <v>1514</v>
+      </c>
+      <c r="AK40" s="19">
+        <v>1772</v>
+      </c>
+      <c r="AL40" s="19">
+        <v>1797</v>
+      </c>
+      <c r="AM40" s="19">
+        <v>1810</v>
+      </c>
+      <c r="AN40" s="11">
+        <v>1784</v>
+      </c>
+      <c r="AO40" s="5">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>1735.4</v>
       </c>
     </row>
     <row r="41" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="4" t="s">
         <v>7</v>
       </c>
@@ -4481,17 +5142,27 @@
         <f t="shared" si="19"/>
         <v>0.28899999999999998</v>
       </c>
-      <c r="O41" s="9"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="5" t="e">
+      <c r="O41" s="9">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="P41" s="19">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="Q41" s="19">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="R41" s="19">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="S41" s="11">
+        <v>0.159</v>
+      </c>
+      <c r="T41" s="5">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>0.1502</v>
       </c>
       <c r="U41" s="15"/>
-      <c r="V41" s="21"/>
+      <c r="V41" s="23"/>
       <c r="W41" s="4" t="s">
         <v>7</v>
       </c>
@@ -4533,18 +5204,28 @@
         <f t="shared" si="22"/>
         <v>1737.4</v>
       </c>
-      <c r="AJ41" s="9"/>
-      <c r="AK41" s="10"/>
-      <c r="AL41" s="10"/>
-      <c r="AM41" s="10"/>
-      <c r="AN41" s="11"/>
-      <c r="AO41" s="5" t="e">
+      <c r="AJ41" s="9">
+        <v>3353</v>
+      </c>
+      <c r="AK41" s="19">
+        <v>3375</v>
+      </c>
+      <c r="AL41" s="19">
+        <v>3398</v>
+      </c>
+      <c r="AM41" s="19">
+        <v>3375</v>
+      </c>
+      <c r="AN41" s="11">
+        <v>3142</v>
+      </c>
+      <c r="AO41" s="5">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>3328.6</v>
       </c>
     </row>
     <row r="42" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="4" t="s">
         <v>8</v>
       </c>
@@ -4586,17 +5267,27 @@
         <f t="shared" si="19"/>
         <v>0.30359999999999998</v>
       </c>
-      <c r="O42" s="9"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="5" t="e">
+      <c r="O42" s="9">
+        <v>0.153</v>
+      </c>
+      <c r="P42" s="19">
+        <v>0.153</v>
+      </c>
+      <c r="Q42" s="19">
+        <v>0.155</v>
+      </c>
+      <c r="R42" s="19">
+        <v>0.158</v>
+      </c>
+      <c r="S42" s="11">
+        <v>0.153</v>
+      </c>
+      <c r="T42" s="5">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>0.15440000000000001</v>
       </c>
       <c r="U42" s="15"/>
-      <c r="V42" s="21"/>
+      <c r="V42" s="23"/>
       <c r="W42" s="4" t="s">
         <v>8</v>
       </c>
@@ -4638,18 +5329,28 @@
         <f t="shared" si="22"/>
         <v>2481.8000000000002</v>
       </c>
-      <c r="AJ42" s="9"/>
-      <c r="AK42" s="10"/>
-      <c r="AL42" s="10"/>
-      <c r="AM42" s="10"/>
-      <c r="AN42" s="11"/>
-      <c r="AO42" s="5" t="e">
+      <c r="AJ42" s="9">
+        <v>4897</v>
+      </c>
+      <c r="AK42" s="19">
+        <v>4897</v>
+      </c>
+      <c r="AL42" s="19">
+        <v>4834</v>
+      </c>
+      <c r="AM42" s="19">
+        <v>4742</v>
+      </c>
+      <c r="AN42" s="11">
+        <v>4897</v>
+      </c>
+      <c r="AO42" s="5">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>4853.3999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="4" t="s">
         <v>9</v>
       </c>
@@ -4691,17 +5392,27 @@
         <f t="shared" si="19"/>
         <v>0.31840000000000002</v>
       </c>
-      <c r="O43" s="12"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="5" t="e">
+      <c r="O43" s="12">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="P43" s="13">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="Q43" s="13">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="R43" s="13">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="S43" s="14">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="T43" s="5">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>0.16880000000000001</v>
       </c>
       <c r="U43" s="15"/>
-      <c r="V43" s="21"/>
+      <c r="V43" s="23"/>
       <c r="W43" s="4" t="s">
         <v>9</v>
       </c>
@@ -4743,14 +5454,24 @@
         <f t="shared" si="22"/>
         <v>3140</v>
       </c>
-      <c r="AJ43" s="12"/>
-      <c r="AK43" s="13"/>
-      <c r="AL43" s="13"/>
-      <c r="AM43" s="13"/>
-      <c r="AN43" s="14"/>
-      <c r="AO43" s="5" t="e">
+      <c r="AJ43" s="12">
+        <v>5808</v>
+      </c>
+      <c r="AK43" s="13">
+        <v>5741</v>
+      </c>
+      <c r="AL43" s="13">
+        <v>5946</v>
+      </c>
+      <c r="AM43" s="13">
+        <v>5982</v>
+      </c>
+      <c r="AN43" s="14">
+        <v>6129</v>
+      </c>
+      <c r="AO43" s="5">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>5921.2</v>
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
@@ -4797,7 +5518,7 @@
       <c r="AO44" s="15"/>
     </row>
     <row r="45" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -4841,17 +5562,27 @@
         <f>AVERAGE(I45:M45)</f>
         <v>0.29620000000000002</v>
       </c>
-      <c r="O45" s="6"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="5" t="e">
+      <c r="O45" s="6">
+        <v>0.191</v>
+      </c>
+      <c r="P45" s="7">
+        <v>0.191</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>0.187</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0.186</v>
+      </c>
+      <c r="S45" s="8">
+        <v>0.192</v>
+      </c>
+      <c r="T45" s="5">
         <f>AVERAGE(O45:S45)</f>
-        <v>#DIV/0!</v>
+        <v>0.18939999999999996</v>
       </c>
       <c r="U45" s="15"/>
-      <c r="V45" s="21" t="s">
+      <c r="V45" s="23" t="s">
         <v>23</v>
       </c>
       <c r="W45" s="4" t="s">
@@ -4895,18 +5626,28 @@
         <f>AVERAGE(AD45:AH45)</f>
         <v>100.88800000000001</v>
       </c>
-      <c r="AJ45" s="6"/>
-      <c r="AK45" s="7"/>
-      <c r="AL45" s="7"/>
-      <c r="AM45" s="7"/>
-      <c r="AN45" s="8"/>
-      <c r="AO45" s="5" t="e">
+      <c r="AJ45" s="6">
+        <v>155.5</v>
+      </c>
+      <c r="AK45" s="7">
+        <v>155.5</v>
+      </c>
+      <c r="AL45" s="7">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="AM45" s="7">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="AN45" s="8">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="AO45" s="5">
         <f>AVERAGE(AJ45:AN45)</f>
-        <v>#DIV/0!</v>
+        <v>156.84</v>
       </c>
     </row>
     <row r="46" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="4" t="s">
         <v>2</v>
       </c>
@@ -4948,17 +5689,27 @@
         <f t="shared" ref="N46:N53" si="25">AVERAGE(I46:M46)</f>
         <v>0.94860000000000011</v>
       </c>
-      <c r="O46" s="9"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="5" t="e">
+      <c r="O46" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="P46" s="19">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="Q46" s="19">
+        <v>1.599</v>
+      </c>
+      <c r="R46" s="19">
+        <v>1.593</v>
+      </c>
+      <c r="S46" s="11">
+        <v>1.706</v>
+      </c>
+      <c r="T46" s="5">
         <f t="shared" ref="T46:T53" si="26">AVERAGE(O46:S46)</f>
-        <v>#DIV/0!</v>
+        <v>1.6544000000000001</v>
       </c>
       <c r="U46" s="15"/>
-      <c r="V46" s="21"/>
+      <c r="V46" s="23"/>
       <c r="W46" s="4" t="s">
         <v>2</v>
       </c>
@@ -4978,7 +5729,7 @@
         <v>1178</v>
       </c>
       <c r="AC46" s="5">
-        <f t="shared" ref="AC46:AC53" si="27">AVERAGE(X46:AB46)</f>
+        <f t="shared" ref="AC46:AC52" si="27">AVERAGE(X46:AB46)</f>
         <v>1183.2</v>
       </c>
       <c r="AD46" s="9">
@@ -5000,18 +5751,28 @@
         <f t="shared" ref="AI46:AI53" si="28">AVERAGE(AD46:AH46)</f>
         <v>6204.2</v>
       </c>
-      <c r="AJ46" s="9"/>
-      <c r="AK46" s="10"/>
-      <c r="AL46" s="10"/>
-      <c r="AM46" s="10"/>
-      <c r="AN46" s="11"/>
-      <c r="AO46" s="5" t="e">
+      <c r="AJ46" s="9">
+        <v>3459</v>
+      </c>
+      <c r="AK46" s="19">
+        <v>3513</v>
+      </c>
+      <c r="AL46" s="19">
+        <v>3678</v>
+      </c>
+      <c r="AM46" s="19">
+        <v>3691</v>
+      </c>
+      <c r="AN46" s="11">
+        <v>3447</v>
+      </c>
+      <c r="AO46" s="5">
         <f t="shared" ref="AO46:AO53" si="29">AVERAGE(AJ46:AN46)</f>
-        <v>#DIV/0!</v>
+        <v>3557.6</v>
       </c>
     </row>
     <row r="47" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="4" t="s">
         <v>3</v>
       </c>
@@ -5053,17 +5814,27 @@
         <f t="shared" si="25"/>
         <v>2.7789999999999999</v>
       </c>
-      <c r="O47" s="9"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="5" t="e">
+      <c r="O47" s="9">
+        <v>3.2309999999999999</v>
+      </c>
+      <c r="P47" s="19">
+        <v>3.4319999999999999</v>
+      </c>
+      <c r="Q47" s="19">
+        <v>3.3570000000000002</v>
+      </c>
+      <c r="R47" s="19">
+        <v>3.3460000000000001</v>
+      </c>
+      <c r="S47" s="11">
+        <v>3.395</v>
+      </c>
+      <c r="T47" s="5">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>3.3521999999999998</v>
       </c>
       <c r="U47" s="15"/>
-      <c r="V47" s="21"/>
+      <c r="V47" s="23"/>
       <c r="W47" s="4" t="s">
         <v>3</v>
       </c>
@@ -5105,18 +5876,28 @@
         <f t="shared" si="28"/>
         <v>7511.2</v>
       </c>
-      <c r="AJ47" s="9"/>
-      <c r="AK47" s="10"/>
-      <c r="AL47" s="10"/>
-      <c r="AM47" s="10"/>
-      <c r="AN47" s="11"/>
-      <c r="AO47" s="5" t="e">
+      <c r="AJ47" s="9">
+        <v>6458</v>
+      </c>
+      <c r="AK47" s="19">
+        <v>6080</v>
+      </c>
+      <c r="AL47" s="19">
+        <v>6216</v>
+      </c>
+      <c r="AM47" s="19">
+        <v>6236</v>
+      </c>
+      <c r="AN47" s="11">
+        <v>6146</v>
+      </c>
+      <c r="AO47" s="5">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>6227.2</v>
       </c>
     </row>
     <row r="48" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="4" t="s">
         <v>4</v>
       </c>
@@ -5158,17 +5939,27 @@
         <f t="shared" si="25"/>
         <v>8.4559999999999995</v>
       </c>
-      <c r="O48" s="9"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="5" t="e">
+      <c r="O48" s="9">
+        <v>8.5690000000000008</v>
+      </c>
+      <c r="P48" s="19">
+        <v>8.4809999999999999</v>
+      </c>
+      <c r="Q48" s="19">
+        <v>8.5749999999999993</v>
+      </c>
+      <c r="R48" s="19">
+        <v>8.7070000000000007</v>
+      </c>
+      <c r="S48" s="11">
+        <v>8.6980000000000004</v>
+      </c>
+      <c r="T48" s="5">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>8.6059999999999999</v>
       </c>
       <c r="U48" s="15"/>
-      <c r="V48" s="21"/>
+      <c r="V48" s="23"/>
       <c r="W48" s="4" t="s">
         <v>4</v>
       </c>
@@ -5210,18 +6001,28 @@
         <f t="shared" si="28"/>
         <v>9792.7999999999993</v>
       </c>
-      <c r="AJ48" s="9"/>
-      <c r="AK48" s="10"/>
-      <c r="AL48" s="10"/>
-      <c r="AM48" s="10"/>
-      <c r="AN48" s="11"/>
-      <c r="AO48" s="5" t="e">
+      <c r="AJ48" s="9">
+        <v>9663</v>
+      </c>
+      <c r="AK48" s="19">
+        <v>9763</v>
+      </c>
+      <c r="AL48" s="19">
+        <v>9656</v>
+      </c>
+      <c r="AM48" s="19">
+        <v>9510</v>
+      </c>
+      <c r="AN48" s="11">
+        <v>9520</v>
+      </c>
+      <c r="AO48" s="5">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>9622.4</v>
       </c>
     </row>
     <row r="49" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="4" t="s">
         <v>5</v>
       </c>
@@ -5263,17 +6064,27 @@
         <f t="shared" si="25"/>
         <v>15.094400000000002</v>
       </c>
-      <c r="O49" s="9"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="5" t="e">
+      <c r="O49" s="9">
+        <v>13.667</v>
+      </c>
+      <c r="P49" s="19">
+        <v>13.663</v>
+      </c>
+      <c r="Q49" s="19">
+        <v>13.374000000000001</v>
+      </c>
+      <c r="R49" s="19">
+        <v>13.692</v>
+      </c>
+      <c r="S49" s="11">
+        <v>13.452999999999999</v>
+      </c>
+      <c r="T49" s="5">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>13.569800000000001</v>
       </c>
       <c r="U49" s="15"/>
-      <c r="V49" s="21"/>
+      <c r="V49" s="23"/>
       <c r="W49" s="4" t="s">
         <v>5</v>
       </c>
@@ -5315,18 +6126,28 @@
         <f t="shared" si="28"/>
         <v>10696</v>
       </c>
-      <c r="AJ49" s="9"/>
-      <c r="AK49" s="10"/>
-      <c r="AL49" s="10"/>
-      <c r="AM49" s="10"/>
-      <c r="AN49" s="11"/>
-      <c r="AO49" s="5" t="e">
+      <c r="AJ49" s="9">
+        <v>11810</v>
+      </c>
+      <c r="AK49" s="19">
+        <v>11820</v>
+      </c>
+      <c r="AL49" s="19">
+        <v>12070</v>
+      </c>
+      <c r="AM49" s="19">
+        <v>11790</v>
+      </c>
+      <c r="AN49" s="11">
+        <v>12000</v>
+      </c>
+      <c r="AO49" s="5">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>11898</v>
       </c>
     </row>
     <row r="50" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
+      <c r="A50" s="23"/>
       <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
@@ -5368,17 +6189,27 @@
         <f t="shared" si="25"/>
         <v>0.28280000000000005</v>
       </c>
-      <c r="O50" s="9"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="5" t="e">
+      <c r="O50" s="9">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="P50" s="19">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="Q50" s="19">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="R50" s="19">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="S50" s="11">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="T50" s="5">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>0.17880000000000001</v>
       </c>
       <c r="U50" s="15"/>
-      <c r="V50" s="21"/>
+      <c r="V50" s="23"/>
       <c r="W50" s="4" t="s">
         <v>6</v>
       </c>
@@ -5420,18 +6251,28 @@
         <f t="shared" si="28"/>
         <v>885.2</v>
       </c>
-      <c r="AJ50" s="9"/>
-      <c r="AK50" s="10"/>
-      <c r="AL50" s="10"/>
-      <c r="AM50" s="10"/>
-      <c r="AN50" s="11"/>
-      <c r="AO50" s="5" t="e">
+      <c r="AJ50" s="9">
+        <v>745.7</v>
+      </c>
+      <c r="AK50" s="19">
+        <v>1711</v>
+      </c>
+      <c r="AL50" s="19">
+        <v>1735</v>
+      </c>
+      <c r="AM50" s="19">
+        <v>1892</v>
+      </c>
+      <c r="AN50" s="11">
+        <v>1823</v>
+      </c>
+      <c r="AO50" s="5">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>1581.34</v>
       </c>
     </row>
     <row r="51" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
@@ -5473,17 +6314,27 @@
         <f t="shared" si="25"/>
         <v>0.29219999999999996</v>
       </c>
-      <c r="O51" s="9"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="5" t="e">
+      <c r="O51" s="9">
+        <v>0.152</v>
+      </c>
+      <c r="P51" s="19">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="Q51" s="19">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="R51" s="19">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="S51" s="11">
+        <v>0.152</v>
+      </c>
+      <c r="T51" s="5">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>0.1484</v>
       </c>
       <c r="U51" s="15"/>
-      <c r="V51" s="21"/>
+      <c r="V51" s="23"/>
       <c r="W51" s="4" t="s">
         <v>7</v>
       </c>
@@ -5525,18 +6376,28 @@
         <f t="shared" si="28"/>
         <v>1712.8</v>
       </c>
-      <c r="AJ51" s="9"/>
-      <c r="AK51" s="10"/>
-      <c r="AL51" s="10"/>
-      <c r="AM51" s="10"/>
-      <c r="AN51" s="11"/>
-      <c r="AO51" s="5" t="e">
+      <c r="AJ51" s="9">
+        <v>3287</v>
+      </c>
+      <c r="AK51" s="19">
+        <v>3445</v>
+      </c>
+      <c r="AL51" s="19">
+        <v>3422</v>
+      </c>
+      <c r="AM51" s="19">
+        <v>3398</v>
+      </c>
+      <c r="AN51" s="11">
+        <v>3287</v>
+      </c>
+      <c r="AO51" s="5">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>3367.8</v>
       </c>
     </row>
     <row r="52" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="4" t="s">
         <v>8</v>
       </c>
@@ -5578,17 +6439,27 @@
         <f t="shared" si="25"/>
         <v>0.30759999999999998</v>
       </c>
-      <c r="O52" s="9"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="5" t="e">
+      <c r="O52" s="9">
+        <v>0.159</v>
+      </c>
+      <c r="P52" s="19">
+        <v>0.157</v>
+      </c>
+      <c r="Q52" s="19">
+        <v>0.158</v>
+      </c>
+      <c r="R52" s="19">
+        <v>0.156</v>
+      </c>
+      <c r="S52" s="11">
+        <v>0.161</v>
+      </c>
+      <c r="T52" s="5">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>0.15820000000000001</v>
       </c>
       <c r="U52" s="15"/>
-      <c r="V52" s="21"/>
+      <c r="V52" s="23"/>
       <c r="W52" s="4" t="s">
         <v>8</v>
       </c>
@@ -5630,18 +6501,28 @@
         <f t="shared" si="28"/>
         <v>2437.8000000000002</v>
       </c>
-      <c r="AJ52" s="9"/>
-      <c r="AK52" s="10"/>
-      <c r="AL52" s="10"/>
-      <c r="AM52" s="10"/>
-      <c r="AN52" s="11"/>
-      <c r="AO52" s="5" t="e">
+      <c r="AJ52" s="9">
+        <v>4712</v>
+      </c>
+      <c r="AK52" s="19">
+        <v>4772</v>
+      </c>
+      <c r="AL52" s="19">
+        <v>4742</v>
+      </c>
+      <c r="AM52" s="19">
+        <v>4803</v>
+      </c>
+      <c r="AN52" s="11">
+        <v>4654</v>
+      </c>
+      <c r="AO52" s="5">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>4736.6000000000004</v>
       </c>
     </row>
     <row r="53" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -5683,17 +6564,27 @@
         <f t="shared" si="25"/>
         <v>0.314</v>
       </c>
-      <c r="O53" s="12"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="5" t="e">
+      <c r="O53" s="12">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="P53" s="13">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="Q53" s="13">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="R53" s="13">
+        <v>0.161</v>
+      </c>
+      <c r="S53" s="14">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="T53" s="5">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>0.16540000000000002</v>
       </c>
       <c r="U53" s="15"/>
-      <c r="V53" s="21"/>
+      <c r="V53" s="23"/>
       <c r="W53" s="4" t="s">
         <v>9</v>
       </c>
@@ -5735,14 +6626,24 @@
         <f t="shared" si="28"/>
         <v>3188.2</v>
       </c>
-      <c r="AJ53" s="12"/>
-      <c r="AK53" s="13"/>
-      <c r="AL53" s="13"/>
-      <c r="AM53" s="13"/>
-      <c r="AN53" s="14"/>
-      <c r="AO53" s="5" t="e">
+      <c r="AJ53" s="12">
+        <v>5946</v>
+      </c>
+      <c r="AK53" s="13">
+        <v>6167</v>
+      </c>
+      <c r="AL53" s="13">
+        <v>5946</v>
+      </c>
+      <c r="AM53" s="13">
+        <v>6205</v>
+      </c>
+      <c r="AN53" s="14">
+        <v>5946</v>
+      </c>
+      <c r="AO53" s="5">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>6042</v>
       </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
@@ -5789,7 +6690,7 @@
       <c r="AO54" s="15"/>
     </row>
     <row r="55" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -5833,17 +6734,27 @@
         <f>AVERAGE(I55:M55)</f>
         <v>0.30179999999999996</v>
       </c>
-      <c r="O55" s="6"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="5" t="e">
+      <c r="O55" s="6">
+        <v>0.189</v>
+      </c>
+      <c r="P55" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>0.184</v>
+      </c>
+      <c r="R55" s="7">
+        <v>0.189</v>
+      </c>
+      <c r="S55" s="8">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="T55" s="5">
         <f>AVERAGE(O55:S55)</f>
-        <v>#DIV/0!</v>
+        <v>0.19139999999999999</v>
       </c>
       <c r="U55" s="15"/>
-      <c r="V55" s="21" t="s">
+      <c r="V55" s="23" t="s">
         <v>24</v>
       </c>
       <c r="W55" s="4" t="s">
@@ -5887,18 +6798,28 @@
         <f>AVERAGE(AD55:AH55)</f>
         <v>99.49199999999999</v>
       </c>
-      <c r="AJ55" s="6"/>
-      <c r="AK55" s="7"/>
-      <c r="AL55" s="7"/>
-      <c r="AM55" s="7"/>
-      <c r="AN55" s="8"/>
-      <c r="AO55" s="5" t="e">
+      <c r="AJ55" s="6">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="AK55" s="7">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="AL55" s="7">
+        <v>161.4</v>
+      </c>
+      <c r="AM55" s="7">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="AN55" s="8">
+        <v>144.9</v>
+      </c>
+      <c r="AO55" s="5">
         <f>AVERAGE(AJ55:AN55)</f>
-        <v>#DIV/0!</v>
+        <v>155.39999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
@@ -5940,17 +6861,27 @@
         <f t="shared" ref="N56:N63" si="31">AVERAGE(I56:M56)</f>
         <v>0.98759999999999992</v>
       </c>
-      <c r="O56" s="9"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="5" t="e">
+      <c r="O56" s="9">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="P56" s="19">
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="Q56" s="19">
+        <v>1.63</v>
+      </c>
+      <c r="R56" s="19">
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="S56" s="11">
+        <v>1.62</v>
+      </c>
+      <c r="T56" s="5">
         <f t="shared" ref="T56:T63" si="32">AVERAGE(O56:S56)</f>
-        <v>#DIV/0!</v>
+        <v>1.6621999999999999</v>
       </c>
       <c r="U56" s="15"/>
-      <c r="V56" s="21"/>
+      <c r="V56" s="23"/>
       <c r="W56" s="4" t="s">
         <v>2</v>
       </c>
@@ -5992,18 +6923,28 @@
         <f t="shared" ref="AI56:AI63" si="34">AVERAGE(AD56:AH56)</f>
         <v>5958.8</v>
       </c>
-      <c r="AJ56" s="9"/>
-      <c r="AK56" s="10"/>
-      <c r="AL56" s="10"/>
-      <c r="AM56" s="10"/>
-      <c r="AN56" s="11"/>
-      <c r="AO56" s="5" t="e">
+      <c r="AJ56" s="9">
+        <v>3269</v>
+      </c>
+      <c r="AK56" s="19">
+        <v>3621</v>
+      </c>
+      <c r="AL56" s="19">
+        <v>3608</v>
+      </c>
+      <c r="AM56" s="19">
+        <v>3590</v>
+      </c>
+      <c r="AN56" s="11">
+        <v>3630</v>
+      </c>
+      <c r="AO56" s="5">
         <f t="shared" ref="AO56:AO63" si="35">AVERAGE(AJ56:AN56)</f>
-        <v>#DIV/0!</v>
+        <v>3543.6</v>
       </c>
     </row>
     <row r="57" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="4" t="s">
         <v>3</v>
       </c>
@@ -6045,17 +6986,27 @@
         <f t="shared" si="31"/>
         <v>2.7727999999999997</v>
       </c>
-      <c r="O57" s="9"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="5" t="e">
+      <c r="O57" s="9">
+        <v>3.6869999999999998</v>
+      </c>
+      <c r="P57" s="19">
+        <v>3.6429999999999998</v>
+      </c>
+      <c r="Q57" s="19">
+        <v>3.4460000000000002</v>
+      </c>
+      <c r="R57" s="19">
+        <v>3.5329999999999999</v>
+      </c>
+      <c r="S57" s="11">
+        <v>3.4430000000000001</v>
+      </c>
+      <c r="T57" s="5">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>3.5503999999999998</v>
       </c>
       <c r="U57" s="15"/>
-      <c r="V57" s="21"/>
+      <c r="V57" s="23"/>
       <c r="W57" s="4" t="s">
         <v>3</v>
       </c>
@@ -6097,18 +7048,28 @@
         <f t="shared" si="34"/>
         <v>7525.8</v>
       </c>
-      <c r="AJ57" s="9"/>
-      <c r="AK57" s="10"/>
-      <c r="AL57" s="10"/>
-      <c r="AM57" s="10"/>
-      <c r="AN57" s="11"/>
-      <c r="AO57" s="5" t="e">
+      <c r="AJ57" s="9">
+        <v>5660</v>
+      </c>
+      <c r="AK57" s="19">
+        <v>5728</v>
+      </c>
+      <c r="AL57" s="19">
+        <v>6055</v>
+      </c>
+      <c r="AM57" s="19">
+        <v>5906</v>
+      </c>
+      <c r="AN57" s="11">
+        <v>6061</v>
+      </c>
+      <c r="AO57" s="24">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="58" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="4" t="s">
         <v>4</v>
       </c>
@@ -6150,17 +7111,27 @@
         <f t="shared" si="31"/>
         <v>8.2539999999999996</v>
       </c>
-      <c r="O58" s="9"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="5" t="e">
+      <c r="O58" s="9">
+        <v>8.7490000000000006</v>
+      </c>
+      <c r="P58" s="19">
+        <v>8.4749999999999996</v>
+      </c>
+      <c r="Q58" s="19">
+        <v>8.8469999999999995</v>
+      </c>
+      <c r="R58" s="19">
+        <v>9.0069999999999997</v>
+      </c>
+      <c r="S58" s="11">
+        <v>8.7279999999999998</v>
+      </c>
+      <c r="T58" s="5">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>8.7611999999999988</v>
       </c>
       <c r="U58" s="15"/>
-      <c r="V58" s="21"/>
+      <c r="V58" s="23"/>
       <c r="W58" s="4" t="s">
         <v>4</v>
       </c>
@@ -6202,18 +7173,28 @@
         <f t="shared" si="34"/>
         <v>10032.799999999999</v>
       </c>
-      <c r="AJ58" s="9"/>
-      <c r="AK58" s="10"/>
-      <c r="AL58" s="10"/>
-      <c r="AM58" s="10"/>
-      <c r="AN58" s="11"/>
-      <c r="AO58" s="5" t="e">
+      <c r="AJ58" s="9">
+        <v>9464</v>
+      </c>
+      <c r="AK58" s="19">
+        <v>9770</v>
+      </c>
+      <c r="AL58" s="19">
+        <v>9359</v>
+      </c>
+      <c r="AM58" s="19">
+        <v>9193</v>
+      </c>
+      <c r="AN58" s="11">
+        <v>9487</v>
+      </c>
+      <c r="AO58" s="5">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
+        <v>9454.6</v>
       </c>
     </row>
     <row r="59" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="4" t="s">
         <v>5</v>
       </c>
@@ -6255,17 +7236,27 @@
         <f t="shared" si="31"/>
         <v>14.4404</v>
       </c>
-      <c r="O59" s="9"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="5" t="e">
+      <c r="O59" s="9">
+        <v>13.114000000000001</v>
+      </c>
+      <c r="P59" s="19">
+        <v>13.525</v>
+      </c>
+      <c r="Q59" s="19">
+        <v>13.358000000000001</v>
+      </c>
+      <c r="R59" s="19">
+        <v>13.288</v>
+      </c>
+      <c r="S59" s="11">
+        <v>13.061999999999999</v>
+      </c>
+      <c r="T59" s="5">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>13.269399999999999</v>
       </c>
       <c r="U59" s="15"/>
-      <c r="V59" s="21"/>
+      <c r="V59" s="23"/>
       <c r="W59" s="4" t="s">
         <v>5</v>
       </c>
@@ -6307,18 +7298,28 @@
         <f t="shared" si="34"/>
         <v>11180</v>
       </c>
-      <c r="AJ59" s="9"/>
-      <c r="AK59" s="10"/>
-      <c r="AL59" s="10"/>
-      <c r="AM59" s="10"/>
-      <c r="AN59" s="11"/>
-      <c r="AO59" s="5" t="e">
+      <c r="AJ59" s="9">
+        <v>12310</v>
+      </c>
+      <c r="AK59" s="19">
+        <v>11940</v>
+      </c>
+      <c r="AL59" s="19">
+        <v>12090</v>
+      </c>
+      <c r="AM59" s="19">
+        <v>12150</v>
+      </c>
+      <c r="AN59" s="11">
+        <v>12360</v>
+      </c>
+      <c r="AO59" s="5">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
+        <v>12170</v>
       </c>
     </row>
     <row r="60" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="4" t="s">
         <v>6</v>
       </c>
@@ -6360,17 +7361,27 @@
         <f t="shared" si="31"/>
         <v>0.26840000000000003</v>
       </c>
-      <c r="O60" s="9"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="5" t="e">
+      <c r="O60" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="P60" s="19">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="Q60" s="19">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="R60" s="19">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="S60" s="11">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T60" s="5">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>0.14500000000000002</v>
       </c>
       <c r="U60" s="15"/>
-      <c r="V60" s="21"/>
+      <c r="V60" s="23"/>
       <c r="W60" s="4" t="s">
         <v>6</v>
       </c>
@@ -6412,18 +7423,28 @@
         <f t="shared" si="34"/>
         <v>933.87999999999988</v>
       </c>
-      <c r="AJ60" s="9"/>
-      <c r="AK60" s="10"/>
-      <c r="AL60" s="10"/>
-      <c r="AM60" s="10"/>
-      <c r="AN60" s="11"/>
-      <c r="AO60" s="5" t="e">
+      <c r="AJ60" s="9">
+        <v>1469</v>
+      </c>
+      <c r="AK60" s="19">
+        <v>1837</v>
+      </c>
+      <c r="AL60" s="19">
+        <v>1823</v>
+      </c>
+      <c r="AM60" s="19">
+        <v>1699</v>
+      </c>
+      <c r="AN60" s="11">
+        <v>1850</v>
+      </c>
+      <c r="AO60" s="5">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
+        <v>1735.6</v>
       </c>
     </row>
     <row r="61" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="4" t="s">
         <v>7</v>
       </c>
@@ -6465,17 +7486,27 @@
         <f t="shared" si="31"/>
         <v>0.28720000000000001</v>
       </c>
-      <c r="O61" s="9"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="5" t="e">
+      <c r="O61" s="9">
+        <v>0.155</v>
+      </c>
+      <c r="P61" s="19">
+        <v>0.153</v>
+      </c>
+      <c r="Q61" s="19">
+        <v>0.152</v>
+      </c>
+      <c r="R61" s="19">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="S61" s="11">
+        <v>0.152</v>
+      </c>
+      <c r="T61" s="5">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>0.1512</v>
       </c>
       <c r="U61" s="15"/>
-      <c r="V61" s="21"/>
+      <c r="V61" s="23"/>
       <c r="W61" s="4" t="s">
         <v>7</v>
       </c>
@@ -6517,18 +7548,28 @@
         <f t="shared" si="34"/>
         <v>1741.2</v>
       </c>
-      <c r="AJ61" s="9"/>
-      <c r="AK61" s="10"/>
-      <c r="AL61" s="10"/>
-      <c r="AM61" s="10"/>
-      <c r="AN61" s="11"/>
-      <c r="AO61" s="5" t="e">
+      <c r="AJ61" s="9">
+        <v>3223</v>
+      </c>
+      <c r="AK61" s="19">
+        <v>3265</v>
+      </c>
+      <c r="AL61" s="19">
+        <v>3287</v>
+      </c>
+      <c r="AM61" s="19">
+        <v>3469</v>
+      </c>
+      <c r="AN61" s="11">
+        <v>3287</v>
+      </c>
+      <c r="AO61" s="5">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
+        <v>3306.2</v>
       </c>
     </row>
     <row r="62" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="4" t="s">
         <v>8</v>
       </c>
@@ -6570,17 +7611,27 @@
         <f t="shared" si="31"/>
         <v>0.308</v>
       </c>
-      <c r="O62" s="9"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="5" t="e">
+      <c r="O62" s="9">
+        <v>0.156</v>
+      </c>
+      <c r="P62" s="19">
+        <v>0.16</v>
+      </c>
+      <c r="Q62" s="19">
+        <v>0.16</v>
+      </c>
+      <c r="R62" s="19">
+        <v>0.153</v>
+      </c>
+      <c r="S62" s="11">
+        <v>0.155</v>
+      </c>
+      <c r="T62" s="5">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>0.15679999999999999</v>
       </c>
       <c r="U62" s="15"/>
-      <c r="V62" s="21"/>
+      <c r="V62" s="23"/>
       <c r="W62" s="4" t="s">
         <v>8</v>
       </c>
@@ -6622,18 +7673,28 @@
         <f t="shared" si="34"/>
         <v>2434.4</v>
       </c>
-      <c r="AJ62" s="9"/>
-      <c r="AK62" s="10"/>
-      <c r="AL62" s="10"/>
-      <c r="AM62" s="10"/>
-      <c r="AN62" s="11"/>
-      <c r="AO62" s="5" t="e">
+      <c r="AJ62" s="9">
+        <v>4803</v>
+      </c>
+      <c r="AK62" s="19">
+        <v>4683</v>
+      </c>
+      <c r="AL62" s="19">
+        <v>4683</v>
+      </c>
+      <c r="AM62" s="19">
+        <v>4897</v>
+      </c>
+      <c r="AN62" s="11">
+        <v>4834</v>
+      </c>
+      <c r="AO62" s="5">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="63" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="4" t="s">
         <v>9</v>
       </c>
@@ -6675,17 +7736,27 @@
         <f t="shared" si="31"/>
         <v>0.31940000000000002</v>
       </c>
-      <c r="O63" s="12"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="14"/>
-      <c r="T63" s="5" t="e">
+      <c r="O63" s="12">
+        <v>0.161</v>
+      </c>
+      <c r="P63" s="13">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="Q63" s="13">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="R63" s="13">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="S63" s="14">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="T63" s="5">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>0.16420000000000001</v>
       </c>
       <c r="U63" s="15"/>
-      <c r="V63" s="21"/>
+      <c r="V63" s="23"/>
       <c r="W63" s="4" t="s">
         <v>9</v>
       </c>
@@ -6727,14 +7798,24 @@
         <f t="shared" si="34"/>
         <v>3133</v>
       </c>
-      <c r="AJ63" s="12"/>
-      <c r="AK63" s="13"/>
-      <c r="AL63" s="13"/>
-      <c r="AM63" s="13"/>
-      <c r="AN63" s="14"/>
-      <c r="AO63" s="5" t="e">
+      <c r="AJ63" s="12">
+        <v>6205</v>
+      </c>
+      <c r="AK63" s="13">
+        <v>6129</v>
+      </c>
+      <c r="AL63" s="13">
+        <v>6091</v>
+      </c>
+      <c r="AM63" s="13">
+        <v>6055</v>
+      </c>
+      <c r="AN63" s="14">
+        <v>5946</v>
+      </c>
+      <c r="AO63" s="5">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
+        <v>6085.2</v>
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.25">
@@ -6781,7 +7862,7 @@
       <c r="AO64" s="15"/>
     </row>
     <row r="65" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -6825,17 +7906,27 @@
         <f>AVERAGE(I65:M65)</f>
         <v>0.2994</v>
       </c>
-      <c r="O65" s="6"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="5" t="e">
+      <c r="O65" s="6">
+        <v>0.186</v>
+      </c>
+      <c r="P65" s="7">
+        <v>0.188</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="R65" s="7">
+        <v>0.193</v>
+      </c>
+      <c r="S65" s="8">
+        <v>0.191</v>
+      </c>
+      <c r="T65" s="5">
         <f>AVERAGE(O65:S65)</f>
-        <v>#DIV/0!</v>
+        <v>0.18960000000000005</v>
       </c>
       <c r="U65" s="15"/>
-      <c r="V65" s="21" t="s">
+      <c r="V65" s="23" t="s">
         <v>25</v>
       </c>
       <c r="W65" s="4" t="s">
@@ -6879,18 +7970,28 @@
         <f>AVERAGE(AD65:AH65)</f>
         <v>100.194</v>
       </c>
-      <c r="AJ65" s="6"/>
-      <c r="AK65" s="7"/>
-      <c r="AL65" s="7"/>
-      <c r="AM65" s="7"/>
-      <c r="AN65" s="8"/>
-      <c r="AO65" s="5" t="e">
+      <c r="AJ65" s="6">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="AK65" s="7">
+        <v>158</v>
+      </c>
+      <c r="AL65" s="7">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="AM65" s="7">
+        <v>153.9</v>
+      </c>
+      <c r="AN65" s="8">
+        <v>155.5</v>
+      </c>
+      <c r="AO65" s="5">
         <f>AVERAGE(AJ65:AN65)</f>
-        <v>#DIV/0!</v>
+        <v>156.68</v>
       </c>
     </row>
     <row r="66" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="4" t="s">
         <v>2</v>
       </c>
@@ -6932,17 +8033,27 @@
         <f t="shared" ref="N66:N73" si="37">AVERAGE(I66:M66)</f>
         <v>0.89960000000000007</v>
       </c>
-      <c r="O66" s="9"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="5" t="e">
+      <c r="O66" s="9">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="P66" s="19">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="Q66" s="19">
+        <v>1.613</v>
+      </c>
+      <c r="R66" s="19">
+        <v>1.7589999999999999</v>
+      </c>
+      <c r="S66" s="11">
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="T66" s="5">
         <f t="shared" ref="T66:T73" si="38">AVERAGE(O66:S66)</f>
-        <v>#DIV/0!</v>
+        <v>1.6611999999999998</v>
       </c>
       <c r="U66" s="15"/>
-      <c r="V66" s="21"/>
+      <c r="V66" s="23"/>
       <c r="W66" s="4" t="s">
         <v>2</v>
       </c>
@@ -6984,18 +8095,28 @@
         <f t="shared" ref="AI66:AI73" si="40">AVERAGE(AD66:AH66)</f>
         <v>6536.6</v>
       </c>
-      <c r="AJ66" s="9"/>
-      <c r="AK66" s="10"/>
-      <c r="AL66" s="10"/>
-      <c r="AM66" s="10"/>
-      <c r="AN66" s="11"/>
-      <c r="AO66" s="5" t="e">
+      <c r="AJ66" s="9">
+        <v>3525</v>
+      </c>
+      <c r="AK66" s="19">
+        <v>3717</v>
+      </c>
+      <c r="AL66" s="19">
+        <v>3646</v>
+      </c>
+      <c r="AM66" s="19">
+        <v>3343</v>
+      </c>
+      <c r="AN66" s="11">
+        <v>3492</v>
+      </c>
+      <c r="AO66" s="5">
         <f t="shared" ref="AO66:AO73" si="41">AVERAGE(AJ66:AN66)</f>
-        <v>#DIV/0!</v>
+        <v>3544.6</v>
       </c>
     </row>
     <row r="67" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="4" t="s">
         <v>3</v>
       </c>
@@ -7037,17 +8158,27 @@
         <f t="shared" si="37"/>
         <v>2.5697999999999999</v>
       </c>
-      <c r="O67" s="9"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="5" t="e">
+      <c r="O67" s="9">
+        <v>3.302</v>
+      </c>
+      <c r="P67" s="19">
+        <v>3.379</v>
+      </c>
+      <c r="Q67" s="19">
+        <v>3.2949999999999999</v>
+      </c>
+      <c r="R67" s="19">
+        <v>3.375</v>
+      </c>
+      <c r="S67" s="11">
+        <v>3.3180000000000001</v>
+      </c>
+      <c r="T67" s="5">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>3.3338000000000001</v>
       </c>
       <c r="U67" s="15"/>
-      <c r="V67" s="21"/>
+      <c r="V67" s="23"/>
       <c r="W67" s="4" t="s">
         <v>3</v>
       </c>
@@ -7089,18 +8220,28 @@
         <f t="shared" si="40"/>
         <v>8121.6</v>
       </c>
-      <c r="AJ67" s="9"/>
-      <c r="AK67" s="10"/>
-      <c r="AL67" s="10"/>
-      <c r="AM67" s="10"/>
-      <c r="AN67" s="11"/>
-      <c r="AO67" s="5" t="e">
+      <c r="AJ67" s="9">
+        <v>6319</v>
+      </c>
+      <c r="AK67" s="19">
+        <v>6175</v>
+      </c>
+      <c r="AL67" s="19">
+        <v>6333</v>
+      </c>
+      <c r="AM67" s="19">
+        <v>6183</v>
+      </c>
+      <c r="AN67" s="11">
+        <v>6289</v>
+      </c>
+      <c r="AO67" s="5">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
+        <v>6259.8</v>
       </c>
     </row>
     <row r="68" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="4" t="s">
         <v>4</v>
       </c>
@@ -7142,17 +8283,27 @@
         <f t="shared" si="37"/>
         <v>7.5489999999999995</v>
       </c>
-      <c r="O68" s="9"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="5" t="e">
+      <c r="O68" s="9">
+        <v>8.8109999999999999</v>
+      </c>
+      <c r="P68" s="19">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="Q68" s="19">
+        <v>8.4949999999999992</v>
+      </c>
+      <c r="R68" s="19">
+        <v>8.4789999999999992</v>
+      </c>
+      <c r="S68" s="11">
+        <v>8.4190000000000005</v>
+      </c>
+      <c r="T68" s="5">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>8.5307999999999993</v>
       </c>
       <c r="U68" s="15"/>
-      <c r="V68" s="21"/>
+      <c r="V68" s="23"/>
       <c r="W68" s="4" t="s">
         <v>4</v>
       </c>
@@ -7194,18 +8345,28 @@
         <f t="shared" si="40"/>
         <v>10972</v>
       </c>
-      <c r="AJ68" s="9"/>
-      <c r="AK68" s="10"/>
-      <c r="AL68" s="10"/>
-      <c r="AM68" s="10"/>
-      <c r="AN68" s="11"/>
-      <c r="AO68" s="5" t="e">
+      <c r="AJ68" s="9">
+        <v>9398</v>
+      </c>
+      <c r="AK68" s="19">
+        <v>9799</v>
+      </c>
+      <c r="AL68" s="19">
+        <v>9747</v>
+      </c>
+      <c r="AM68" s="19">
+        <v>9766</v>
+      </c>
+      <c r="AN68" s="11">
+        <v>9835</v>
+      </c>
+      <c r="AO68" s="5">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
+        <v>9709</v>
       </c>
     </row>
     <row r="69" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
+      <c r="A69" s="23"/>
       <c r="B69" s="4" t="s">
         <v>5</v>
       </c>
@@ -7247,17 +8408,27 @@
         <f t="shared" si="37"/>
         <v>13.186200000000003</v>
       </c>
-      <c r="O69" s="9"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="5" t="e">
+      <c r="O69" s="9">
+        <v>13.157999999999999</v>
+      </c>
+      <c r="P69" s="19">
+        <v>13.33</v>
+      </c>
+      <c r="Q69" s="19">
+        <v>13.09</v>
+      </c>
+      <c r="R69" s="19">
+        <v>13.395</v>
+      </c>
+      <c r="S69" s="11">
+        <v>13.237</v>
+      </c>
+      <c r="T69" s="5">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>13.241999999999999</v>
       </c>
       <c r="U69" s="15"/>
-      <c r="V69" s="21"/>
+      <c r="V69" s="23"/>
       <c r="W69" s="4" t="s">
         <v>5</v>
       </c>
@@ -7299,18 +8470,28 @@
         <f t="shared" si="40"/>
         <v>12244</v>
       </c>
-      <c r="AJ69" s="9"/>
-      <c r="AK69" s="10"/>
-      <c r="AL69" s="10"/>
-      <c r="AM69" s="10"/>
-      <c r="AN69" s="11"/>
-      <c r="AO69" s="5" t="e">
+      <c r="AJ69" s="9">
+        <v>12270</v>
+      </c>
+      <c r="AK69" s="19">
+        <v>12110</v>
+      </c>
+      <c r="AL69" s="19">
+        <v>12330</v>
+      </c>
+      <c r="AM69" s="19">
+        <v>12050</v>
+      </c>
+      <c r="AN69" s="11">
+        <v>12200</v>
+      </c>
+      <c r="AO69" s="5">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
+        <v>12192</v>
       </c>
     </row>
     <row r="70" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="4" t="s">
         <v>6</v>
       </c>
@@ -7352,17 +8533,27 @@
         <f t="shared" si="37"/>
         <v>0.27</v>
       </c>
-      <c r="O70" s="9"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="5" t="e">
+      <c r="O70" s="9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="P70" s="19">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="Q70" s="19">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="R70" s="19">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S70" s="11">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="T70" s="5">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>0.14360000000000001</v>
       </c>
       <c r="U70" s="15"/>
-      <c r="V70" s="21"/>
+      <c r="V70" s="23"/>
       <c r="W70" s="4" t="s">
         <v>6</v>
       </c>
@@ -7404,18 +8595,28 @@
         <f t="shared" si="40"/>
         <v>926.08000000000015</v>
       </c>
-      <c r="AJ70" s="9"/>
-      <c r="AK70" s="10"/>
-      <c r="AL70" s="10"/>
-      <c r="AM70" s="10"/>
-      <c r="AN70" s="11"/>
-      <c r="AO70" s="5" t="e">
+      <c r="AJ70" s="9">
+        <v>1514</v>
+      </c>
+      <c r="AK70" s="19">
+        <v>1797</v>
+      </c>
+      <c r="AL70" s="19">
+        <v>1797</v>
+      </c>
+      <c r="AM70" s="10">
+        <v>1810</v>
+      </c>
+      <c r="AN70" s="11">
+        <v>1823</v>
+      </c>
+      <c r="AO70" s="5">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
+        <v>1748.2</v>
       </c>
     </row>
     <row r="71" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="4" t="s">
         <v>7</v>
       </c>
@@ -7457,17 +8658,27 @@
         <f t="shared" si="37"/>
         <v>0.2868</v>
       </c>
-      <c r="O71" s="9"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="5" t="e">
+      <c r="O71" s="9">
+        <v>0.154</v>
+      </c>
+      <c r="P71" s="19">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="Q71" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="R71" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="S71" s="11">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="T71" s="5">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>0.14960000000000001</v>
       </c>
       <c r="U71" s="15"/>
-      <c r="V71" s="21"/>
+      <c r="V71" s="23"/>
       <c r="W71" s="4" t="s">
         <v>7</v>
       </c>
@@ -7509,18 +8720,28 @@
         <f t="shared" si="40"/>
         <v>1743.6</v>
       </c>
-      <c r="AJ71" s="9"/>
-      <c r="AK71" s="10"/>
-      <c r="AL71" s="10"/>
-      <c r="AM71" s="10"/>
-      <c r="AN71" s="11"/>
-      <c r="AO71" s="5" t="e">
+      <c r="AJ71" s="9">
+        <v>3244</v>
+      </c>
+      <c r="AK71" s="19">
+        <v>3375</v>
+      </c>
+      <c r="AL71" s="19">
+        <v>3330</v>
+      </c>
+      <c r="AM71" s="19">
+        <v>3330</v>
+      </c>
+      <c r="AN71" s="11">
+        <v>3422</v>
+      </c>
+      <c r="AO71" s="5">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
+        <v>3340.2</v>
       </c>
     </row>
     <row r="72" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="4" t="s">
         <v>8</v>
       </c>
@@ -7562,17 +8783,27 @@
         <f t="shared" si="37"/>
         <v>0.30080000000000001</v>
       </c>
-      <c r="O72" s="9"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="10"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="5" t="e">
+      <c r="O72" s="9">
+        <v>0.159</v>
+      </c>
+      <c r="P72" s="19">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="Q72" s="19">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="R72" s="19">
+        <v>0.161</v>
+      </c>
+      <c r="S72" s="11">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="T72" s="5">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>0.1618</v>
       </c>
       <c r="U72" s="15"/>
-      <c r="V72" s="21"/>
+      <c r="V72" s="23"/>
       <c r="W72" s="4" t="s">
         <v>8</v>
       </c>
@@ -7614,18 +8845,28 @@
         <f t="shared" si="40"/>
         <v>2492.1999999999998</v>
       </c>
-      <c r="AJ72" s="9"/>
-      <c r="AK72" s="10"/>
-      <c r="AL72" s="10"/>
-      <c r="AM72" s="10"/>
-      <c r="AN72" s="11"/>
-      <c r="AO72" s="5" t="e">
+      <c r="AJ72" s="9">
+        <v>4712</v>
+      </c>
+      <c r="AK72" s="19">
+        <v>4597</v>
+      </c>
+      <c r="AL72" s="19">
+        <v>4597</v>
+      </c>
+      <c r="AM72" s="19">
+        <v>4654</v>
+      </c>
+      <c r="AN72" s="11">
+        <v>4597</v>
+      </c>
+      <c r="AO72" s="5">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
+        <v>4631.3999999999996</v>
       </c>
     </row>
     <row r="73" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="4" t="s">
         <v>9</v>
       </c>
@@ -7667,17 +8908,27 @@
         <f t="shared" si="37"/>
         <v>0.3236</v>
       </c>
-      <c r="O73" s="12"/>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="14"/>
-      <c r="T73" s="5" t="e">
+      <c r="O73" s="12">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="P73" s="13">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="Q73" s="13">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="R73" s="13">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="S73" s="14">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="T73" s="5">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>0.16560000000000002</v>
       </c>
       <c r="U73" s="15"/>
-      <c r="V73" s="21"/>
+      <c r="V73" s="23"/>
       <c r="W73" s="4" t="s">
         <v>9</v>
       </c>
@@ -7719,14 +8970,24 @@
         <f t="shared" si="40"/>
         <v>3086.4</v>
       </c>
-      <c r="AJ73" s="12"/>
-      <c r="AK73" s="13"/>
-      <c r="AL73" s="13"/>
-      <c r="AM73" s="13"/>
-      <c r="AN73" s="14"/>
-      <c r="AO73" s="5" t="e">
+      <c r="AJ73" s="12">
+        <v>6055</v>
+      </c>
+      <c r="AK73" s="13">
+        <v>5982</v>
+      </c>
+      <c r="AL73" s="13">
+        <v>5946</v>
+      </c>
+      <c r="AM73" s="13">
+        <v>6055</v>
+      </c>
+      <c r="AN73" s="14">
+        <v>6129</v>
+      </c>
+      <c r="AO73" s="5">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
+        <v>6033.4</v>
       </c>
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.25">
@@ -7773,7 +9034,7 @@
       <c r="AO74" s="15"/>
     </row>
     <row r="75" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -7817,17 +9078,27 @@
         <f>AVERAGE(I75:M75)</f>
         <v>0.30460000000000004</v>
       </c>
-      <c r="O75" s="6"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="5" t="e">
+      <c r="O75" s="6">
+        <v>0.192</v>
+      </c>
+      <c r="P75" s="7">
+        <v>0.189</v>
+      </c>
+      <c r="Q75" s="7">
+        <v>0.191</v>
+      </c>
+      <c r="R75" s="7">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="S75" s="8">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="T75" s="5">
         <f>AVERAGE(O75:S75)</f>
-        <v>#DIV/0!</v>
+        <v>0.19420000000000001</v>
       </c>
       <c r="U75" s="15"/>
-      <c r="V75" s="21" t="s">
+      <c r="V75" s="23" t="s">
         <v>26</v>
       </c>
       <c r="W75" s="4" t="s">
@@ -7871,18 +9142,28 @@
         <f>AVERAGE(AD75:AH75)</f>
         <v>80.604000000000013</v>
       </c>
-      <c r="AJ75" s="6"/>
-      <c r="AK75" s="7"/>
-      <c r="AL75" s="7"/>
-      <c r="AM75" s="7"/>
-      <c r="AN75" s="8"/>
-      <c r="AO75" s="5" t="e">
+      <c r="AJ75" s="6">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="AK75" s="7">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="AL75" s="7">
+        <v>155.5</v>
+      </c>
+      <c r="AM75" s="7">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="AN75" s="8">
+        <v>145.6</v>
+      </c>
+      <c r="AO75" s="5">
         <f>AVERAGE(AJ75:AN75)</f>
-        <v>#DIV/0!</v>
+        <v>153.06</v>
       </c>
     </row>
     <row r="76" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="4" t="s">
         <v>2</v>
       </c>
@@ -7924,17 +9205,27 @@
         <f t="shared" ref="N76:N83" si="43">AVERAGE(I76:M76)</f>
         <v>0.90619999999999989</v>
       </c>
-      <c r="O76" s="9"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="10"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="5" t="e">
+      <c r="O76" s="9">
+        <v>1.77</v>
+      </c>
+      <c r="P76" s="19">
+        <v>0.17849999999999999</v>
+      </c>
+      <c r="Q76" s="19">
+        <v>1.631</v>
+      </c>
+      <c r="R76" s="19">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="S76" s="11">
+        <v>1.847</v>
+      </c>
+      <c r="T76" s="5">
         <f t="shared" ref="T76:T83" si="44">AVERAGE(O76:S76)</f>
-        <v>#DIV/0!</v>
+        <v>1.4327000000000001</v>
       </c>
       <c r="U76" s="15"/>
-      <c r="V76" s="21"/>
+      <c r="V76" s="23"/>
       <c r="W76" s="4" t="s">
         <v>2</v>
       </c>
@@ -7976,18 +9267,28 @@
         <f t="shared" ref="AI76:AI83" si="46">AVERAGE(AD76:AH76)</f>
         <v>6493.6</v>
       </c>
-      <c r="AJ76" s="9"/>
-      <c r="AK76" s="10"/>
-      <c r="AL76" s="10"/>
-      <c r="AM76" s="10"/>
-      <c r="AN76" s="11"/>
-      <c r="AO76" s="5" t="e">
+      <c r="AJ76" s="9">
+        <v>3322</v>
+      </c>
+      <c r="AK76" s="19">
+        <v>3294</v>
+      </c>
+      <c r="AL76" s="19">
+        <v>3605</v>
+      </c>
+      <c r="AM76" s="19">
+        <v>3385</v>
+      </c>
+      <c r="AN76" s="11">
+        <v>3184</v>
+      </c>
+      <c r="AO76" s="5">
         <f t="shared" ref="AO76:AO83" si="47">AVERAGE(AJ76:AN76)</f>
-        <v>#DIV/0!</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="77" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="4" t="s">
         <v>3</v>
       </c>
@@ -8029,17 +9330,27 @@
         <f t="shared" si="43"/>
         <v>2.7708000000000004</v>
       </c>
-      <c r="O77" s="9"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="10"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="5" t="e">
+      <c r="O77" s="9">
+        <v>3.7610000000000001</v>
+      </c>
+      <c r="P77" s="19">
+        <v>3.4529999999999998</v>
+      </c>
+      <c r="Q77" s="19">
+        <v>3.581</v>
+      </c>
+      <c r="R77" s="19">
+        <v>3.5059999999999998</v>
+      </c>
+      <c r="S77" s="11">
+        <v>3.6619999999999999</v>
+      </c>
+      <c r="T77" s="5">
         <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
+        <v>3.5926</v>
       </c>
       <c r="U77" s="15"/>
-      <c r="V77" s="21"/>
+      <c r="V77" s="23"/>
       <c r="W77" s="4" t="s">
         <v>3</v>
       </c>
@@ -8081,18 +9392,28 @@
         <f t="shared" si="46"/>
         <v>7531</v>
       </c>
-      <c r="AJ77" s="9"/>
-      <c r="AK77" s="10"/>
-      <c r="AL77" s="10"/>
-      <c r="AM77" s="10"/>
-      <c r="AN77" s="11"/>
-      <c r="AO77" s="5" t="e">
+      <c r="AJ77" s="9">
+        <v>5548</v>
+      </c>
+      <c r="AK77" s="19">
+        <v>6043</v>
+      </c>
+      <c r="AL77" s="19">
+        <v>5827</v>
+      </c>
+      <c r="AM77" s="19">
+        <v>5952</v>
+      </c>
+      <c r="AN77" s="11">
+        <v>5698</v>
+      </c>
+      <c r="AO77" s="5">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
+        <v>5813.6</v>
       </c>
     </row>
     <row r="78" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="4" t="s">
         <v>4</v>
       </c>
@@ -8134,17 +9455,27 @@
         <f t="shared" si="43"/>
         <v>8.1808000000000014</v>
       </c>
-      <c r="O78" s="9"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="10"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="5" t="e">
+      <c r="O78" s="9">
+        <v>8.6039999999999992</v>
+      </c>
+      <c r="P78" s="19">
+        <v>8.593</v>
+      </c>
+      <c r="Q78" s="19">
+        <v>8.8019999999999996</v>
+      </c>
+      <c r="R78" s="19">
+        <v>8.8539999999999992</v>
+      </c>
+      <c r="S78" s="11">
+        <v>8.6839999999999993</v>
+      </c>
+      <c r="T78" s="5">
         <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
+        <v>8.707399999999998</v>
       </c>
       <c r="U78" s="15"/>
-      <c r="V78" s="21"/>
+      <c r="V78" s="23"/>
       <c r="W78" s="4" t="s">
         <v>4</v>
       </c>
@@ -8186,18 +9517,28 @@
         <f t="shared" si="46"/>
         <v>10122</v>
       </c>
-      <c r="AJ78" s="9"/>
-      <c r="AK78" s="10"/>
-      <c r="AL78" s="10"/>
-      <c r="AM78" s="10"/>
-      <c r="AN78" s="11"/>
-      <c r="AO78" s="5" t="e">
+      <c r="AJ78" s="9">
+        <v>9624</v>
+      </c>
+      <c r="AK78" s="19">
+        <v>9636</v>
+      </c>
+      <c r="AL78" s="19">
+        <v>9407</v>
+      </c>
+      <c r="AM78" s="19">
+        <v>9352</v>
+      </c>
+      <c r="AN78" s="11">
+        <v>9535</v>
+      </c>
+      <c r="AO78" s="5">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
+        <v>9510.7999999999993</v>
       </c>
     </row>
     <row r="79" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
+      <c r="A79" s="23"/>
       <c r="B79" s="4" t="s">
         <v>5</v>
       </c>
@@ -8239,17 +9580,27 @@
         <f t="shared" si="43"/>
         <v>14.2822</v>
       </c>
-      <c r="O79" s="9"/>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="10"/>
-      <c r="S79" s="11"/>
-      <c r="T79" s="5" t="e">
+      <c r="O79" s="9">
+        <v>13.362</v>
+      </c>
+      <c r="P79" s="19">
+        <v>13.483000000000001</v>
+      </c>
+      <c r="Q79" s="19">
+        <v>13.752000000000001</v>
+      </c>
+      <c r="R79" s="19">
+        <v>13.491</v>
+      </c>
+      <c r="S79" s="11">
+        <v>13.891</v>
+      </c>
+      <c r="T79" s="5">
         <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
+        <v>13.595800000000001</v>
       </c>
       <c r="U79" s="15"/>
-      <c r="V79" s="21"/>
+      <c r="V79" s="23"/>
       <c r="W79" s="4" t="s">
         <v>5</v>
       </c>
@@ -8291,18 +9642,28 @@
         <f t="shared" si="46"/>
         <v>11304</v>
       </c>
-      <c r="AJ79" s="9"/>
-      <c r="AK79" s="10"/>
-      <c r="AL79" s="10"/>
-      <c r="AM79" s="10"/>
-      <c r="AN79" s="11"/>
-      <c r="AO79" s="5" t="e">
+      <c r="AJ79" s="9">
+        <v>12080</v>
+      </c>
+      <c r="AK79" s="19">
+        <v>11970</v>
+      </c>
+      <c r="AL79" s="19">
+        <v>11740</v>
+      </c>
+      <c r="AM79" s="19">
+        <v>11970</v>
+      </c>
+      <c r="AN79" s="11">
+        <v>11620</v>
+      </c>
+      <c r="AO79" s="5">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
+        <v>11876</v>
       </c>
     </row>
     <row r="80" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="21"/>
+      <c r="A80" s="23"/>
       <c r="B80" s="4" t="s">
         <v>6</v>
       </c>
@@ -8344,17 +9705,27 @@
         <f t="shared" si="43"/>
         <v>0.27160000000000001</v>
       </c>
-      <c r="O80" s="9"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="10"/>
-      <c r="R80" s="10"/>
-      <c r="S80" s="11"/>
-      <c r="T80" s="5" t="e">
+      <c r="O80" s="9">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="P80" s="19">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="Q80" s="19">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="R80" s="19">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="S80" s="11">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T80" s="5">
         <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
+        <v>0.14480000000000001</v>
       </c>
       <c r="U80" s="15"/>
-      <c r="V80" s="21"/>
+      <c r="V80" s="23"/>
       <c r="W80" s="4" t="s">
         <v>6</v>
       </c>
@@ -8396,18 +9767,28 @@
         <f t="shared" si="46"/>
         <v>920.78</v>
       </c>
-      <c r="AJ80" s="9"/>
-      <c r="AK80" s="10"/>
-      <c r="AL80" s="10"/>
-      <c r="AM80" s="10"/>
-      <c r="AN80" s="11"/>
-      <c r="AO80" s="5" t="e">
+      <c r="AJ80" s="9">
+        <v>1461</v>
+      </c>
+      <c r="AK80" s="19">
+        <v>1823</v>
+      </c>
+      <c r="AL80" s="19">
+        <v>1759</v>
+      </c>
+      <c r="AM80" s="19">
+        <v>1797</v>
+      </c>
+      <c r="AN80" s="11">
+        <v>1850</v>
+      </c>
+      <c r="AO80" s="5">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="81" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
+      <c r="A81" s="23"/>
       <c r="B81" s="4" t="s">
         <v>7</v>
       </c>
@@ -8449,17 +9830,27 @@
         <f t="shared" si="43"/>
         <v>0.28799999999999998</v>
       </c>
-      <c r="O81" s="9"/>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="10"/>
-      <c r="R81" s="10"/>
-      <c r="S81" s="11"/>
-      <c r="T81" s="5" t="e">
+      <c r="O81" s="9">
+        <v>0.153</v>
+      </c>
+      <c r="P81" s="19">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="Q81" s="19">
+        <v>0.152</v>
+      </c>
+      <c r="R81" s="19">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="S81" s="11">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="T81" s="5">
         <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
+        <v>0.14879999999999999</v>
       </c>
       <c r="U81" s="15"/>
-      <c r="V81" s="21"/>
+      <c r="V81" s="23"/>
       <c r="W81" s="4" t="s">
         <v>7</v>
       </c>
@@ -8501,18 +9892,28 @@
         <f t="shared" si="46"/>
         <v>1735.4</v>
       </c>
-      <c r="AJ81" s="9"/>
-      <c r="AK81" s="10"/>
-      <c r="AL81" s="10"/>
-      <c r="AM81" s="10"/>
-      <c r="AN81" s="11"/>
-      <c r="AO81" s="5" t="e">
+      <c r="AJ81" s="9">
+        <v>3265</v>
+      </c>
+      <c r="AK81" s="19">
+        <v>3445</v>
+      </c>
+      <c r="AL81" s="19">
+        <v>3287</v>
+      </c>
+      <c r="AM81" s="19">
+        <v>3445</v>
+      </c>
+      <c r="AN81" s="11">
+        <v>3353</v>
+      </c>
+      <c r="AO81" s="5">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="82" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="21"/>
+      <c r="A82" s="23"/>
       <c r="B82" s="4" t="s">
         <v>8</v>
       </c>
@@ -8554,17 +9955,27 @@
         <f t="shared" si="43"/>
         <v>0.2954</v>
       </c>
-      <c r="O82" s="9"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="10"/>
-      <c r="R82" s="10"/>
-      <c r="S82" s="11"/>
-      <c r="T82" s="5" t="e">
+      <c r="O82" s="9">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="P82" s="19">
+        <v>0.159</v>
+      </c>
+      <c r="Q82" s="19">
+        <v>0.154</v>
+      </c>
+      <c r="R82" s="19">
+        <v>0.158</v>
+      </c>
+      <c r="S82" s="11">
+        <v>0.161</v>
+      </c>
+      <c r="T82" s="5">
         <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
+        <v>0.15920000000000001</v>
       </c>
       <c r="U82" s="15"/>
-      <c r="V82" s="21"/>
+      <c r="V82" s="23"/>
       <c r="W82" s="4" t="s">
         <v>8</v>
       </c>
@@ -8606,18 +10017,28 @@
         <f t="shared" si="46"/>
         <v>2541.8000000000002</v>
       </c>
-      <c r="AJ82" s="9"/>
-      <c r="AK82" s="10"/>
-      <c r="AL82" s="10"/>
-      <c r="AM82" s="10"/>
-      <c r="AN82" s="11"/>
-      <c r="AO82" s="5" t="e">
+      <c r="AJ82" s="9">
+        <v>4569</v>
+      </c>
+      <c r="AK82" s="19">
+        <v>4712</v>
+      </c>
+      <c r="AL82" s="19">
+        <v>4865</v>
+      </c>
+      <c r="AM82" s="19">
+        <v>4742</v>
+      </c>
+      <c r="AN82" s="11">
+        <v>4654</v>
+      </c>
+      <c r="AO82" s="5">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
+        <v>4708.3999999999996</v>
       </c>
     </row>
     <row r="83" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
+      <c r="A83" s="23"/>
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
@@ -8659,17 +10080,27 @@
         <f t="shared" si="43"/>
         <v>0.31540000000000001</v>
       </c>
-      <c r="O83" s="12"/>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="13"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="14"/>
-      <c r="T83" s="5" t="e">
+      <c r="O83" s="12">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="P83" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="Q83" s="13">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="R83" s="13">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="S83" s="14">
+        <v>0.16</v>
+      </c>
+      <c r="T83" s="5">
         <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="U83" s="15"/>
-      <c r="V83" s="21"/>
+      <c r="V83" s="23"/>
       <c r="W83" s="4" t="s">
         <v>9</v>
       </c>
@@ -8711,23 +10142,33 @@
         <f t="shared" si="46"/>
         <v>3170.4</v>
       </c>
-      <c r="AJ83" s="12"/>
-      <c r="AK83" s="13"/>
-      <c r="AL83" s="13"/>
-      <c r="AM83" s="13"/>
-      <c r="AN83" s="14"/>
-      <c r="AO83" s="5" t="e">
+      <c r="AJ83" s="12">
+        <v>6167</v>
+      </c>
+      <c r="AK83" s="13">
+        <v>6244</v>
+      </c>
+      <c r="AL83" s="13">
+        <v>6055</v>
+      </c>
+      <c r="AM83" s="13">
+        <v>6129</v>
+      </c>
+      <c r="AN83" s="14">
+        <v>6244</v>
+      </c>
+      <c r="AO83" s="5">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
+        <v>6167.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="V1:X2"/>
-    <mergeCell ref="X3:AC3"/>
-    <mergeCell ref="V5:V13"/>
-    <mergeCell ref="V15:V23"/>
-    <mergeCell ref="V25:V33"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="A25:A33"/>
     <mergeCell ref="AD3:AI3"/>
     <mergeCell ref="AJ3:AO3"/>
     <mergeCell ref="O3:T3"/>
@@ -8742,11 +10183,11 @@
     <mergeCell ref="V55:V63"/>
     <mergeCell ref="V65:V73"/>
     <mergeCell ref="V75:V83"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="V1:X2"/>
+    <mergeCell ref="X3:AC3"/>
+    <mergeCell ref="V5:V13"/>
+    <mergeCell ref="V15:V23"/>
+    <mergeCell ref="V25:V33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
